--- a/data/updatadeDataBase.xlsx
+++ b/data/updatadeDataBase.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>شماره ردیف</t>
   </si>
@@ -114,12 +114,54 @@
   <si>
     <t>دوشنب ها</t>
   </si>
+  <si>
+    <t>علی</t>
+  </si>
+  <si>
+    <t>فرامرزی</t>
+  </si>
+  <si>
+    <t>اسکایپ</t>
+  </si>
+  <si>
+    <t>http://www.talab.org/wp-content/uploads/2017/05/1214775883-talab-org.jpg</t>
+  </si>
+  <si>
+    <t>مهندس خفن</t>
+  </si>
+  <si>
+    <t>یک شنبه ساعت 5 تا 8</t>
+  </si>
+  <si>
+    <t>دوشنبه ساعت 6</t>
+  </si>
+  <si>
+    <t>دوشنبه</t>
+  </si>
+  <si>
+    <t>سه شنبه</t>
+  </si>
+  <si>
+    <t>حسنی</t>
+  </si>
+  <si>
+    <t>زنگ بزن</t>
+  </si>
+  <si>
+    <t>https://wikichejoor.ir/wp-content/uploads/2016/11/3-19.jpg</t>
+  </si>
+  <si>
+    <t>استاد قوی</t>
+  </si>
+  <si>
+    <t>کریم</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -140,21 +182,16 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font/>
-    <font>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -163,25 +200,11 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <color rgb="FF000000"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -281,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -292,64 +315,58 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -693,41 +710,39 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
+      <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>1234</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
@@ -748,19 +763,19 @@
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
@@ -781,21 +796,41 @@
       <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4321</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
@@ -814,21 +849,21 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
@@ -849,21 +884,45 @@
       <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="9">
+        <v>55</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
@@ -882,21 +941,21 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -917,41 +976,37 @@
       <c r="A9" s="15">
         <v>4</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>27</v>
+      <c r="D9" s="9" t="s">
+        <v>43</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>28</v>
+      <c r="E9" s="10" t="s">
+        <v>20</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>29</v>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
       </c>
-      <c r="G9" s="18">
-        <v>4321</v>
+      <c r="G9" s="9">
+        <v>66</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>30</v>
+      <c r="H9" s="9" t="s">
+        <v>44</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>23</v>
+      <c r="I9" s="11" t="s">
+        <v>45</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>31</v>
+      <c r="J9" s="9" t="s">
+        <v>46</v>
       </c>
-      <c r="K9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -970,21 +1025,21 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -1005,13 +1060,15 @@
       <c r="A11" s="15">
         <v>5</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="14"/>
@@ -1038,13 +1095,13 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="14"/>
@@ -1073,10 +1130,10 @@
       <c r="A13" s="15">
         <v>6</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="19"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -1106,10 +1163,10 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -1141,10 +1198,10 @@
       <c r="A15" s="15">
         <v>7</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -1174,10 +1231,10 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -1209,10 +1266,10 @@
       <c r="A17" s="15">
         <v>8</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -1242,10 +1299,10 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="19"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -1277,10 +1334,10 @@
       <c r="A19" s="15">
         <v>9</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="19"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -1310,10 +1367,10 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="19"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -1345,10 +1402,10 @@
       <c r="A21" s="15">
         <v>10</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="19"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -1378,10 +1435,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="19"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -1413,10 +1470,10 @@
       <c r="A23" s="15">
         <v>11</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -1446,10 +1503,10 @@
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="19"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -1481,10 +1538,10 @@
       <c r="A25" s="15">
         <v>12</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="19"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -1514,10 +1571,10 @@
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="19"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -1549,10 +1606,10 @@
       <c r="A27" s="15">
         <v>13</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="15"/>
-      <c r="E27" s="19"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -1582,10 +1639,10 @@
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="15"/>
-      <c r="E28" s="19"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -1617,10 +1674,10 @@
       <c r="A29" s="15">
         <v>14</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="15"/>
-      <c r="E29" s="19"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -1650,10 +1707,10 @@
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="15"/>
-      <c r="E30" s="19"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -1685,10 +1742,10 @@
       <c r="A31" s="15">
         <v>15</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="15"/>
-      <c r="E31" s="19"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -1718,10 +1775,10 @@
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="15"/>
-      <c r="E32" s="19"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -1753,10 +1810,10 @@
       <c r="A33" s="15">
         <v>16</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="19"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -1786,10 +1843,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="19"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -1821,10 +1878,10 @@
       <c r="A35" s="15">
         <v>17</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="19"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -1854,10 +1911,10 @@
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="19"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -1889,10 +1946,10 @@
       <c r="A37" s="15">
         <v>18</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="19"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -1922,10 +1979,10 @@
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="19"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -1957,10 +2014,10 @@
       <c r="A39" s="15">
         <v>19</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="15"/>
-      <c r="E39" s="19"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -1990,10 +2047,10 @@
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="15"/>
-      <c r="E40" s="19"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -2025,10 +2082,10 @@
       <c r="A41" s="15">
         <v>20</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="19"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -2058,10 +2115,10 @@
     </row>
     <row r="42" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="20"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="19"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
@@ -2093,10 +2150,10 @@
       <c r="A43" s="15">
         <v>21</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="19"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -2126,10 +2183,10 @@
     </row>
     <row r="44" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="15"/>
-      <c r="E44" s="19"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -2161,10 +2218,10 @@
       <c r="A45" s="15">
         <v>22</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="15"/>
-      <c r="E45" s="19"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -2194,10 +2251,10 @@
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="15"/>
-      <c r="E46" s="19"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
@@ -2229,10 +2286,10 @@
       <c r="A47" s="15">
         <v>23</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="15"/>
-      <c r="E47" s="19"/>
+      <c r="E47" s="20"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
@@ -2262,10 +2319,10 @@
     </row>
     <row r="48" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="19"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="15"/>
-      <c r="E48" s="19"/>
+      <c r="E48" s="20"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -2297,10 +2354,10 @@
       <c r="A49" s="15">
         <v>24</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="19"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="15"/>
-      <c r="E49" s="19"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
@@ -2330,10 +2387,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="15"/>
-      <c r="E50" s="19"/>
+      <c r="E50" s="20"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
@@ -2365,10 +2422,10 @@
       <c r="A51" s="15">
         <v>25</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="19"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="15"/>
-      <c r="E51" s="19"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
@@ -2398,10 +2455,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="19"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="15"/>
-      <c r="E52" s="19"/>
+      <c r="E52" s="20"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
@@ -2433,10 +2490,10 @@
       <c r="A53" s="15">
         <v>26</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="15"/>
-      <c r="E53" s="19"/>
+      <c r="E53" s="20"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -2466,10 +2523,10 @@
     </row>
     <row r="54" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="15"/>
-      <c r="E54" s="19"/>
+      <c r="E54" s="20"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -2501,10 +2558,10 @@
       <c r="A55" s="15">
         <v>27</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="15"/>
-      <c r="E55" s="19"/>
+      <c r="E55" s="20"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
@@ -2534,10 +2591,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="15"/>
-      <c r="E56" s="19"/>
+      <c r="E56" s="20"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
@@ -2569,10 +2626,10 @@
       <c r="A57" s="15">
         <v>28</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="19"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="15"/>
-      <c r="E57" s="19"/>
+      <c r="E57" s="20"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
@@ -2602,10 +2659,10 @@
     </row>
     <row r="58" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="19"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="15"/>
-      <c r="E58" s="19"/>
+      <c r="E58" s="20"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
@@ -2637,10 +2694,10 @@
       <c r="A59" s="15">
         <v>29</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="19"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="15"/>
-      <c r="E59" s="19"/>
+      <c r="E59" s="20"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
@@ -2670,10 +2727,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="19"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="15"/>
-      <c r="E60" s="19"/>
+      <c r="E60" s="20"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
@@ -2705,10 +2762,10 @@
       <c r="A61" s="15">
         <v>30</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="19"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="15"/>
-      <c r="E61" s="19"/>
+      <c r="E61" s="20"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
@@ -2738,10 +2795,10 @@
     </row>
     <row r="62" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="19"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="15"/>
-      <c r="E62" s="19"/>
+      <c r="E62" s="20"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -2773,10 +2830,10 @@
       <c r="A63" s="15">
         <v>31</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="19"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="19"/>
+      <c r="E63" s="20"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
@@ -2806,10 +2863,10 @@
     </row>
     <row r="64" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="19"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="15"/>
-      <c r="E64" s="19"/>
+      <c r="E64" s="20"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -2841,10 +2898,10 @@
       <c r="A65" s="15">
         <v>32</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="19"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="15"/>
-      <c r="E65" s="19"/>
+      <c r="E65" s="20"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
       <c r="H65" s="15"/>
@@ -2874,10 +2931,10 @@
     </row>
     <row r="66" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="19"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="15"/>
-      <c r="E66" s="19"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
@@ -2909,10 +2966,10 @@
       <c r="A67" s="15">
         <v>33</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="19"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="15"/>
-      <c r="E67" s="19"/>
+      <c r="E67" s="20"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
@@ -2942,10 +2999,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="19"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="15"/>
-      <c r="E68" s="19"/>
+      <c r="E68" s="20"/>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
@@ -2977,10 +3034,10 @@
       <c r="A69" s="15">
         <v>34</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="19"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="15"/>
-      <c r="E69" s="19"/>
+      <c r="E69" s="20"/>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
@@ -3010,10 +3067,10 @@
     </row>
     <row r="70" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="19"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="15"/>
-      <c r="E70" s="19"/>
+      <c r="E70" s="20"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
@@ -3045,10 +3102,10 @@
       <c r="A71" s="15">
         <v>35</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="19"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="15"/>
-      <c r="E71" s="19"/>
+      <c r="E71" s="20"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
@@ -3078,10 +3135,10 @@
     </row>
     <row r="72" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="19"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="15"/>
-      <c r="E72" s="19"/>
+      <c r="E72" s="20"/>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
@@ -3113,10 +3170,10 @@
       <c r="A73" s="15">
         <v>36</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="19"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="15"/>
-      <c r="E73" s="19"/>
+      <c r="E73" s="20"/>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
@@ -3146,10 +3203,10 @@
     </row>
     <row r="74" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="19"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="15"/>
-      <c r="E74" s="19"/>
+      <c r="E74" s="20"/>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
@@ -3181,10 +3238,10 @@
       <c r="A75" s="15">
         <v>37</v>
       </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="19"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="15"/>
-      <c r="E75" s="19"/>
+      <c r="E75" s="20"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
@@ -3214,10 +3271,10 @@
     </row>
     <row r="76" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="15"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="19"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="15"/>
-      <c r="E76" s="19"/>
+      <c r="E76" s="20"/>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
@@ -3249,10 +3306,10 @@
       <c r="A77" s="15">
         <v>38</v>
       </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="19"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="15"/>
-      <c r="E77" s="19"/>
+      <c r="E77" s="20"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
@@ -3282,10 +3339,10 @@
     </row>
     <row r="78" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="19"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="15"/>
-      <c r="E78" s="19"/>
+      <c r="E78" s="20"/>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
@@ -3317,10 +3374,10 @@
       <c r="A79" s="15">
         <v>39</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="19"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="15"/>
-      <c r="E79" s="19"/>
+      <c r="E79" s="20"/>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
@@ -3350,10 +3407,10 @@
     </row>
     <row r="80" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="19"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="15"/>
-      <c r="E80" s="19"/>
+      <c r="E80" s="20"/>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
@@ -3385,10 +3442,10 @@
       <c r="A81" s="15">
         <v>40</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="19"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="15"/>
-      <c r="E81" s="19"/>
+      <c r="E81" s="20"/>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
@@ -3418,10 +3475,10 @@
     </row>
     <row r="82" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="19"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="20"/>
       <c r="D82" s="15"/>
-      <c r="E82" s="19"/>
+      <c r="E82" s="20"/>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
@@ -3453,8 +3510,8 @@
       <c r="A83" s="15">
         <v>41</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="19"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="20"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -3486,8 +3543,8 @@
     </row>
     <row r="84" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="19"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="20"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -3521,10 +3578,10 @@
       <c r="A85" s="15">
         <v>42</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="19"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="20"/>
       <c r="D85" s="15"/>
-      <c r="E85" s="19"/>
+      <c r="E85" s="20"/>
       <c r="F85" s="15"/>
       <c r="G85" s="15"/>
       <c r="H85" s="15"/>
@@ -3554,10 +3611,10 @@
     </row>
     <row r="86" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="15"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="19"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="20"/>
       <c r="D86" s="15"/>
-      <c r="E86" s="19"/>
+      <c r="E86" s="20"/>
       <c r="F86" s="15"/>
       <c r="G86" s="15"/>
       <c r="H86" s="15"/>
@@ -3589,10 +3646,10 @@
       <c r="A87" s="15">
         <v>43</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="19"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="20"/>
       <c r="D87" s="15"/>
-      <c r="E87" s="19"/>
+      <c r="E87" s="20"/>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
       <c r="H87" s="15"/>
@@ -3622,10 +3679,10 @@
     </row>
     <row r="88" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="15"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="19"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="20"/>
       <c r="D88" s="15"/>
-      <c r="E88" s="19"/>
+      <c r="E88" s="20"/>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
       <c r="H88" s="15"/>
@@ -3657,10 +3714,10 @@
       <c r="A89" s="15">
         <v>44</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="19"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="20"/>
       <c r="D89" s="15"/>
-      <c r="E89" s="19"/>
+      <c r="E89" s="20"/>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
       <c r="H89" s="15"/>
@@ -3690,10 +3747,10 @@
     </row>
     <row r="90" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="19"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="15"/>
-      <c r="E90" s="19"/>
+      <c r="E90" s="20"/>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
       <c r="H90" s="15"/>
@@ -3723,7 +3780,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
-      <c r="B91" s="23"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -3756,7 +3813,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
-      <c r="B92" s="23"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -3789,7 +3846,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
-      <c r="B93" s="23"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -3822,7 +3879,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
-      <c r="B94" s="23"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -3855,7 +3912,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
-      <c r="B95" s="23"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -3888,7 +3945,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
-      <c r="B96" s="23"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -3921,7 +3978,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
-      <c r="B97" s="23"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -3954,7 +4011,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
-      <c r="B98" s="23"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -3987,7 +4044,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
-      <c r="B99" s="23"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -4020,7 +4077,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
-      <c r="B100" s="23"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -4053,7 +4110,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
-      <c r="B101" s="23"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -4086,7 +4143,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
-      <c r="B102" s="23"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -4119,7 +4176,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
-      <c r="B103" s="23"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -4152,7 +4209,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
-      <c r="B104" s="23"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -4185,7 +4242,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
-      <c r="B105" s="23"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -4218,7 +4275,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
-      <c r="B106" s="23"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -4251,7 +4308,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
-      <c r="B107" s="23"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -4284,7 +4341,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
-      <c r="B108" s="23"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -4317,7 +4374,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
-      <c r="B109" s="23"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -4350,7 +4407,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
-      <c r="B110" s="23"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -4383,7 +4440,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
-      <c r="B111" s="23"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -4416,7 +4473,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
-      <c r="B112" s="23"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -4449,7 +4506,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
-      <c r="B113" s="23"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -4482,7 +4539,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
-      <c r="B114" s="23"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -4515,7 +4572,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
-      <c r="B115" s="23"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -4548,7 +4605,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
-      <c r="B116" s="23"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -4581,7 +4638,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
-      <c r="B117" s="23"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -4614,7 +4671,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
-      <c r="B118" s="23"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -4647,7 +4704,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
-      <c r="B119" s="23"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -4680,7 +4737,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
-      <c r="B120" s="23"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -4713,7 +4770,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
-      <c r="B121" s="23"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -4746,7 +4803,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
-      <c r="B122" s="23"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -4779,7 +4836,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
-      <c r="B123" s="23"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -4812,7 +4869,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
-      <c r="B124" s="23"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -4845,7 +4902,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
-      <c r="B125" s="23"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -4878,7 +4935,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
-      <c r="B126" s="23"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -4911,7 +4968,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
-      <c r="B127" s="23"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -4944,7 +5001,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
-      <c r="B128" s="23"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -4977,7 +5034,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
-      <c r="B129" s="23"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -5010,7 +5067,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
-      <c r="B130" s="23"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -5043,7 +5100,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
-      <c r="B131" s="23"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
@@ -5076,7 +5133,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
-      <c r="B132" s="23"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
@@ -5109,7 +5166,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
-      <c r="B133" s="23"/>
+      <c r="B133" s="21"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -5142,7 +5199,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
-      <c r="B134" s="23"/>
+      <c r="B134" s="21"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -5175,7 +5232,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
-      <c r="B135" s="23"/>
+      <c r="B135" s="21"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
@@ -5208,7 +5265,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
-      <c r="B136" s="23"/>
+      <c r="B136" s="21"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -5241,7 +5298,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
-      <c r="B137" s="23"/>
+      <c r="B137" s="21"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
@@ -5274,7 +5331,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
-      <c r="B138" s="23"/>
+      <c r="B138" s="21"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
@@ -5307,7 +5364,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
-      <c r="B139" s="23"/>
+      <c r="B139" s="21"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -5340,7 +5397,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
-      <c r="B140" s="23"/>
+      <c r="B140" s="21"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
@@ -5373,7 +5430,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
-      <c r="B141" s="23"/>
+      <c r="B141" s="21"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -5406,7 +5463,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
-      <c r="B142" s="23"/>
+      <c r="B142" s="21"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -5439,7 +5496,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
-      <c r="B143" s="23"/>
+      <c r="B143" s="21"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
@@ -5472,7 +5529,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
-      <c r="B144" s="23"/>
+      <c r="B144" s="21"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -5505,7 +5562,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
-      <c r="B145" s="23"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -5538,7 +5595,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
-      <c r="B146" s="23"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -5571,7 +5628,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
-      <c r="B147" s="23"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -5604,7 +5661,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
-      <c r="B148" s="23"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -5637,7 +5694,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
-      <c r="B149" s="23"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -5670,7 +5727,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
-      <c r="B150" s="23"/>
+      <c r="B150" s="21"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -5703,7 +5760,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
-      <c r="B151" s="23"/>
+      <c r="B151" s="21"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -5736,7 +5793,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
-      <c r="B152" s="23"/>
+      <c r="B152" s="21"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -5769,7 +5826,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="23"/>
+      <c r="B153" s="21"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -5802,7 +5859,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="23"/>
+      <c r="B154" s="21"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -5835,7 +5892,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
-      <c r="B155" s="23"/>
+      <c r="B155" s="21"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -5868,7 +5925,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="23"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -5901,7 +5958,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="23"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -5934,7 +5991,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="23"/>
+      <c r="B158" s="21"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -5967,7 +6024,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="23"/>
+      <c r="B159" s="21"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -6000,7 +6057,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="23"/>
+      <c r="B160" s="21"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -6033,7 +6090,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
-      <c r="B161" s="23"/>
+      <c r="B161" s="21"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -6066,7 +6123,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="23"/>
+      <c r="B162" s="21"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -6099,7 +6156,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
-      <c r="B163" s="23"/>
+      <c r="B163" s="21"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -6132,7 +6189,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
-      <c r="B164" s="23"/>
+      <c r="B164" s="21"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -6165,7 +6222,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
-      <c r="B165" s="23"/>
+      <c r="B165" s="21"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -6198,7 +6255,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
-      <c r="B166" s="23"/>
+      <c r="B166" s="21"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -6231,7 +6288,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
-      <c r="B167" s="23"/>
+      <c r="B167" s="21"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -6264,7 +6321,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
-      <c r="B168" s="23"/>
+      <c r="B168" s="21"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -6297,7 +6354,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
-      <c r="B169" s="23"/>
+      <c r="B169" s="21"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -6330,7 +6387,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
-      <c r="B170" s="23"/>
+      <c r="B170" s="21"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -6363,7 +6420,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
-      <c r="B171" s="23"/>
+      <c r="B171" s="21"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -6396,7 +6453,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
-      <c r="B172" s="23"/>
+      <c r="B172" s="21"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -6429,7 +6486,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
-      <c r="B173" s="23"/>
+      <c r="B173" s="21"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -6462,7 +6519,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
-      <c r="B174" s="23"/>
+      <c r="B174" s="21"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -6495,7 +6552,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
-      <c r="B175" s="23"/>
+      <c r="B175" s="21"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -6528,7 +6585,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
-      <c r="B176" s="23"/>
+      <c r="B176" s="21"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -6561,7 +6618,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
-      <c r="B177" s="23"/>
+      <c r="B177" s="21"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -6594,7 +6651,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
-      <c r="B178" s="23"/>
+      <c r="B178" s="21"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -6627,7 +6684,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
-      <c r="B179" s="23"/>
+      <c r="B179" s="21"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -6660,7 +6717,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
-      <c r="B180" s="23"/>
+      <c r="B180" s="21"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -6693,7 +6750,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
-      <c r="B181" s="23"/>
+      <c r="B181" s="21"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -6726,7 +6783,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
-      <c r="B182" s="23"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -6759,7 +6816,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
-      <c r="B183" s="23"/>
+      <c r="B183" s="21"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -6792,7 +6849,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
-      <c r="B184" s="23"/>
+      <c r="B184" s="21"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -6825,7 +6882,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
-      <c r="B185" s="23"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -6858,7 +6915,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
-      <c r="B186" s="23"/>
+      <c r="B186" s="21"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -6891,7 +6948,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
-      <c r="B187" s="23"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -6924,7 +6981,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
-      <c r="B188" s="23"/>
+      <c r="B188" s="21"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -6957,7 +7014,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
-      <c r="B189" s="23"/>
+      <c r="B189" s="21"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -6990,7 +7047,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
-      <c r="B190" s="23"/>
+      <c r="B190" s="21"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -7023,7 +7080,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
-      <c r="B191" s="23"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -7056,7 +7113,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
-      <c r="B192" s="23"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -7089,7 +7146,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
-      <c r="B193" s="23"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -7122,7 +7179,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
-      <c r="B194" s="23"/>
+      <c r="B194" s="21"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -7155,7 +7212,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
-      <c r="B195" s="23"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -7188,7 +7245,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
-      <c r="B196" s="23"/>
+      <c r="B196" s="21"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -7221,7 +7278,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
-      <c r="B197" s="23"/>
+      <c r="B197" s="21"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -7254,7 +7311,7 @@
     </row>
     <row r="198" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
-      <c r="B198" s="23"/>
+      <c r="B198" s="21"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -7287,7 +7344,7 @@
     </row>
     <row r="199" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
-      <c r="B199" s="23"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -7320,7 +7377,7 @@
     </row>
     <row r="200" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
-      <c r="B200" s="23"/>
+      <c r="B200" s="21"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -7353,7 +7410,7 @@
     </row>
     <row r="201" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
-      <c r="B201" s="23"/>
+      <c r="B201" s="21"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -7386,7 +7443,7 @@
     </row>
     <row r="202" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
-      <c r="B202" s="23"/>
+      <c r="B202" s="21"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -7419,7 +7476,7 @@
     </row>
     <row r="203" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
-      <c r="B203" s="23"/>
+      <c r="B203" s="21"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -7452,7 +7509,7 @@
     </row>
     <row r="204" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
-      <c r="B204" s="23"/>
+      <c r="B204" s="21"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -7485,7 +7542,7 @@
     </row>
     <row r="205" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
-      <c r="B205" s="23"/>
+      <c r="B205" s="21"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -7518,7 +7575,7 @@
     </row>
     <row r="206" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
-      <c r="B206" s="23"/>
+      <c r="B206" s="21"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -7551,7 +7608,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
-      <c r="B207" s="23"/>
+      <c r="B207" s="21"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -7584,7 +7641,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
-      <c r="B208" s="23"/>
+      <c r="B208" s="21"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -7617,7 +7674,7 @@
     </row>
     <row r="209" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
-      <c r="B209" s="23"/>
+      <c r="B209" s="21"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -7650,7 +7707,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
-      <c r="B210" s="23"/>
+      <c r="B210" s="21"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -7683,7 +7740,7 @@
     </row>
     <row r="211" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
-      <c r="B211" s="23"/>
+      <c r="B211" s="21"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -7716,7 +7773,7 @@
     </row>
     <row r="212" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
-      <c r="B212" s="23"/>
+      <c r="B212" s="21"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -7749,7 +7806,7 @@
     </row>
     <row r="213" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
-      <c r="B213" s="23"/>
+      <c r="B213" s="21"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -7782,7 +7839,7 @@
     </row>
     <row r="214" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
-      <c r="B214" s="23"/>
+      <c r="B214" s="21"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -7815,7 +7872,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
-      <c r="B215" s="23"/>
+      <c r="B215" s="21"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -7848,7 +7905,7 @@
     </row>
     <row r="216" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
-      <c r="B216" s="23"/>
+      <c r="B216" s="21"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -7881,7 +7938,7 @@
     </row>
     <row r="217" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
-      <c r="B217" s="23"/>
+      <c r="B217" s="21"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -7914,7 +7971,7 @@
     </row>
     <row r="218" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
-      <c r="B218" s="23"/>
+      <c r="B218" s="21"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -7947,7 +8004,7 @@
     </row>
     <row r="219" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
-      <c r="B219" s="23"/>
+      <c r="B219" s="21"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -7980,7 +8037,7 @@
     </row>
     <row r="220" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
-      <c r="B220" s="23"/>
+      <c r="B220" s="21"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -8013,7 +8070,7 @@
     </row>
     <row r="221" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
-      <c r="B221" s="23"/>
+      <c r="B221" s="21"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -8046,7 +8103,7 @@
     </row>
     <row r="222" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
-      <c r="B222" s="23"/>
+      <c r="B222" s="21"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -8079,7 +8136,7 @@
     </row>
     <row r="223" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
-      <c r="B223" s="23"/>
+      <c r="B223" s="21"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -8112,7 +8169,7 @@
     </row>
     <row r="224" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
-      <c r="B224" s="23"/>
+      <c r="B224" s="21"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -8145,7 +8202,7 @@
     </row>
     <row r="225" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
-      <c r="B225" s="23"/>
+      <c r="B225" s="21"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -8178,7 +8235,7 @@
     </row>
     <row r="226" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
-      <c r="B226" s="23"/>
+      <c r="B226" s="21"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -8211,7 +8268,7 @@
     </row>
     <row r="227" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
-      <c r="B227" s="23"/>
+      <c r="B227" s="21"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -8244,7 +8301,7 @@
     </row>
     <row r="228" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
-      <c r="B228" s="23"/>
+      <c r="B228" s="21"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -8277,7 +8334,7 @@
     </row>
     <row r="229" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
-      <c r="B229" s="23"/>
+      <c r="B229" s="21"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -8310,7 +8367,7 @@
     </row>
     <row r="230" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
-      <c r="B230" s="23"/>
+      <c r="B230" s="21"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -8343,7 +8400,7 @@
     </row>
     <row r="231" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
-      <c r="B231" s="23"/>
+      <c r="B231" s="21"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -8376,7 +8433,7 @@
     </row>
     <row r="232" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
-      <c r="B232" s="23"/>
+      <c r="B232" s="21"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -8409,7 +8466,7 @@
     </row>
     <row r="233" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
-      <c r="B233" s="23"/>
+      <c r="B233" s="21"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -8442,7 +8499,7 @@
     </row>
     <row r="234" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
-      <c r="B234" s="23"/>
+      <c r="B234" s="21"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -8475,7 +8532,7 @@
     </row>
     <row r="235" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
-      <c r="B235" s="23"/>
+      <c r="B235" s="21"/>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -8508,7 +8565,7 @@
     </row>
     <row r="236" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
-      <c r="B236" s="23"/>
+      <c r="B236" s="21"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -8541,7 +8598,7 @@
     </row>
     <row r="237" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
-      <c r="B237" s="23"/>
+      <c r="B237" s="21"/>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -8574,7 +8631,7 @@
     </row>
     <row r="238" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
-      <c r="B238" s="23"/>
+      <c r="B238" s="21"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -8607,7 +8664,7 @@
     </row>
     <row r="239" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
-      <c r="B239" s="23"/>
+      <c r="B239" s="21"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -8640,7 +8697,7 @@
     </row>
     <row r="240" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
-      <c r="B240" s="23"/>
+      <c r="B240" s="21"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -8673,7 +8730,7 @@
     </row>
     <row r="241" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
-      <c r="B241" s="23"/>
+      <c r="B241" s="21"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -8706,7 +8763,7 @@
     </row>
     <row r="242" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
-      <c r="B242" s="23"/>
+      <c r="B242" s="21"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -8739,7 +8796,7 @@
     </row>
     <row r="243" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
-      <c r="B243" s="23"/>
+      <c r="B243" s="21"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -8772,7 +8829,7 @@
     </row>
     <row r="244" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
-      <c r="B244" s="23"/>
+      <c r="B244" s="21"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -8805,7 +8862,7 @@
     </row>
     <row r="245" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
-      <c r="B245" s="23"/>
+      <c r="B245" s="21"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -8838,7 +8895,7 @@
     </row>
     <row r="246" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
-      <c r="B246" s="23"/>
+      <c r="B246" s="21"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -8871,7 +8928,7 @@
     </row>
     <row r="247" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A247" s="7"/>
-      <c r="B247" s="23"/>
+      <c r="B247" s="21"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -8904,7 +8961,7 @@
     </row>
     <row r="248" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
-      <c r="B248" s="23"/>
+      <c r="B248" s="21"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -8937,7 +8994,7 @@
     </row>
     <row r="249" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
-      <c r="B249" s="23"/>
+      <c r="B249" s="21"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -8970,7 +9027,7 @@
     </row>
     <row r="250" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A250" s="7"/>
-      <c r="B250" s="23"/>
+      <c r="B250" s="21"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -9003,7 +9060,7 @@
     </row>
     <row r="251" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
-      <c r="B251" s="23"/>
+      <c r="B251" s="21"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -9036,7 +9093,7 @@
     </row>
     <row r="252" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
-      <c r="B252" s="23"/>
+      <c r="B252" s="21"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -9069,7 +9126,7 @@
     </row>
     <row r="253" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A253" s="7"/>
-      <c r="B253" s="23"/>
+      <c r="B253" s="21"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -9102,7 +9159,7 @@
     </row>
     <row r="254" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
-      <c r="B254" s="23"/>
+      <c r="B254" s="21"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -9135,7 +9192,7 @@
     </row>
     <row r="255" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
-      <c r="B255" s="23"/>
+      <c r="B255" s="21"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -9168,7 +9225,7 @@
     </row>
     <row r="256" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
-      <c r="B256" s="23"/>
+      <c r="B256" s="21"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -9201,7 +9258,7 @@
     </row>
     <row r="257" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
-      <c r="B257" s="23"/>
+      <c r="B257" s="21"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -9234,7 +9291,7 @@
     </row>
     <row r="258" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A258" s="7"/>
-      <c r="B258" s="23"/>
+      <c r="B258" s="21"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -9267,7 +9324,7 @@
     </row>
     <row r="259" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
-      <c r="B259" s="23"/>
+      <c r="B259" s="21"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -9300,7 +9357,7 @@
     </row>
     <row r="260" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
-      <c r="B260" s="23"/>
+      <c r="B260" s="21"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -9333,7 +9390,7 @@
     </row>
     <row r="261" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A261" s="7"/>
-      <c r="B261" s="23"/>
+      <c r="B261" s="21"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -9366,7 +9423,7 @@
     </row>
     <row r="262" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A262" s="7"/>
-      <c r="B262" s="23"/>
+      <c r="B262" s="21"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -9399,7 +9456,7 @@
     </row>
     <row r="263" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A263" s="7"/>
-      <c r="B263" s="23"/>
+      <c r="B263" s="21"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -9432,7 +9489,7 @@
     </row>
     <row r="264" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
-      <c r="B264" s="23"/>
+      <c r="B264" s="21"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -9465,7 +9522,7 @@
     </row>
     <row r="265" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A265" s="7"/>
-      <c r="B265" s="23"/>
+      <c r="B265" s="21"/>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -9498,7 +9555,7 @@
     </row>
     <row r="266" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A266" s="7"/>
-      <c r="B266" s="23"/>
+      <c r="B266" s="21"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -9531,7 +9588,7 @@
     </row>
     <row r="267" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A267" s="7"/>
-      <c r="B267" s="23"/>
+      <c r="B267" s="21"/>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -9564,7 +9621,7 @@
     </row>
     <row r="268" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A268" s="7"/>
-      <c r="B268" s="23"/>
+      <c r="B268" s="21"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -9597,7 +9654,7 @@
     </row>
     <row r="269" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A269" s="7"/>
-      <c r="B269" s="23"/>
+      <c r="B269" s="21"/>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -9630,7 +9687,7 @@
     </row>
     <row r="270" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
-      <c r="B270" s="23"/>
+      <c r="B270" s="21"/>
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -9663,7 +9720,7 @@
     </row>
     <row r="271" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
-      <c r="B271" s="23"/>
+      <c r="B271" s="21"/>
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -9696,7 +9753,7 @@
     </row>
     <row r="272" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
-      <c r="B272" s="23"/>
+      <c r="B272" s="21"/>
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -9729,7 +9786,7 @@
     </row>
     <row r="273" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
-      <c r="B273" s="23"/>
+      <c r="B273" s="21"/>
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -9762,7 +9819,7 @@
     </row>
     <row r="274" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A274" s="7"/>
-      <c r="B274" s="23"/>
+      <c r="B274" s="21"/>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -9795,7 +9852,7 @@
     </row>
     <row r="275" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
-      <c r="B275" s="23"/>
+      <c r="B275" s="21"/>
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -9828,7 +9885,7 @@
     </row>
     <row r="276" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
-      <c r="B276" s="23"/>
+      <c r="B276" s="21"/>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -9861,7 +9918,7 @@
     </row>
     <row r="277" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
-      <c r="B277" s="23"/>
+      <c r="B277" s="21"/>
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -9894,7 +9951,7 @@
     </row>
     <row r="278" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
-      <c r="B278" s="23"/>
+      <c r="B278" s="21"/>
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -9927,7 +9984,7 @@
     </row>
     <row r="279" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
-      <c r="B279" s="23"/>
+      <c r="B279" s="21"/>
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -9960,7 +10017,7 @@
     </row>
     <row r="280" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A280" s="7"/>
-      <c r="B280" s="23"/>
+      <c r="B280" s="21"/>
       <c r="C280" s="7"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -9993,7 +10050,7 @@
     </row>
     <row r="281" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
-      <c r="B281" s="23"/>
+      <c r="B281" s="21"/>
       <c r="C281" s="7"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -10026,7 +10083,7 @@
     </row>
     <row r="282" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
-      <c r="B282" s="23"/>
+      <c r="B282" s="21"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -10059,7 +10116,7 @@
     </row>
     <row r="283" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
-      <c r="B283" s="23"/>
+      <c r="B283" s="21"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -10092,7 +10149,7 @@
     </row>
     <row r="284" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
-      <c r="B284" s="23"/>
+      <c r="B284" s="21"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -10125,7 +10182,7 @@
     </row>
     <row r="285" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A285" s="7"/>
-      <c r="B285" s="23"/>
+      <c r="B285" s="21"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -10158,7 +10215,7 @@
     </row>
     <row r="286" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
-      <c r="B286" s="23"/>
+      <c r="B286" s="21"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -10191,7 +10248,7 @@
     </row>
     <row r="287" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A287" s="7"/>
-      <c r="B287" s="23"/>
+      <c r="B287" s="21"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -10224,7 +10281,7 @@
     </row>
     <row r="288" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A288" s="7"/>
-      <c r="B288" s="23"/>
+      <c r="B288" s="21"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -10257,7 +10314,7 @@
     </row>
     <row r="289" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
-      <c r="B289" s="23"/>
+      <c r="B289" s="21"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
@@ -10290,7 +10347,7 @@
     </row>
     <row r="290" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A290" s="7"/>
-      <c r="B290" s="23"/>
+      <c r="B290" s="21"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
@@ -10323,7 +10380,7 @@
     </row>
     <row r="291" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A291" s="7"/>
-      <c r="B291" s="23"/>
+      <c r="B291" s="21"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
@@ -10356,7 +10413,7 @@
     </row>
     <row r="292" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A292" s="7"/>
-      <c r="B292" s="23"/>
+      <c r="B292" s="21"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -10389,7 +10446,7 @@
     </row>
     <row r="293" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A293" s="7"/>
-      <c r="B293" s="23"/>
+      <c r="B293" s="21"/>
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -10422,7 +10479,7 @@
     </row>
     <row r="294" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A294" s="7"/>
-      <c r="B294" s="23"/>
+      <c r="B294" s="21"/>
       <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
@@ -10455,7 +10512,7 @@
     </row>
     <row r="295" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A295" s="7"/>
-      <c r="B295" s="23"/>
+      <c r="B295" s="21"/>
       <c r="C295" s="7"/>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
@@ -10488,7 +10545,7 @@
     </row>
     <row r="296" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A296" s="7"/>
-      <c r="B296" s="23"/>
+      <c r="B296" s="21"/>
       <c r="C296" s="7"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -10521,7 +10578,7 @@
     </row>
     <row r="297" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A297" s="7"/>
-      <c r="B297" s="23"/>
+      <c r="B297" s="21"/>
       <c r="C297" s="7"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -10554,7 +10611,7 @@
     </row>
     <row r="298" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A298" s="7"/>
-      <c r="B298" s="23"/>
+      <c r="B298" s="21"/>
       <c r="C298" s="7"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -10587,7 +10644,7 @@
     </row>
     <row r="299" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A299" s="7"/>
-      <c r="B299" s="23"/>
+      <c r="B299" s="21"/>
       <c r="C299" s="7"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
@@ -10620,7 +10677,7 @@
     </row>
     <row r="300" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A300" s="7"/>
-      <c r="B300" s="23"/>
+      <c r="B300" s="21"/>
       <c r="C300" s="7"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
@@ -10653,7 +10710,7 @@
     </row>
     <row r="301" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A301" s="7"/>
-      <c r="B301" s="23"/>
+      <c r="B301" s="21"/>
       <c r="C301" s="7"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -10686,7 +10743,7 @@
     </row>
     <row r="302" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A302" s="7"/>
-      <c r="B302" s="23"/>
+      <c r="B302" s="21"/>
       <c r="C302" s="7"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -10719,7 +10776,7 @@
     </row>
     <row r="303" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A303" s="7"/>
-      <c r="B303" s="23"/>
+      <c r="B303" s="21"/>
       <c r="C303" s="7"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -10752,7 +10809,7 @@
     </row>
     <row r="304" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A304" s="7"/>
-      <c r="B304" s="23"/>
+      <c r="B304" s="21"/>
       <c r="C304" s="7"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -10785,7 +10842,7 @@
     </row>
     <row r="305" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A305" s="7"/>
-      <c r="B305" s="23"/>
+      <c r="B305" s="21"/>
       <c r="C305" s="7"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -10818,7 +10875,7 @@
     </row>
     <row r="306" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A306" s="7"/>
-      <c r="B306" s="23"/>
+      <c r="B306" s="21"/>
       <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -10851,7 +10908,7 @@
     </row>
     <row r="307" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A307" s="7"/>
-      <c r="B307" s="23"/>
+      <c r="B307" s="21"/>
       <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -10884,7 +10941,7 @@
     </row>
     <row r="308" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A308" s="7"/>
-      <c r="B308" s="23"/>
+      <c r="B308" s="21"/>
       <c r="C308" s="7"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
@@ -10917,7 +10974,7 @@
     </row>
     <row r="309" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A309" s="7"/>
-      <c r="B309" s="23"/>
+      <c r="B309" s="21"/>
       <c r="C309" s="7"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
@@ -10950,7 +11007,7 @@
     </row>
     <row r="310" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A310" s="7"/>
-      <c r="B310" s="23"/>
+      <c r="B310" s="21"/>
       <c r="C310" s="7"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
@@ -10983,7 +11040,7 @@
     </row>
     <row r="311" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A311" s="7"/>
-      <c r="B311" s="23"/>
+      <c r="B311" s="21"/>
       <c r="C311" s="7"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
@@ -11016,7 +11073,7 @@
     </row>
     <row r="312" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A312" s="7"/>
-      <c r="B312" s="23"/>
+      <c r="B312" s="21"/>
       <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
@@ -11049,7 +11106,7 @@
     </row>
     <row r="313" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A313" s="7"/>
-      <c r="B313" s="23"/>
+      <c r="B313" s="21"/>
       <c r="C313" s="7"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
@@ -11082,7 +11139,7 @@
     </row>
     <row r="314" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A314" s="7"/>
-      <c r="B314" s="23"/>
+      <c r="B314" s="21"/>
       <c r="C314" s="7"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
@@ -11115,7 +11172,7 @@
     </row>
     <row r="315" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A315" s="7"/>
-      <c r="B315" s="23"/>
+      <c r="B315" s="21"/>
       <c r="C315" s="7"/>
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
@@ -11148,7 +11205,7 @@
     </row>
     <row r="316" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A316" s="7"/>
-      <c r="B316" s="23"/>
+      <c r="B316" s="21"/>
       <c r="C316" s="7"/>
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
@@ -11181,7 +11238,7 @@
     </row>
     <row r="317" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A317" s="7"/>
-      <c r="B317" s="23"/>
+      <c r="B317" s="21"/>
       <c r="C317" s="7"/>
       <c r="D317" s="7"/>
       <c r="E317" s="7"/>
@@ -11214,7 +11271,7 @@
     </row>
     <row r="318" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A318" s="7"/>
-      <c r="B318" s="23"/>
+      <c r="B318" s="21"/>
       <c r="C318" s="7"/>
       <c r="D318" s="7"/>
       <c r="E318" s="7"/>
@@ -11247,7 +11304,7 @@
     </row>
     <row r="319" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A319" s="7"/>
-      <c r="B319" s="23"/>
+      <c r="B319" s="21"/>
       <c r="C319" s="7"/>
       <c r="D319" s="7"/>
       <c r="E319" s="7"/>
@@ -11280,7 +11337,7 @@
     </row>
     <row r="320" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A320" s="7"/>
-      <c r="B320" s="23"/>
+      <c r="B320" s="21"/>
       <c r="C320" s="7"/>
       <c r="D320" s="7"/>
       <c r="E320" s="7"/>
@@ -11313,7 +11370,7 @@
     </row>
     <row r="321" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A321" s="7"/>
-      <c r="B321" s="23"/>
+      <c r="B321" s="21"/>
       <c r="C321" s="7"/>
       <c r="D321" s="7"/>
       <c r="E321" s="7"/>
@@ -11346,7 +11403,7 @@
     </row>
     <row r="322" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A322" s="7"/>
-      <c r="B322" s="23"/>
+      <c r="B322" s="21"/>
       <c r="C322" s="7"/>
       <c r="D322" s="7"/>
       <c r="E322" s="7"/>
@@ -11379,7 +11436,7 @@
     </row>
     <row r="323" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A323" s="7"/>
-      <c r="B323" s="23"/>
+      <c r="B323" s="21"/>
       <c r="C323" s="7"/>
       <c r="D323" s="7"/>
       <c r="E323" s="7"/>
@@ -11412,7 +11469,7 @@
     </row>
     <row r="324" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A324" s="7"/>
-      <c r="B324" s="23"/>
+      <c r="B324" s="21"/>
       <c r="C324" s="7"/>
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
@@ -11445,7 +11502,7 @@
     </row>
     <row r="325" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A325" s="7"/>
-      <c r="B325" s="23"/>
+      <c r="B325" s="21"/>
       <c r="C325" s="7"/>
       <c r="D325" s="7"/>
       <c r="E325" s="7"/>
@@ -11478,7 +11535,7 @@
     </row>
     <row r="326" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A326" s="7"/>
-      <c r="B326" s="23"/>
+      <c r="B326" s="21"/>
       <c r="C326" s="7"/>
       <c r="D326" s="7"/>
       <c r="E326" s="7"/>
@@ -11511,7 +11568,7 @@
     </row>
     <row r="327" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A327" s="7"/>
-      <c r="B327" s="23"/>
+      <c r="B327" s="21"/>
       <c r="C327" s="7"/>
       <c r="D327" s="7"/>
       <c r="E327" s="7"/>
@@ -11544,7 +11601,7 @@
     </row>
     <row r="328" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A328" s="7"/>
-      <c r="B328" s="23"/>
+      <c r="B328" s="21"/>
       <c r="C328" s="7"/>
       <c r="D328" s="7"/>
       <c r="E328" s="7"/>
@@ -11577,7 +11634,7 @@
     </row>
     <row r="329" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A329" s="7"/>
-      <c r="B329" s="23"/>
+      <c r="B329" s="21"/>
       <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
@@ -11610,7 +11667,7 @@
     </row>
     <row r="330" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A330" s="7"/>
-      <c r="B330" s="23"/>
+      <c r="B330" s="21"/>
       <c r="C330" s="7"/>
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
@@ -11643,7 +11700,7 @@
     </row>
     <row r="331" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A331" s="7"/>
-      <c r="B331" s="23"/>
+      <c r="B331" s="21"/>
       <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
@@ -11676,7 +11733,7 @@
     </row>
     <row r="332" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A332" s="7"/>
-      <c r="B332" s="23"/>
+      <c r="B332" s="21"/>
       <c r="C332" s="7"/>
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
@@ -11709,7 +11766,7 @@
     </row>
     <row r="333" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A333" s="7"/>
-      <c r="B333" s="23"/>
+      <c r="B333" s="21"/>
       <c r="C333" s="7"/>
       <c r="D333" s="7"/>
       <c r="E333" s="7"/>
@@ -11742,7 +11799,7 @@
     </row>
     <row r="334" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A334" s="7"/>
-      <c r="B334" s="23"/>
+      <c r="B334" s="21"/>
       <c r="C334" s="7"/>
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
@@ -11775,7 +11832,7 @@
     </row>
     <row r="335" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A335" s="7"/>
-      <c r="B335" s="23"/>
+      <c r="B335" s="21"/>
       <c r="C335" s="7"/>
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
@@ -11808,7 +11865,7 @@
     </row>
     <row r="336" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A336" s="7"/>
-      <c r="B336" s="23"/>
+      <c r="B336" s="21"/>
       <c r="C336" s="7"/>
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
@@ -11841,7 +11898,7 @@
     </row>
     <row r="337" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A337" s="7"/>
-      <c r="B337" s="23"/>
+      <c r="B337" s="21"/>
       <c r="C337" s="7"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
@@ -11874,7 +11931,7 @@
     </row>
     <row r="338" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A338" s="7"/>
-      <c r="B338" s="23"/>
+      <c r="B338" s="21"/>
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
@@ -11907,7 +11964,7 @@
     </row>
     <row r="339" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A339" s="7"/>
-      <c r="B339" s="23"/>
+      <c r="B339" s="21"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -11940,7 +11997,7 @@
     </row>
     <row r="340" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A340" s="7"/>
-      <c r="B340" s="23"/>
+      <c r="B340" s="21"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="7"/>
@@ -11973,7 +12030,7 @@
     </row>
     <row r="341" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A341" s="7"/>
-      <c r="B341" s="23"/>
+      <c r="B341" s="21"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -12006,7 +12063,7 @@
     </row>
     <row r="342" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A342" s="7"/>
-      <c r="B342" s="23"/>
+      <c r="B342" s="21"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -12039,7 +12096,7 @@
     </row>
     <row r="343" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A343" s="7"/>
-      <c r="B343" s="23"/>
+      <c r="B343" s="21"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -12072,7 +12129,7 @@
     </row>
     <row r="344" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A344" s="7"/>
-      <c r="B344" s="23"/>
+      <c r="B344" s="21"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -12105,7 +12162,7 @@
     </row>
     <row r="345" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A345" s="7"/>
-      <c r="B345" s="23"/>
+      <c r="B345" s="21"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -12138,7 +12195,7 @@
     </row>
     <row r="346" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A346" s="7"/>
-      <c r="B346" s="23"/>
+      <c r="B346" s="21"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -12171,7 +12228,7 @@
     </row>
     <row r="347" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A347" s="7"/>
-      <c r="B347" s="23"/>
+      <c r="B347" s="21"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -12204,7 +12261,7 @@
     </row>
     <row r="348" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A348" s="7"/>
-      <c r="B348" s="23"/>
+      <c r="B348" s="21"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -12237,7 +12294,7 @@
     </row>
     <row r="349" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A349" s="7"/>
-      <c r="B349" s="23"/>
+      <c r="B349" s="21"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -12270,7 +12327,7 @@
     </row>
     <row r="350" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A350" s="7"/>
-      <c r="B350" s="23"/>
+      <c r="B350" s="21"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -12303,7 +12360,7 @@
     </row>
     <row r="351" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A351" s="7"/>
-      <c r="B351" s="23"/>
+      <c r="B351" s="21"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -12336,7 +12393,7 @@
     </row>
     <row r="352" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A352" s="7"/>
-      <c r="B352" s="23"/>
+      <c r="B352" s="21"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -12369,7 +12426,7 @@
     </row>
     <row r="353" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A353" s="7"/>
-      <c r="B353" s="23"/>
+      <c r="B353" s="21"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -12402,7 +12459,7 @@
     </row>
     <row r="354" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A354" s="7"/>
-      <c r="B354" s="23"/>
+      <c r="B354" s="21"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -12435,7 +12492,7 @@
     </row>
     <row r="355" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A355" s="7"/>
-      <c r="B355" s="23"/>
+      <c r="B355" s="21"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -12468,7 +12525,7 @@
     </row>
     <row r="356" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A356" s="7"/>
-      <c r="B356" s="23"/>
+      <c r="B356" s="21"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -12501,7 +12558,7 @@
     </row>
     <row r="357" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A357" s="7"/>
-      <c r="B357" s="23"/>
+      <c r="B357" s="21"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -12534,7 +12591,7 @@
     </row>
     <row r="358" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A358" s="7"/>
-      <c r="B358" s="23"/>
+      <c r="B358" s="21"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -12567,7 +12624,7 @@
     </row>
     <row r="359" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A359" s="7"/>
-      <c r="B359" s="23"/>
+      <c r="B359" s="21"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -12600,7 +12657,7 @@
     </row>
     <row r="360" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A360" s="7"/>
-      <c r="B360" s="23"/>
+      <c r="B360" s="21"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -12633,7 +12690,7 @@
     </row>
     <row r="361" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A361" s="7"/>
-      <c r="B361" s="23"/>
+      <c r="B361" s="21"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -12666,7 +12723,7 @@
     </row>
     <row r="362" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A362" s="7"/>
-      <c r="B362" s="23"/>
+      <c r="B362" s="21"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -12699,7 +12756,7 @@
     </row>
     <row r="363" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A363" s="7"/>
-      <c r="B363" s="23"/>
+      <c r="B363" s="21"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -12732,7 +12789,7 @@
     </row>
     <row r="364" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A364" s="7"/>
-      <c r="B364" s="23"/>
+      <c r="B364" s="21"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -12765,7 +12822,7 @@
     </row>
     <row r="365" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A365" s="7"/>
-      <c r="B365" s="23"/>
+      <c r="B365" s="21"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -12798,7 +12855,7 @@
     </row>
     <row r="366" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A366" s="7"/>
-      <c r="B366" s="23"/>
+      <c r="B366" s="21"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -12831,7 +12888,7 @@
     </row>
     <row r="367" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A367" s="7"/>
-      <c r="B367" s="23"/>
+      <c r="B367" s="21"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -12864,7 +12921,7 @@
     </row>
     <row r="368" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A368" s="7"/>
-      <c r="B368" s="23"/>
+      <c r="B368" s="21"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -12897,7 +12954,7 @@
     </row>
     <row r="369" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A369" s="7"/>
-      <c r="B369" s="23"/>
+      <c r="B369" s="21"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -12930,7 +12987,7 @@
     </row>
     <row r="370" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A370" s="7"/>
-      <c r="B370" s="23"/>
+      <c r="B370" s="21"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -12963,7 +13020,7 @@
     </row>
     <row r="371" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A371" s="7"/>
-      <c r="B371" s="23"/>
+      <c r="B371" s="21"/>
       <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -12996,7 +13053,7 @@
     </row>
     <row r="372" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A372" s="7"/>
-      <c r="B372" s="23"/>
+      <c r="B372" s="21"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -13029,7 +13086,7 @@
     </row>
     <row r="373" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A373" s="7"/>
-      <c r="B373" s="23"/>
+      <c r="B373" s="21"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -13062,7 +13119,7 @@
     </row>
     <row r="374" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A374" s="7"/>
-      <c r="B374" s="23"/>
+      <c r="B374" s="21"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -13095,7 +13152,7 @@
     </row>
     <row r="375" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A375" s="7"/>
-      <c r="B375" s="23"/>
+      <c r="B375" s="21"/>
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -13128,7 +13185,7 @@
     </row>
     <row r="376" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A376" s="7"/>
-      <c r="B376" s="23"/>
+      <c r="B376" s="21"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -13161,7 +13218,7 @@
     </row>
     <row r="377" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A377" s="7"/>
-      <c r="B377" s="23"/>
+      <c r="B377" s="21"/>
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
@@ -13194,7 +13251,7 @@
     </row>
     <row r="378" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A378" s="7"/>
-      <c r="B378" s="23"/>
+      <c r="B378" s="21"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
@@ -13227,7 +13284,7 @@
     </row>
     <row r="379" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A379" s="7"/>
-      <c r="B379" s="23"/>
+      <c r="B379" s="21"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -13260,7 +13317,7 @@
     </row>
     <row r="380" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A380" s="7"/>
-      <c r="B380" s="23"/>
+      <c r="B380" s="21"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -13293,7 +13350,7 @@
     </row>
     <row r="381" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A381" s="7"/>
-      <c r="B381" s="23"/>
+      <c r="B381" s="21"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -13326,7 +13383,7 @@
     </row>
     <row r="382" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A382" s="7"/>
-      <c r="B382" s="23"/>
+      <c r="B382" s="21"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -13359,7 +13416,7 @@
     </row>
     <row r="383" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A383" s="7"/>
-      <c r="B383" s="23"/>
+      <c r="B383" s="21"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -13392,7 +13449,7 @@
     </row>
     <row r="384" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A384" s="7"/>
-      <c r="B384" s="23"/>
+      <c r="B384" s="21"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -13425,7 +13482,7 @@
     </row>
     <row r="385" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A385" s="7"/>
-      <c r="B385" s="23"/>
+      <c r="B385" s="21"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -13458,7 +13515,7 @@
     </row>
     <row r="386" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A386" s="7"/>
-      <c r="B386" s="23"/>
+      <c r="B386" s="21"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -13491,7 +13548,7 @@
     </row>
     <row r="387" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A387" s="7"/>
-      <c r="B387" s="23"/>
+      <c r="B387" s="21"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -13524,7 +13581,7 @@
     </row>
     <row r="388" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A388" s="7"/>
-      <c r="B388" s="23"/>
+      <c r="B388" s="21"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -13557,7 +13614,7 @@
     </row>
     <row r="389" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A389" s="7"/>
-      <c r="B389" s="23"/>
+      <c r="B389" s="21"/>
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -13590,7 +13647,7 @@
     </row>
     <row r="390" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A390" s="7"/>
-      <c r="B390" s="23"/>
+      <c r="B390" s="21"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -13623,7 +13680,7 @@
     </row>
     <row r="391" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A391" s="7"/>
-      <c r="B391" s="23"/>
+      <c r="B391" s="21"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -13656,7 +13713,7 @@
     </row>
     <row r="392" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A392" s="7"/>
-      <c r="B392" s="23"/>
+      <c r="B392" s="21"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -13689,7 +13746,7 @@
     </row>
     <row r="393" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A393" s="7"/>
-      <c r="B393" s="23"/>
+      <c r="B393" s="21"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -13722,7 +13779,7 @@
     </row>
     <row r="394" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A394" s="7"/>
-      <c r="B394" s="23"/>
+      <c r="B394" s="21"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -13755,7 +13812,7 @@
     </row>
     <row r="395" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A395" s="7"/>
-      <c r="B395" s="23"/>
+      <c r="B395" s="21"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -13788,7 +13845,7 @@
     </row>
     <row r="396" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A396" s="7"/>
-      <c r="B396" s="23"/>
+      <c r="B396" s="21"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -13821,7 +13878,7 @@
     </row>
     <row r="397" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A397" s="7"/>
-      <c r="B397" s="23"/>
+      <c r="B397" s="21"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -13854,7 +13911,7 @@
     </row>
     <row r="398" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A398" s="7"/>
-      <c r="B398" s="23"/>
+      <c r="B398" s="21"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -13887,7 +13944,7 @@
     </row>
     <row r="399" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A399" s="7"/>
-      <c r="B399" s="23"/>
+      <c r="B399" s="21"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -13920,7 +13977,7 @@
     </row>
     <row r="400" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A400" s="7"/>
-      <c r="B400" s="23"/>
+      <c r="B400" s="21"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -13953,7 +14010,7 @@
     </row>
     <row r="401" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A401" s="7"/>
-      <c r="B401" s="23"/>
+      <c r="B401" s="21"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -13986,7 +14043,7 @@
     </row>
     <row r="402" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A402" s="7"/>
-      <c r="B402" s="23"/>
+      <c r="B402" s="21"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -14019,7 +14076,7 @@
     </row>
     <row r="403" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A403" s="7"/>
-      <c r="B403" s="23"/>
+      <c r="B403" s="21"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -14052,7 +14109,7 @@
     </row>
     <row r="404" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A404" s="7"/>
-      <c r="B404" s="23"/>
+      <c r="B404" s="21"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -14085,7 +14142,7 @@
     </row>
     <row r="405" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A405" s="7"/>
-      <c r="B405" s="23"/>
+      <c r="B405" s="21"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -14118,7 +14175,7 @@
     </row>
     <row r="406" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A406" s="7"/>
-      <c r="B406" s="23"/>
+      <c r="B406" s="21"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -14151,7 +14208,7 @@
     </row>
     <row r="407" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A407" s="7"/>
-      <c r="B407" s="23"/>
+      <c r="B407" s="21"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -14184,7 +14241,7 @@
     </row>
     <row r="408" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A408" s="7"/>
-      <c r="B408" s="23"/>
+      <c r="B408" s="21"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -14217,7 +14274,7 @@
     </row>
     <row r="409" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A409" s="7"/>
-      <c r="B409" s="23"/>
+      <c r="B409" s="21"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -14250,7 +14307,7 @@
     </row>
     <row r="410" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A410" s="7"/>
-      <c r="B410" s="23"/>
+      <c r="B410" s="21"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -14283,7 +14340,7 @@
     </row>
     <row r="411" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A411" s="7"/>
-      <c r="B411" s="23"/>
+      <c r="B411" s="21"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -14316,7 +14373,7 @@
     </row>
     <row r="412" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A412" s="7"/>
-      <c r="B412" s="23"/>
+      <c r="B412" s="21"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -14349,7 +14406,7 @@
     </row>
     <row r="413" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A413" s="7"/>
-      <c r="B413" s="23"/>
+      <c r="B413" s="21"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -14382,7 +14439,7 @@
     </row>
     <row r="414" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A414" s="7"/>
-      <c r="B414" s="23"/>
+      <c r="B414" s="21"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -14415,7 +14472,7 @@
     </row>
     <row r="415" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A415" s="7"/>
-      <c r="B415" s="23"/>
+      <c r="B415" s="21"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -14448,7 +14505,7 @@
     </row>
     <row r="416" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A416" s="7"/>
-      <c r="B416" s="23"/>
+      <c r="B416" s="21"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -14481,7 +14538,7 @@
     </row>
     <row r="417" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A417" s="7"/>
-      <c r="B417" s="23"/>
+      <c r="B417" s="21"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -14514,7 +14571,7 @@
     </row>
     <row r="418" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A418" s="7"/>
-      <c r="B418" s="23"/>
+      <c r="B418" s="21"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -14547,7 +14604,7 @@
     </row>
     <row r="419" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A419" s="7"/>
-      <c r="B419" s="23"/>
+      <c r="B419" s="21"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -14580,7 +14637,7 @@
     </row>
     <row r="420" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A420" s="7"/>
-      <c r="B420" s="23"/>
+      <c r="B420" s="21"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -14613,7 +14670,7 @@
     </row>
     <row r="421" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A421" s="7"/>
-      <c r="B421" s="23"/>
+      <c r="B421" s="21"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -14646,7 +14703,7 @@
     </row>
     <row r="422" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A422" s="7"/>
-      <c r="B422" s="23"/>
+      <c r="B422" s="21"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -14679,7 +14736,7 @@
     </row>
     <row r="423" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A423" s="7"/>
-      <c r="B423" s="23"/>
+      <c r="B423" s="21"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -14712,7 +14769,7 @@
     </row>
     <row r="424" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A424" s="7"/>
-      <c r="B424" s="23"/>
+      <c r="B424" s="21"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -14745,7 +14802,7 @@
     </row>
     <row r="425" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A425" s="7"/>
-      <c r="B425" s="23"/>
+      <c r="B425" s="21"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -14778,7 +14835,7 @@
     </row>
     <row r="426" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A426" s="7"/>
-      <c r="B426" s="23"/>
+      <c r="B426" s="21"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -14811,7 +14868,7 @@
     </row>
     <row r="427" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A427" s="7"/>
-      <c r="B427" s="23"/>
+      <c r="B427" s="21"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -14844,7 +14901,7 @@
     </row>
     <row r="428" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A428" s="7"/>
-      <c r="B428" s="23"/>
+      <c r="B428" s="21"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -14877,7 +14934,7 @@
     </row>
     <row r="429" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A429" s="7"/>
-      <c r="B429" s="23"/>
+      <c r="B429" s="21"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -14910,7 +14967,7 @@
     </row>
     <row r="430" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A430" s="7"/>
-      <c r="B430" s="23"/>
+      <c r="B430" s="21"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -14943,7 +15000,7 @@
     </row>
     <row r="431" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A431" s="7"/>
-      <c r="B431" s="23"/>
+      <c r="B431" s="21"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -14976,7 +15033,7 @@
     </row>
     <row r="432" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A432" s="7"/>
-      <c r="B432" s="23"/>
+      <c r="B432" s="21"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -15009,7 +15066,7 @@
     </row>
     <row r="433" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A433" s="7"/>
-      <c r="B433" s="23"/>
+      <c r="B433" s="21"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -15042,7 +15099,7 @@
     </row>
     <row r="434" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A434" s="7"/>
-      <c r="B434" s="23"/>
+      <c r="B434" s="21"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -15075,7 +15132,7 @@
     </row>
     <row r="435" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A435" s="7"/>
-      <c r="B435" s="23"/>
+      <c r="B435" s="21"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -15108,7 +15165,7 @@
     </row>
     <row r="436" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A436" s="7"/>
-      <c r="B436" s="23"/>
+      <c r="B436" s="21"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -15141,7 +15198,7 @@
     </row>
     <row r="437" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A437" s="7"/>
-      <c r="B437" s="23"/>
+      <c r="B437" s="21"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -15174,7 +15231,7 @@
     </row>
     <row r="438" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A438" s="7"/>
-      <c r="B438" s="23"/>
+      <c r="B438" s="21"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -15207,7 +15264,7 @@
     </row>
     <row r="439" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A439" s="7"/>
-      <c r="B439" s="23"/>
+      <c r="B439" s="21"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -15240,7 +15297,7 @@
     </row>
     <row r="440" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A440" s="7"/>
-      <c r="B440" s="23"/>
+      <c r="B440" s="21"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -15273,7 +15330,7 @@
     </row>
     <row r="441" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A441" s="7"/>
-      <c r="B441" s="23"/>
+      <c r="B441" s="21"/>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -15306,7 +15363,7 @@
     </row>
     <row r="442" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A442" s="7"/>
-      <c r="B442" s="23"/>
+      <c r="B442" s="21"/>
       <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
@@ -15339,7 +15396,7 @@
     </row>
     <row r="443" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A443" s="7"/>
-      <c r="B443" s="23"/>
+      <c r="B443" s="21"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -15372,7 +15429,7 @@
     </row>
     <row r="444" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A444" s="7"/>
-      <c r="B444" s="23"/>
+      <c r="B444" s="21"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -15405,7 +15462,7 @@
     </row>
     <row r="445" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A445" s="7"/>
-      <c r="B445" s="23"/>
+      <c r="B445" s="21"/>
       <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
@@ -15438,7 +15495,7 @@
     </row>
     <row r="446" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A446" s="7"/>
-      <c r="B446" s="23"/>
+      <c r="B446" s="21"/>
       <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
@@ -15471,7 +15528,7 @@
     </row>
     <row r="447" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A447" s="7"/>
-      <c r="B447" s="23"/>
+      <c r="B447" s="21"/>
       <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
@@ -15504,7 +15561,7 @@
     </row>
     <row r="448" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A448" s="7"/>
-      <c r="B448" s="23"/>
+      <c r="B448" s="21"/>
       <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
@@ -15537,7 +15594,7 @@
     </row>
     <row r="449" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A449" s="7"/>
-      <c r="B449" s="23"/>
+      <c r="B449" s="21"/>
       <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
@@ -15570,7 +15627,7 @@
     </row>
     <row r="450" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A450" s="7"/>
-      <c r="B450" s="23"/>
+      <c r="B450" s="21"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -15603,7 +15660,7 @@
     </row>
     <row r="451" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A451" s="7"/>
-      <c r="B451" s="23"/>
+      <c r="B451" s="21"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -15636,7 +15693,7 @@
     </row>
     <row r="452" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A452" s="7"/>
-      <c r="B452" s="23"/>
+      <c r="B452" s="21"/>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
@@ -15669,7 +15726,7 @@
     </row>
     <row r="453" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A453" s="7"/>
-      <c r="B453" s="23"/>
+      <c r="B453" s="21"/>
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -15702,7 +15759,7 @@
     </row>
     <row r="454" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A454" s="7"/>
-      <c r="B454" s="23"/>
+      <c r="B454" s="21"/>
       <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
@@ -15735,7 +15792,7 @@
     </row>
     <row r="455" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A455" s="7"/>
-      <c r="B455" s="23"/>
+      <c r="B455" s="21"/>
       <c r="C455" s="7"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
@@ -15768,7 +15825,7 @@
     </row>
     <row r="456" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A456" s="7"/>
-      <c r="B456" s="23"/>
+      <c r="B456" s="21"/>
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -15801,7 +15858,7 @@
     </row>
     <row r="457" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A457" s="7"/>
-      <c r="B457" s="23"/>
+      <c r="B457" s="21"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -15834,7 +15891,7 @@
     </row>
     <row r="458" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A458" s="7"/>
-      <c r="B458" s="23"/>
+      <c r="B458" s="21"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -15867,7 +15924,7 @@
     </row>
     <row r="459" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A459" s="7"/>
-      <c r="B459" s="23"/>
+      <c r="B459" s="21"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -15900,7 +15957,7 @@
     </row>
     <row r="460" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A460" s="7"/>
-      <c r="B460" s="23"/>
+      <c r="B460" s="21"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
@@ -15933,7 +15990,7 @@
     </row>
     <row r="461" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A461" s="7"/>
-      <c r="B461" s="23"/>
+      <c r="B461" s="21"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -15966,7 +16023,7 @@
     </row>
     <row r="462" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A462" s="7"/>
-      <c r="B462" s="23"/>
+      <c r="B462" s="21"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -15999,7 +16056,7 @@
     </row>
     <row r="463" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A463" s="7"/>
-      <c r="B463" s="23"/>
+      <c r="B463" s="21"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -16032,7 +16089,7 @@
     </row>
     <row r="464" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A464" s="7"/>
-      <c r="B464" s="23"/>
+      <c r="B464" s="21"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
@@ -16065,7 +16122,7 @@
     </row>
     <row r="465" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A465" s="7"/>
-      <c r="B465" s="23"/>
+      <c r="B465" s="21"/>
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
       <c r="E465" s="7"/>
@@ -16098,7 +16155,7 @@
     </row>
     <row r="466" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A466" s="7"/>
-      <c r="B466" s="23"/>
+      <c r="B466" s="21"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -16131,7 +16188,7 @@
     </row>
     <row r="467" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A467" s="7"/>
-      <c r="B467" s="23"/>
+      <c r="B467" s="21"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -16164,7 +16221,7 @@
     </row>
     <row r="468" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A468" s="7"/>
-      <c r="B468" s="23"/>
+      <c r="B468" s="21"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -16197,7 +16254,7 @@
     </row>
     <row r="469" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A469" s="7"/>
-      <c r="B469" s="23"/>
+      <c r="B469" s="21"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -16230,7 +16287,7 @@
     </row>
     <row r="470" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A470" s="7"/>
-      <c r="B470" s="23"/>
+      <c r="B470" s="21"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -16263,7 +16320,7 @@
     </row>
     <row r="471" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A471" s="7"/>
-      <c r="B471" s="23"/>
+      <c r="B471" s="21"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -16296,7 +16353,7 @@
     </row>
     <row r="472" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A472" s="7"/>
-      <c r="B472" s="23"/>
+      <c r="B472" s="21"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -16329,7 +16386,7 @@
     </row>
     <row r="473" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A473" s="7"/>
-      <c r="B473" s="23"/>
+      <c r="B473" s="21"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -16362,7 +16419,7 @@
     </row>
     <row r="474" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A474" s="7"/>
-      <c r="B474" s="23"/>
+      <c r="B474" s="21"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -16395,7 +16452,7 @@
     </row>
     <row r="475" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A475" s="7"/>
-      <c r="B475" s="23"/>
+      <c r="B475" s="21"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
@@ -16428,7 +16485,7 @@
     </row>
     <row r="476" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A476" s="7"/>
-      <c r="B476" s="23"/>
+      <c r="B476" s="21"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
@@ -16461,7 +16518,7 @@
     </row>
     <row r="477" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A477" s="7"/>
-      <c r="B477" s="23"/>
+      <c r="B477" s="21"/>
       <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
@@ -16494,7 +16551,7 @@
     </row>
     <row r="478" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A478" s="7"/>
-      <c r="B478" s="23"/>
+      <c r="B478" s="21"/>
       <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
@@ -16527,7 +16584,7 @@
     </row>
     <row r="479" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A479" s="7"/>
-      <c r="B479" s="23"/>
+      <c r="B479" s="21"/>
       <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
@@ -16560,7 +16617,7 @@
     </row>
     <row r="480" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A480" s="7"/>
-      <c r="B480" s="23"/>
+      <c r="B480" s="21"/>
       <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
@@ -16593,7 +16650,7 @@
     </row>
     <row r="481" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A481" s="7"/>
-      <c r="B481" s="23"/>
+      <c r="B481" s="21"/>
       <c r="C481" s="7"/>
       <c r="D481" s="7"/>
       <c r="E481" s="7"/>
@@ -16626,7 +16683,7 @@
     </row>
     <row r="482" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A482" s="7"/>
-      <c r="B482" s="23"/>
+      <c r="B482" s="21"/>
       <c r="C482" s="7"/>
       <c r="D482" s="7"/>
       <c r="E482" s="7"/>
@@ -16659,7 +16716,7 @@
     </row>
     <row r="483" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A483" s="7"/>
-      <c r="B483" s="23"/>
+      <c r="B483" s="21"/>
       <c r="C483" s="7"/>
       <c r="D483" s="7"/>
       <c r="E483" s="7"/>
@@ -16692,7 +16749,7 @@
     </row>
     <row r="484" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A484" s="7"/>
-      <c r="B484" s="23"/>
+      <c r="B484" s="21"/>
       <c r="C484" s="7"/>
       <c r="D484" s="7"/>
       <c r="E484" s="7"/>
@@ -16725,7 +16782,7 @@
     </row>
     <row r="485" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A485" s="7"/>
-      <c r="B485" s="23"/>
+      <c r="B485" s="21"/>
       <c r="C485" s="7"/>
       <c r="D485" s="7"/>
       <c r="E485" s="7"/>
@@ -16758,7 +16815,7 @@
     </row>
     <row r="486" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A486" s="7"/>
-      <c r="B486" s="23"/>
+      <c r="B486" s="21"/>
       <c r="C486" s="7"/>
       <c r="D486" s="7"/>
       <c r="E486" s="7"/>
@@ -16791,7 +16848,7 @@
     </row>
     <row r="487" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A487" s="7"/>
-      <c r="B487" s="23"/>
+      <c r="B487" s="21"/>
       <c r="C487" s="7"/>
       <c r="D487" s="7"/>
       <c r="E487" s="7"/>
@@ -16824,7 +16881,7 @@
     </row>
     <row r="488" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A488" s="7"/>
-      <c r="B488" s="23"/>
+      <c r="B488" s="21"/>
       <c r="C488" s="7"/>
       <c r="D488" s="7"/>
       <c r="E488" s="7"/>
@@ -16857,7 +16914,7 @@
     </row>
     <row r="489" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A489" s="7"/>
-      <c r="B489" s="23"/>
+      <c r="B489" s="21"/>
       <c r="C489" s="7"/>
       <c r="D489" s="7"/>
       <c r="E489" s="7"/>
@@ -16890,7 +16947,7 @@
     </row>
     <row r="490" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A490" s="7"/>
-      <c r="B490" s="23"/>
+      <c r="B490" s="21"/>
       <c r="C490" s="7"/>
       <c r="D490" s="7"/>
       <c r="E490" s="7"/>
@@ -16923,7 +16980,7 @@
     </row>
     <row r="491" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A491" s="7"/>
-      <c r="B491" s="23"/>
+      <c r="B491" s="21"/>
       <c r="C491" s="7"/>
       <c r="D491" s="7"/>
       <c r="E491" s="7"/>
@@ -16956,7 +17013,7 @@
     </row>
     <row r="492" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A492" s="7"/>
-      <c r="B492" s="23"/>
+      <c r="B492" s="21"/>
       <c r="C492" s="7"/>
       <c r="D492" s="7"/>
       <c r="E492" s="7"/>
@@ -16989,7 +17046,7 @@
     </row>
     <row r="493" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A493" s="7"/>
-      <c r="B493" s="23"/>
+      <c r="B493" s="21"/>
       <c r="C493" s="7"/>
       <c r="D493" s="7"/>
       <c r="E493" s="7"/>
@@ -17022,7 +17079,7 @@
     </row>
     <row r="494" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A494" s="7"/>
-      <c r="B494" s="23"/>
+      <c r="B494" s="21"/>
       <c r="C494" s="7"/>
       <c r="D494" s="7"/>
       <c r="E494" s="7"/>
@@ -17055,7 +17112,7 @@
     </row>
     <row r="495" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A495" s="7"/>
-      <c r="B495" s="23"/>
+      <c r="B495" s="21"/>
       <c r="C495" s="7"/>
       <c r="D495" s="7"/>
       <c r="E495" s="7"/>
@@ -17088,7 +17145,7 @@
     </row>
     <row r="496" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A496" s="7"/>
-      <c r="B496" s="23"/>
+      <c r="B496" s="21"/>
       <c r="C496" s="7"/>
       <c r="D496" s="7"/>
       <c r="E496" s="7"/>
@@ -17121,7 +17178,7 @@
     </row>
     <row r="497" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A497" s="7"/>
-      <c r="B497" s="23"/>
+      <c r="B497" s="21"/>
       <c r="C497" s="7"/>
       <c r="D497" s="7"/>
       <c r="E497" s="7"/>
@@ -17154,7 +17211,7 @@
     </row>
     <row r="498" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A498" s="7"/>
-      <c r="B498" s="23"/>
+      <c r="B498" s="21"/>
       <c r="C498" s="7"/>
       <c r="D498" s="7"/>
       <c r="E498" s="7"/>
@@ -17187,7 +17244,7 @@
     </row>
     <row r="499" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A499" s="7"/>
-      <c r="B499" s="23"/>
+      <c r="B499" s="21"/>
       <c r="C499" s="7"/>
       <c r="D499" s="7"/>
       <c r="E499" s="7"/>
@@ -17220,7 +17277,7 @@
     </row>
     <row r="500" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A500" s="7"/>
-      <c r="B500" s="23"/>
+      <c r="B500" s="21"/>
       <c r="C500" s="7"/>
       <c r="D500" s="7"/>
       <c r="E500" s="7"/>
@@ -17253,7 +17310,7 @@
     </row>
     <row r="501" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A501" s="7"/>
-      <c r="B501" s="23"/>
+      <c r="B501" s="21"/>
       <c r="C501" s="7"/>
       <c r="D501" s="7"/>
       <c r="E501" s="7"/>
@@ -17286,7 +17343,7 @@
     </row>
     <row r="502" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A502" s="7"/>
-      <c r="B502" s="23"/>
+      <c r="B502" s="21"/>
       <c r="C502" s="7"/>
       <c r="D502" s="7"/>
       <c r="E502" s="7"/>
@@ -17319,7 +17376,7 @@
     </row>
     <row r="503" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A503" s="7"/>
-      <c r="B503" s="23"/>
+      <c r="B503" s="21"/>
       <c r="C503" s="7"/>
       <c r="D503" s="7"/>
       <c r="E503" s="7"/>
@@ -17352,7 +17409,7 @@
     </row>
     <row r="504" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A504" s="7"/>
-      <c r="B504" s="23"/>
+      <c r="B504" s="21"/>
       <c r="C504" s="7"/>
       <c r="D504" s="7"/>
       <c r="E504" s="7"/>
@@ -17385,7 +17442,7 @@
     </row>
     <row r="505" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A505" s="7"/>
-      <c r="B505" s="23"/>
+      <c r="B505" s="21"/>
       <c r="C505" s="7"/>
       <c r="D505" s="7"/>
       <c r="E505" s="7"/>
@@ -17418,7 +17475,7 @@
     </row>
     <row r="506" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A506" s="7"/>
-      <c r="B506" s="23"/>
+      <c r="B506" s="21"/>
       <c r="C506" s="7"/>
       <c r="D506" s="7"/>
       <c r="E506" s="7"/>
@@ -17451,7 +17508,7 @@
     </row>
     <row r="507" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A507" s="7"/>
-      <c r="B507" s="23"/>
+      <c r="B507" s="21"/>
       <c r="C507" s="7"/>
       <c r="D507" s="7"/>
       <c r="E507" s="7"/>
@@ -17484,7 +17541,7 @@
     </row>
     <row r="508" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A508" s="7"/>
-      <c r="B508" s="23"/>
+      <c r="B508" s="21"/>
       <c r="C508" s="7"/>
       <c r="D508" s="7"/>
       <c r="E508" s="7"/>
@@ -17517,7 +17574,7 @@
     </row>
     <row r="509" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A509" s="7"/>
-      <c r="B509" s="23"/>
+      <c r="B509" s="21"/>
       <c r="C509" s="7"/>
       <c r="D509" s="7"/>
       <c r="E509" s="7"/>
@@ -17550,7 +17607,7 @@
     </row>
     <row r="510" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A510" s="7"/>
-      <c r="B510" s="23"/>
+      <c r="B510" s="21"/>
       <c r="C510" s="7"/>
       <c r="D510" s="7"/>
       <c r="E510" s="7"/>
@@ -17583,7 +17640,7 @@
     </row>
     <row r="511" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A511" s="7"/>
-      <c r="B511" s="23"/>
+      <c r="B511" s="21"/>
       <c r="C511" s="7"/>
       <c r="D511" s="7"/>
       <c r="E511" s="7"/>
@@ -17616,7 +17673,7 @@
     </row>
     <row r="512" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A512" s="7"/>
-      <c r="B512" s="23"/>
+      <c r="B512" s="21"/>
       <c r="C512" s="7"/>
       <c r="D512" s="7"/>
       <c r="E512" s="7"/>
@@ -17649,7 +17706,7 @@
     </row>
     <row r="513" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A513" s="7"/>
-      <c r="B513" s="23"/>
+      <c r="B513" s="21"/>
       <c r="C513" s="7"/>
       <c r="D513" s="7"/>
       <c r="E513" s="7"/>
@@ -17682,7 +17739,7 @@
     </row>
     <row r="514" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A514" s="7"/>
-      <c r="B514" s="23"/>
+      <c r="B514" s="21"/>
       <c r="C514" s="7"/>
       <c r="D514" s="7"/>
       <c r="E514" s="7"/>
@@ -17715,7 +17772,7 @@
     </row>
     <row r="515" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A515" s="7"/>
-      <c r="B515" s="23"/>
+      <c r="B515" s="21"/>
       <c r="C515" s="7"/>
       <c r="D515" s="7"/>
       <c r="E515" s="7"/>
@@ -17748,7 +17805,7 @@
     </row>
     <row r="516" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A516" s="7"/>
-      <c r="B516" s="23"/>
+      <c r="B516" s="21"/>
       <c r="C516" s="7"/>
       <c r="D516" s="7"/>
       <c r="E516" s="7"/>
@@ -17781,7 +17838,7 @@
     </row>
     <row r="517" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A517" s="7"/>
-      <c r="B517" s="23"/>
+      <c r="B517" s="21"/>
       <c r="C517" s="7"/>
       <c r="D517" s="7"/>
       <c r="E517" s="7"/>
@@ -17814,7 +17871,7 @@
     </row>
     <row r="518" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A518" s="7"/>
-      <c r="B518" s="23"/>
+      <c r="B518" s="21"/>
       <c r="C518" s="7"/>
       <c r="D518" s="7"/>
       <c r="E518" s="7"/>
@@ -17847,7 +17904,7 @@
     </row>
     <row r="519" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A519" s="7"/>
-      <c r="B519" s="23"/>
+      <c r="B519" s="21"/>
       <c r="C519" s="7"/>
       <c r="D519" s="7"/>
       <c r="E519" s="7"/>
@@ -17880,7 +17937,7 @@
     </row>
     <row r="520" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A520" s="7"/>
-      <c r="B520" s="23"/>
+      <c r="B520" s="21"/>
       <c r="C520" s="7"/>
       <c r="D520" s="7"/>
       <c r="E520" s="7"/>
@@ -17913,7 +17970,7 @@
     </row>
     <row r="521" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A521" s="7"/>
-      <c r="B521" s="23"/>
+      <c r="B521" s="21"/>
       <c r="C521" s="7"/>
       <c r="D521" s="7"/>
       <c r="E521" s="7"/>
@@ -17946,7 +18003,7 @@
     </row>
     <row r="522" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A522" s="7"/>
-      <c r="B522" s="23"/>
+      <c r="B522" s="21"/>
       <c r="C522" s="7"/>
       <c r="D522" s="7"/>
       <c r="E522" s="7"/>
@@ -17979,7 +18036,7 @@
     </row>
     <row r="523" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A523" s="7"/>
-      <c r="B523" s="23"/>
+      <c r="B523" s="21"/>
       <c r="C523" s="7"/>
       <c r="D523" s="7"/>
       <c r="E523" s="7"/>
@@ -18012,7 +18069,7 @@
     </row>
     <row r="524" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A524" s="7"/>
-      <c r="B524" s="23"/>
+      <c r="B524" s="21"/>
       <c r="C524" s="7"/>
       <c r="D524" s="7"/>
       <c r="E524" s="7"/>
@@ -18045,7 +18102,7 @@
     </row>
     <row r="525" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A525" s="7"/>
-      <c r="B525" s="23"/>
+      <c r="B525" s="21"/>
       <c r="C525" s="7"/>
       <c r="D525" s="7"/>
       <c r="E525" s="7"/>
@@ -18078,7 +18135,7 @@
     </row>
     <row r="526" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A526" s="7"/>
-      <c r="B526" s="23"/>
+      <c r="B526" s="21"/>
       <c r="C526" s="7"/>
       <c r="D526" s="7"/>
       <c r="E526" s="7"/>
@@ -18111,7 +18168,7 @@
     </row>
     <row r="527" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A527" s="7"/>
-      <c r="B527" s="23"/>
+      <c r="B527" s="21"/>
       <c r="C527" s="7"/>
       <c r="D527" s="7"/>
       <c r="E527" s="7"/>
@@ -18144,7 +18201,7 @@
     </row>
     <row r="528" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A528" s="7"/>
-      <c r="B528" s="23"/>
+      <c r="B528" s="21"/>
       <c r="C528" s="7"/>
       <c r="D528" s="7"/>
       <c r="E528" s="7"/>
@@ -18177,7 +18234,7 @@
     </row>
     <row r="529" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A529" s="7"/>
-      <c r="B529" s="23"/>
+      <c r="B529" s="21"/>
       <c r="C529" s="7"/>
       <c r="D529" s="7"/>
       <c r="E529" s="7"/>
@@ -18210,7 +18267,7 @@
     </row>
     <row r="530" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A530" s="7"/>
-      <c r="B530" s="23"/>
+      <c r="B530" s="21"/>
       <c r="C530" s="7"/>
       <c r="D530" s="7"/>
       <c r="E530" s="7"/>
@@ -18243,7 +18300,7 @@
     </row>
     <row r="531" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A531" s="7"/>
-      <c r="B531" s="23"/>
+      <c r="B531" s="21"/>
       <c r="C531" s="7"/>
       <c r="D531" s="7"/>
       <c r="E531" s="7"/>
@@ -18276,7 +18333,7 @@
     </row>
     <row r="532" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A532" s="7"/>
-      <c r="B532" s="23"/>
+      <c r="B532" s="21"/>
       <c r="C532" s="7"/>
       <c r="D532" s="7"/>
       <c r="E532" s="7"/>
@@ -18309,7 +18366,7 @@
     </row>
     <row r="533" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A533" s="7"/>
-      <c r="B533" s="23"/>
+      <c r="B533" s="21"/>
       <c r="C533" s="7"/>
       <c r="D533" s="7"/>
       <c r="E533" s="7"/>
@@ -18342,7 +18399,7 @@
     </row>
     <row r="534" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A534" s="7"/>
-      <c r="B534" s="23"/>
+      <c r="B534" s="21"/>
       <c r="C534" s="7"/>
       <c r="D534" s="7"/>
       <c r="E534" s="7"/>
@@ -18375,7 +18432,7 @@
     </row>
     <row r="535" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A535" s="7"/>
-      <c r="B535" s="23"/>
+      <c r="B535" s="21"/>
       <c r="C535" s="7"/>
       <c r="D535" s="7"/>
       <c r="E535" s="7"/>
@@ -18408,7 +18465,7 @@
     </row>
     <row r="536" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A536" s="7"/>
-      <c r="B536" s="23"/>
+      <c r="B536" s="21"/>
       <c r="C536" s="7"/>
       <c r="D536" s="7"/>
       <c r="E536" s="7"/>
@@ -18441,7 +18498,7 @@
     </row>
     <row r="537" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A537" s="7"/>
-      <c r="B537" s="23"/>
+      <c r="B537" s="21"/>
       <c r="C537" s="7"/>
       <c r="D537" s="7"/>
       <c r="E537" s="7"/>
@@ -18474,7 +18531,7 @@
     </row>
     <row r="538" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A538" s="7"/>
-      <c r="B538" s="23"/>
+      <c r="B538" s="21"/>
       <c r="C538" s="7"/>
       <c r="D538" s="7"/>
       <c r="E538" s="7"/>
@@ -18507,7 +18564,7 @@
     </row>
     <row r="539" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A539" s="7"/>
-      <c r="B539" s="23"/>
+      <c r="B539" s="21"/>
       <c r="C539" s="7"/>
       <c r="D539" s="7"/>
       <c r="E539" s="7"/>
@@ -18540,7 +18597,7 @@
     </row>
     <row r="540" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A540" s="7"/>
-      <c r="B540" s="23"/>
+      <c r="B540" s="21"/>
       <c r="C540" s="7"/>
       <c r="D540" s="7"/>
       <c r="E540" s="7"/>
@@ -18573,7 +18630,7 @@
     </row>
     <row r="541" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A541" s="7"/>
-      <c r="B541" s="23"/>
+      <c r="B541" s="21"/>
       <c r="C541" s="7"/>
       <c r="D541" s="7"/>
       <c r="E541" s="7"/>
@@ -18606,7 +18663,7 @@
     </row>
     <row r="542" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A542" s="7"/>
-      <c r="B542" s="23"/>
+      <c r="B542" s="21"/>
       <c r="C542" s="7"/>
       <c r="D542" s="7"/>
       <c r="E542" s="7"/>
@@ -18639,7 +18696,7 @@
     </row>
     <row r="543" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A543" s="7"/>
-      <c r="B543" s="23"/>
+      <c r="B543" s="21"/>
       <c r="C543" s="7"/>
       <c r="D543" s="7"/>
       <c r="E543" s="7"/>
@@ -18672,7 +18729,7 @@
     </row>
     <row r="544" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A544" s="7"/>
-      <c r="B544" s="23"/>
+      <c r="B544" s="21"/>
       <c r="C544" s="7"/>
       <c r="D544" s="7"/>
       <c r="E544" s="7"/>
@@ -18705,7 +18762,7 @@
     </row>
     <row r="545" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A545" s="7"/>
-      <c r="B545" s="23"/>
+      <c r="B545" s="21"/>
       <c r="C545" s="7"/>
       <c r="D545" s="7"/>
       <c r="E545" s="7"/>
@@ -18738,7 +18795,7 @@
     </row>
     <row r="546" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A546" s="7"/>
-      <c r="B546" s="23"/>
+      <c r="B546" s="21"/>
       <c r="C546" s="7"/>
       <c r="D546" s="7"/>
       <c r="E546" s="7"/>
@@ -18771,7 +18828,7 @@
     </row>
     <row r="547" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A547" s="7"/>
-      <c r="B547" s="23"/>
+      <c r="B547" s="21"/>
       <c r="C547" s="7"/>
       <c r="D547" s="7"/>
       <c r="E547" s="7"/>
@@ -18804,7 +18861,7 @@
     </row>
     <row r="548" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A548" s="7"/>
-      <c r="B548" s="23"/>
+      <c r="B548" s="21"/>
       <c r="C548" s="7"/>
       <c r="D548" s="7"/>
       <c r="E548" s="7"/>
@@ -18837,7 +18894,7 @@
     </row>
     <row r="549" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A549" s="7"/>
-      <c r="B549" s="23"/>
+      <c r="B549" s="21"/>
       <c r="C549" s="7"/>
       <c r="D549" s="7"/>
       <c r="E549" s="7"/>
@@ -18870,7 +18927,7 @@
     </row>
     <row r="550" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A550" s="7"/>
-      <c r="B550" s="23"/>
+      <c r="B550" s="21"/>
       <c r="C550" s="7"/>
       <c r="D550" s="7"/>
       <c r="E550" s="7"/>
@@ -18903,7 +18960,7 @@
     </row>
     <row r="551" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A551" s="7"/>
-      <c r="B551" s="23"/>
+      <c r="B551" s="21"/>
       <c r="C551" s="7"/>
       <c r="D551" s="7"/>
       <c r="E551" s="7"/>
@@ -18936,7 +18993,7 @@
     </row>
     <row r="552" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A552" s="7"/>
-      <c r="B552" s="23"/>
+      <c r="B552" s="21"/>
       <c r="C552" s="7"/>
       <c r="D552" s="7"/>
       <c r="E552" s="7"/>
@@ -18969,7 +19026,7 @@
     </row>
     <row r="553" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A553" s="7"/>
-      <c r="B553" s="23"/>
+      <c r="B553" s="21"/>
       <c r="C553" s="7"/>
       <c r="D553" s="7"/>
       <c r="E553" s="7"/>
@@ -19002,7 +19059,7 @@
     </row>
     <row r="554" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A554" s="7"/>
-      <c r="B554" s="23"/>
+      <c r="B554" s="21"/>
       <c r="C554" s="7"/>
       <c r="D554" s="7"/>
       <c r="E554" s="7"/>
@@ -19035,7 +19092,7 @@
     </row>
     <row r="555" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A555" s="7"/>
-      <c r="B555" s="23"/>
+      <c r="B555" s="21"/>
       <c r="C555" s="7"/>
       <c r="D555" s="7"/>
       <c r="E555" s="7"/>
@@ -19068,7 +19125,7 @@
     </row>
     <row r="556" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A556" s="7"/>
-      <c r="B556" s="23"/>
+      <c r="B556" s="21"/>
       <c r="C556" s="7"/>
       <c r="D556" s="7"/>
       <c r="E556" s="7"/>
@@ -19101,7 +19158,7 @@
     </row>
     <row r="557" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A557" s="7"/>
-      <c r="B557" s="23"/>
+      <c r="B557" s="21"/>
       <c r="C557" s="7"/>
       <c r="D557" s="7"/>
       <c r="E557" s="7"/>
@@ -19134,7 +19191,7 @@
     </row>
     <row r="558" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A558" s="7"/>
-      <c r="B558" s="23"/>
+      <c r="B558" s="21"/>
       <c r="C558" s="7"/>
       <c r="D558" s="7"/>
       <c r="E558" s="7"/>
@@ -19167,7 +19224,7 @@
     </row>
     <row r="559" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A559" s="7"/>
-      <c r="B559" s="23"/>
+      <c r="B559" s="21"/>
       <c r="C559" s="7"/>
       <c r="D559" s="7"/>
       <c r="E559" s="7"/>
@@ -19200,7 +19257,7 @@
     </row>
     <row r="560" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A560" s="7"/>
-      <c r="B560" s="23"/>
+      <c r="B560" s="21"/>
       <c r="C560" s="7"/>
       <c r="D560" s="7"/>
       <c r="E560" s="7"/>
@@ -19233,7 +19290,7 @@
     </row>
     <row r="561" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A561" s="7"/>
-      <c r="B561" s="23"/>
+      <c r="B561" s="21"/>
       <c r="C561" s="7"/>
       <c r="D561" s="7"/>
       <c r="E561" s="7"/>
@@ -19266,7 +19323,7 @@
     </row>
     <row r="562" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A562" s="7"/>
-      <c r="B562" s="23"/>
+      <c r="B562" s="21"/>
       <c r="C562" s="7"/>
       <c r="D562" s="7"/>
       <c r="E562" s="7"/>
@@ -19299,7 +19356,7 @@
     </row>
     <row r="563" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A563" s="7"/>
-      <c r="B563" s="23"/>
+      <c r="B563" s="21"/>
       <c r="C563" s="7"/>
       <c r="D563" s="7"/>
       <c r="E563" s="7"/>
@@ -19332,7 +19389,7 @@
     </row>
     <row r="564" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A564" s="7"/>
-      <c r="B564" s="23"/>
+      <c r="B564" s="21"/>
       <c r="C564" s="7"/>
       <c r="D564" s="7"/>
       <c r="E564" s="7"/>
@@ -19365,7 +19422,7 @@
     </row>
     <row r="565" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A565" s="7"/>
-      <c r="B565" s="23"/>
+      <c r="B565" s="21"/>
       <c r="C565" s="7"/>
       <c r="D565" s="7"/>
       <c r="E565" s="7"/>
@@ -19398,7 +19455,7 @@
     </row>
     <row r="566" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A566" s="7"/>
-      <c r="B566" s="23"/>
+      <c r="B566" s="21"/>
       <c r="C566" s="7"/>
       <c r="D566" s="7"/>
       <c r="E566" s="7"/>
@@ -19431,7 +19488,7 @@
     </row>
     <row r="567" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A567" s="7"/>
-      <c r="B567" s="23"/>
+      <c r="B567" s="21"/>
       <c r="C567" s="7"/>
       <c r="D567" s="7"/>
       <c r="E567" s="7"/>
@@ -19464,7 +19521,7 @@
     </row>
     <row r="568" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A568" s="7"/>
-      <c r="B568" s="23"/>
+      <c r="B568" s="21"/>
       <c r="C568" s="7"/>
       <c r="D568" s="7"/>
       <c r="E568" s="7"/>
@@ -19497,7 +19554,7 @@
     </row>
     <row r="569" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A569" s="7"/>
-      <c r="B569" s="23"/>
+      <c r="B569" s="21"/>
       <c r="C569" s="7"/>
       <c r="D569" s="7"/>
       <c r="E569" s="7"/>
@@ -19530,7 +19587,7 @@
     </row>
     <row r="570" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A570" s="7"/>
-      <c r="B570" s="23"/>
+      <c r="B570" s="21"/>
       <c r="C570" s="7"/>
       <c r="D570" s="7"/>
       <c r="E570" s="7"/>
@@ -19563,7 +19620,7 @@
     </row>
     <row r="571" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A571" s="7"/>
-      <c r="B571" s="23"/>
+      <c r="B571" s="21"/>
       <c r="C571" s="7"/>
       <c r="D571" s="7"/>
       <c r="E571" s="7"/>
@@ -19596,7 +19653,7 @@
     </row>
     <row r="572" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A572" s="7"/>
-      <c r="B572" s="23"/>
+      <c r="B572" s="21"/>
       <c r="C572" s="7"/>
       <c r="D572" s="7"/>
       <c r="E572" s="7"/>
@@ -19629,7 +19686,7 @@
     </row>
     <row r="573" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A573" s="7"/>
-      <c r="B573" s="23"/>
+      <c r="B573" s="21"/>
       <c r="C573" s="7"/>
       <c r="D573" s="7"/>
       <c r="E573" s="7"/>
@@ -19662,7 +19719,7 @@
     </row>
     <row r="574" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A574" s="7"/>
-      <c r="B574" s="23"/>
+      <c r="B574" s="21"/>
       <c r="C574" s="7"/>
       <c r="D574" s="7"/>
       <c r="E574" s="7"/>
@@ -19695,7 +19752,7 @@
     </row>
     <row r="575" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A575" s="7"/>
-      <c r="B575" s="23"/>
+      <c r="B575" s="21"/>
       <c r="C575" s="7"/>
       <c r="D575" s="7"/>
       <c r="E575" s="7"/>
@@ -19728,7 +19785,7 @@
     </row>
     <row r="576" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A576" s="7"/>
-      <c r="B576" s="23"/>
+      <c r="B576" s="21"/>
       <c r="C576" s="7"/>
       <c r="D576" s="7"/>
       <c r="E576" s="7"/>
@@ -19761,7 +19818,7 @@
     </row>
     <row r="577" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A577" s="7"/>
-      <c r="B577" s="23"/>
+      <c r="B577" s="21"/>
       <c r="C577" s="7"/>
       <c r="D577" s="7"/>
       <c r="E577" s="7"/>
@@ -19794,7 +19851,7 @@
     </row>
     <row r="578" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A578" s="7"/>
-      <c r="B578" s="23"/>
+      <c r="B578" s="21"/>
       <c r="C578" s="7"/>
       <c r="D578" s="7"/>
       <c r="E578" s="7"/>
@@ -19827,7 +19884,7 @@
     </row>
     <row r="579" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A579" s="7"/>
-      <c r="B579" s="23"/>
+      <c r="B579" s="21"/>
       <c r="C579" s="7"/>
       <c r="D579" s="7"/>
       <c r="E579" s="7"/>
@@ -19860,7 +19917,7 @@
     </row>
     <row r="580" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A580" s="7"/>
-      <c r="B580" s="23"/>
+      <c r="B580" s="21"/>
       <c r="C580" s="7"/>
       <c r="D580" s="7"/>
       <c r="E580" s="7"/>
@@ -19893,7 +19950,7 @@
     </row>
     <row r="581" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A581" s="7"/>
-      <c r="B581" s="23"/>
+      <c r="B581" s="21"/>
       <c r="C581" s="7"/>
       <c r="D581" s="7"/>
       <c r="E581" s="7"/>
@@ -19926,7 +19983,7 @@
     </row>
     <row r="582" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A582" s="7"/>
-      <c r="B582" s="23"/>
+      <c r="B582" s="21"/>
       <c r="C582" s="7"/>
       <c r="D582" s="7"/>
       <c r="E582" s="7"/>
@@ -19959,7 +20016,7 @@
     </row>
     <row r="583" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A583" s="7"/>
-      <c r="B583" s="23"/>
+      <c r="B583" s="21"/>
       <c r="C583" s="7"/>
       <c r="D583" s="7"/>
       <c r="E583" s="7"/>
@@ -19992,7 +20049,7 @@
     </row>
     <row r="584" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A584" s="7"/>
-      <c r="B584" s="23"/>
+      <c r="B584" s="21"/>
       <c r="C584" s="7"/>
       <c r="D584" s="7"/>
       <c r="E584" s="7"/>
@@ -20025,7 +20082,7 @@
     </row>
     <row r="585" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A585" s="7"/>
-      <c r="B585" s="23"/>
+      <c r="B585" s="21"/>
       <c r="C585" s="7"/>
       <c r="D585" s="7"/>
       <c r="E585" s="7"/>
@@ -20058,7 +20115,7 @@
     </row>
     <row r="586" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A586" s="7"/>
-      <c r="B586" s="23"/>
+      <c r="B586" s="21"/>
       <c r="C586" s="7"/>
       <c r="D586" s="7"/>
       <c r="E586" s="7"/>
@@ -20091,7 +20148,7 @@
     </row>
     <row r="587" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A587" s="7"/>
-      <c r="B587" s="23"/>
+      <c r="B587" s="21"/>
       <c r="C587" s="7"/>
       <c r="D587" s="7"/>
       <c r="E587" s="7"/>
@@ -20124,7 +20181,7 @@
     </row>
     <row r="588" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A588" s="7"/>
-      <c r="B588" s="23"/>
+      <c r="B588" s="21"/>
       <c r="C588" s="7"/>
       <c r="D588" s="7"/>
       <c r="E588" s="7"/>
@@ -20157,7 +20214,7 @@
     </row>
     <row r="589" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A589" s="7"/>
-      <c r="B589" s="23"/>
+      <c r="B589" s="21"/>
       <c r="C589" s="7"/>
       <c r="D589" s="7"/>
       <c r="E589" s="7"/>
@@ -20190,7 +20247,7 @@
     </row>
     <row r="590" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A590" s="7"/>
-      <c r="B590" s="23"/>
+      <c r="B590" s="21"/>
       <c r="C590" s="7"/>
       <c r="D590" s="7"/>
       <c r="E590" s="7"/>
@@ -20223,7 +20280,7 @@
     </row>
     <row r="591" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A591" s="7"/>
-      <c r="B591" s="23"/>
+      <c r="B591" s="21"/>
       <c r="C591" s="7"/>
       <c r="D591" s="7"/>
       <c r="E591" s="7"/>
@@ -20256,7 +20313,7 @@
     </row>
     <row r="592" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A592" s="7"/>
-      <c r="B592" s="23"/>
+      <c r="B592" s="21"/>
       <c r="C592" s="7"/>
       <c r="D592" s="7"/>
       <c r="E592" s="7"/>
@@ -20289,7 +20346,7 @@
     </row>
     <row r="593" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A593" s="7"/>
-      <c r="B593" s="23"/>
+      <c r="B593" s="21"/>
       <c r="C593" s="7"/>
       <c r="D593" s="7"/>
       <c r="E593" s="7"/>
@@ -20322,7 +20379,7 @@
     </row>
     <row r="594" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A594" s="7"/>
-      <c r="B594" s="23"/>
+      <c r="B594" s="21"/>
       <c r="C594" s="7"/>
       <c r="D594" s="7"/>
       <c r="E594" s="7"/>
@@ -20355,7 +20412,7 @@
     </row>
     <row r="595" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A595" s="7"/>
-      <c r="B595" s="23"/>
+      <c r="B595" s="21"/>
       <c r="C595" s="7"/>
       <c r="D595" s="7"/>
       <c r="E595" s="7"/>
@@ -20388,7 +20445,7 @@
     </row>
     <row r="596" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A596" s="7"/>
-      <c r="B596" s="23"/>
+      <c r="B596" s="21"/>
       <c r="C596" s="7"/>
       <c r="D596" s="7"/>
       <c r="E596" s="7"/>
@@ -20421,7 +20478,7 @@
     </row>
     <row r="597" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A597" s="7"/>
-      <c r="B597" s="23"/>
+      <c r="B597" s="21"/>
       <c r="C597" s="7"/>
       <c r="D597" s="7"/>
       <c r="E597" s="7"/>
@@ -20454,7 +20511,7 @@
     </row>
     <row r="598" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A598" s="7"/>
-      <c r="B598" s="23"/>
+      <c r="B598" s="21"/>
       <c r="C598" s="7"/>
       <c r="D598" s="7"/>
       <c r="E598" s="7"/>
@@ -20487,7 +20544,7 @@
     </row>
     <row r="599" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A599" s="7"/>
-      <c r="B599" s="23"/>
+      <c r="B599" s="21"/>
       <c r="C599" s="7"/>
       <c r="D599" s="7"/>
       <c r="E599" s="7"/>
@@ -20520,7 +20577,7 @@
     </row>
     <row r="600" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A600" s="7"/>
-      <c r="B600" s="23"/>
+      <c r="B600" s="21"/>
       <c r="C600" s="7"/>
       <c r="D600" s="7"/>
       <c r="E600" s="7"/>
@@ -20553,7 +20610,7 @@
     </row>
     <row r="601" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A601" s="7"/>
-      <c r="B601" s="23"/>
+      <c r="B601" s="21"/>
       <c r="C601" s="7"/>
       <c r="D601" s="7"/>
       <c r="E601" s="7"/>
@@ -20586,7 +20643,7 @@
     </row>
     <row r="602" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A602" s="7"/>
-      <c r="B602" s="23"/>
+      <c r="B602" s="21"/>
       <c r="C602" s="7"/>
       <c r="D602" s="7"/>
       <c r="E602" s="7"/>
@@ -20619,7 +20676,7 @@
     </row>
     <row r="603" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A603" s="7"/>
-      <c r="B603" s="23"/>
+      <c r="B603" s="21"/>
       <c r="C603" s="7"/>
       <c r="D603" s="7"/>
       <c r="E603" s="7"/>
@@ -20652,7 +20709,7 @@
     </row>
     <row r="604" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A604" s="7"/>
-      <c r="B604" s="23"/>
+      <c r="B604" s="21"/>
       <c r="C604" s="7"/>
       <c r="D604" s="7"/>
       <c r="E604" s="7"/>
@@ -20685,7 +20742,7 @@
     </row>
     <row r="605" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A605" s="7"/>
-      <c r="B605" s="23"/>
+      <c r="B605" s="21"/>
       <c r="C605" s="7"/>
       <c r="D605" s="7"/>
       <c r="E605" s="7"/>
@@ -20718,7 +20775,7 @@
     </row>
     <row r="606" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A606" s="7"/>
-      <c r="B606" s="23"/>
+      <c r="B606" s="21"/>
       <c r="C606" s="7"/>
       <c r="D606" s="7"/>
       <c r="E606" s="7"/>
@@ -20751,7 +20808,7 @@
     </row>
     <row r="607" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A607" s="7"/>
-      <c r="B607" s="23"/>
+      <c r="B607" s="21"/>
       <c r="C607" s="7"/>
       <c r="D607" s="7"/>
       <c r="E607" s="7"/>
@@ -20784,7 +20841,7 @@
     </row>
     <row r="608" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A608" s="7"/>
-      <c r="B608" s="23"/>
+      <c r="B608" s="21"/>
       <c r="C608" s="7"/>
       <c r="D608" s="7"/>
       <c r="E608" s="7"/>
@@ -20817,7 +20874,7 @@
     </row>
     <row r="609" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A609" s="7"/>
-      <c r="B609" s="23"/>
+      <c r="B609" s="21"/>
       <c r="C609" s="7"/>
       <c r="D609" s="7"/>
       <c r="E609" s="7"/>
@@ -20850,7 +20907,7 @@
     </row>
     <row r="610" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A610" s="7"/>
-      <c r="B610" s="23"/>
+      <c r="B610" s="21"/>
       <c r="C610" s="7"/>
       <c r="D610" s="7"/>
       <c r="E610" s="7"/>
@@ -20883,7 +20940,7 @@
     </row>
     <row r="611" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A611" s="7"/>
-      <c r="B611" s="23"/>
+      <c r="B611" s="21"/>
       <c r="C611" s="7"/>
       <c r="D611" s="7"/>
       <c r="E611" s="7"/>
@@ -20916,7 +20973,7 @@
     </row>
     <row r="612" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A612" s="7"/>
-      <c r="B612" s="23"/>
+      <c r="B612" s="21"/>
       <c r="C612" s="7"/>
       <c r="D612" s="7"/>
       <c r="E612" s="7"/>
@@ -20949,7 +21006,7 @@
     </row>
     <row r="613" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A613" s="7"/>
-      <c r="B613" s="23"/>
+      <c r="B613" s="21"/>
       <c r="C613" s="7"/>
       <c r="D613" s="7"/>
       <c r="E613" s="7"/>
@@ -20982,7 +21039,7 @@
     </row>
     <row r="614" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A614" s="7"/>
-      <c r="B614" s="23"/>
+      <c r="B614" s="21"/>
       <c r="C614" s="7"/>
       <c r="D614" s="7"/>
       <c r="E614" s="7"/>
@@ -21015,7 +21072,7 @@
     </row>
     <row r="615" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A615" s="7"/>
-      <c r="B615" s="23"/>
+      <c r="B615" s="21"/>
       <c r="C615" s="7"/>
       <c r="D615" s="7"/>
       <c r="E615" s="7"/>
@@ -21048,7 +21105,7 @@
     </row>
     <row r="616" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A616" s="7"/>
-      <c r="B616" s="23"/>
+      <c r="B616" s="21"/>
       <c r="C616" s="7"/>
       <c r="D616" s="7"/>
       <c r="E616" s="7"/>
@@ -21081,7 +21138,7 @@
     </row>
     <row r="617" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A617" s="7"/>
-      <c r="B617" s="23"/>
+      <c r="B617" s="21"/>
       <c r="C617" s="7"/>
       <c r="D617" s="7"/>
       <c r="E617" s="7"/>
@@ -21114,7 +21171,7 @@
     </row>
     <row r="618" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A618" s="7"/>
-      <c r="B618" s="23"/>
+      <c r="B618" s="21"/>
       <c r="C618" s="7"/>
       <c r="D618" s="7"/>
       <c r="E618" s="7"/>
@@ -21147,7 +21204,7 @@
     </row>
     <row r="619" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A619" s="7"/>
-      <c r="B619" s="23"/>
+      <c r="B619" s="21"/>
       <c r="C619" s="7"/>
       <c r="D619" s="7"/>
       <c r="E619" s="7"/>
@@ -21180,7 +21237,7 @@
     </row>
     <row r="620" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A620" s="7"/>
-      <c r="B620" s="23"/>
+      <c r="B620" s="21"/>
       <c r="C620" s="7"/>
       <c r="D620" s="7"/>
       <c r="E620" s="7"/>
@@ -21213,7 +21270,7 @@
     </row>
     <row r="621" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A621" s="7"/>
-      <c r="B621" s="23"/>
+      <c r="B621" s="21"/>
       <c r="C621" s="7"/>
       <c r="D621" s="7"/>
       <c r="E621" s="7"/>
@@ -21246,7 +21303,7 @@
     </row>
     <row r="622" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A622" s="7"/>
-      <c r="B622" s="23"/>
+      <c r="B622" s="21"/>
       <c r="C622" s="7"/>
       <c r="D622" s="7"/>
       <c r="E622" s="7"/>
@@ -21279,7 +21336,7 @@
     </row>
     <row r="623" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A623" s="7"/>
-      <c r="B623" s="23"/>
+      <c r="B623" s="21"/>
       <c r="C623" s="7"/>
       <c r="D623" s="7"/>
       <c r="E623" s="7"/>
@@ -21312,7 +21369,7 @@
     </row>
     <row r="624" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A624" s="7"/>
-      <c r="B624" s="23"/>
+      <c r="B624" s="21"/>
       <c r="C624" s="7"/>
       <c r="D624" s="7"/>
       <c r="E624" s="7"/>
@@ -21345,7 +21402,7 @@
     </row>
     <row r="625" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A625" s="7"/>
-      <c r="B625" s="23"/>
+      <c r="B625" s="21"/>
       <c r="C625" s="7"/>
       <c r="D625" s="7"/>
       <c r="E625" s="7"/>
@@ -21378,7 +21435,7 @@
     </row>
     <row r="626" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A626" s="7"/>
-      <c r="B626" s="23"/>
+      <c r="B626" s="21"/>
       <c r="C626" s="7"/>
       <c r="D626" s="7"/>
       <c r="E626" s="7"/>
@@ -21411,7 +21468,7 @@
     </row>
     <row r="627" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A627" s="7"/>
-      <c r="B627" s="23"/>
+      <c r="B627" s="21"/>
       <c r="C627" s="7"/>
       <c r="D627" s="7"/>
       <c r="E627" s="7"/>
@@ -21444,7 +21501,7 @@
     </row>
     <row r="628" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A628" s="7"/>
-      <c r="B628" s="23"/>
+      <c r="B628" s="21"/>
       <c r="C628" s="7"/>
       <c r="D628" s="7"/>
       <c r="E628" s="7"/>
@@ -21477,7 +21534,7 @@
     </row>
     <row r="629" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A629" s="7"/>
-      <c r="B629" s="23"/>
+      <c r="B629" s="21"/>
       <c r="C629" s="7"/>
       <c r="D629" s="7"/>
       <c r="E629" s="7"/>
@@ -21510,7 +21567,7 @@
     </row>
     <row r="630" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A630" s="7"/>
-      <c r="B630" s="23"/>
+      <c r="B630" s="21"/>
       <c r="C630" s="7"/>
       <c r="D630" s="7"/>
       <c r="E630" s="7"/>
@@ -21543,7 +21600,7 @@
     </row>
     <row r="631" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A631" s="7"/>
-      <c r="B631" s="23"/>
+      <c r="B631" s="21"/>
       <c r="C631" s="7"/>
       <c r="D631" s="7"/>
       <c r="E631" s="7"/>
@@ -21576,7 +21633,7 @@
     </row>
     <row r="632" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A632" s="7"/>
-      <c r="B632" s="23"/>
+      <c r="B632" s="21"/>
       <c r="C632" s="7"/>
       <c r="D632" s="7"/>
       <c r="E632" s="7"/>
@@ -21609,7 +21666,7 @@
     </row>
     <row r="633" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A633" s="7"/>
-      <c r="B633" s="23"/>
+      <c r="B633" s="21"/>
       <c r="C633" s="7"/>
       <c r="D633" s="7"/>
       <c r="E633" s="7"/>
@@ -21642,7 +21699,7 @@
     </row>
     <row r="634" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A634" s="7"/>
-      <c r="B634" s="23"/>
+      <c r="B634" s="21"/>
       <c r="C634" s="7"/>
       <c r="D634" s="7"/>
       <c r="E634" s="7"/>
@@ -21675,7 +21732,7 @@
     </row>
     <row r="635" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A635" s="7"/>
-      <c r="B635" s="23"/>
+      <c r="B635" s="21"/>
       <c r="C635" s="7"/>
       <c r="D635" s="7"/>
       <c r="E635" s="7"/>
@@ -21708,7 +21765,7 @@
     </row>
     <row r="636" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A636" s="7"/>
-      <c r="B636" s="23"/>
+      <c r="B636" s="21"/>
       <c r="C636" s="7"/>
       <c r="D636" s="7"/>
       <c r="E636" s="7"/>
@@ -21741,7 +21798,7 @@
     </row>
     <row r="637" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A637" s="7"/>
-      <c r="B637" s="23"/>
+      <c r="B637" s="21"/>
       <c r="C637" s="7"/>
       <c r="D637" s="7"/>
       <c r="E637" s="7"/>
@@ -21774,7 +21831,7 @@
     </row>
     <row r="638" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A638" s="7"/>
-      <c r="B638" s="23"/>
+      <c r="B638" s="21"/>
       <c r="C638" s="7"/>
       <c r="D638" s="7"/>
       <c r="E638" s="7"/>
@@ -21807,7 +21864,7 @@
     </row>
     <row r="639" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A639" s="7"/>
-      <c r="B639" s="23"/>
+      <c r="B639" s="21"/>
       <c r="C639" s="7"/>
       <c r="D639" s="7"/>
       <c r="E639" s="7"/>
@@ -21840,7 +21897,7 @@
     </row>
     <row r="640" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A640" s="7"/>
-      <c r="B640" s="23"/>
+      <c r="B640" s="21"/>
       <c r="C640" s="7"/>
       <c r="D640" s="7"/>
       <c r="E640" s="7"/>
@@ -21873,7 +21930,7 @@
     </row>
     <row r="641" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A641" s="7"/>
-      <c r="B641" s="23"/>
+      <c r="B641" s="21"/>
       <c r="C641" s="7"/>
       <c r="D641" s="7"/>
       <c r="E641" s="7"/>
@@ -21906,7 +21963,7 @@
     </row>
     <row r="642" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A642" s="7"/>
-      <c r="B642" s="23"/>
+      <c r="B642" s="21"/>
       <c r="C642" s="7"/>
       <c r="D642" s="7"/>
       <c r="E642" s="7"/>
@@ -21939,7 +21996,7 @@
     </row>
     <row r="643" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A643" s="7"/>
-      <c r="B643" s="23"/>
+      <c r="B643" s="21"/>
       <c r="C643" s="7"/>
       <c r="D643" s="7"/>
       <c r="E643" s="7"/>
@@ -21972,7 +22029,7 @@
     </row>
     <row r="644" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A644" s="7"/>
-      <c r="B644" s="23"/>
+      <c r="B644" s="21"/>
       <c r="C644" s="7"/>
       <c r="D644" s="7"/>
       <c r="E644" s="7"/>
@@ -22005,7 +22062,7 @@
     </row>
     <row r="645" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A645" s="7"/>
-      <c r="B645" s="23"/>
+      <c r="B645" s="21"/>
       <c r="C645" s="7"/>
       <c r="D645" s="7"/>
       <c r="E645" s="7"/>
@@ -22038,7 +22095,7 @@
     </row>
     <row r="646" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A646" s="7"/>
-      <c r="B646" s="23"/>
+      <c r="B646" s="21"/>
       <c r="C646" s="7"/>
       <c r="D646" s="7"/>
       <c r="E646" s="7"/>
@@ -22071,7 +22128,7 @@
     </row>
     <row r="647" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A647" s="7"/>
-      <c r="B647" s="23"/>
+      <c r="B647" s="21"/>
       <c r="C647" s="7"/>
       <c r="D647" s="7"/>
       <c r="E647" s="7"/>
@@ -22104,7 +22161,7 @@
     </row>
     <row r="648" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A648" s="7"/>
-      <c r="B648" s="23"/>
+      <c r="B648" s="21"/>
       <c r="C648" s="7"/>
       <c r="D648" s="7"/>
       <c r="E648" s="7"/>
@@ -22137,7 +22194,7 @@
     </row>
     <row r="649" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A649" s="7"/>
-      <c r="B649" s="23"/>
+      <c r="B649" s="21"/>
       <c r="C649" s="7"/>
       <c r="D649" s="7"/>
       <c r="E649" s="7"/>
@@ -22170,7 +22227,7 @@
     </row>
     <row r="650" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A650" s="7"/>
-      <c r="B650" s="23"/>
+      <c r="B650" s="21"/>
       <c r="C650" s="7"/>
       <c r="D650" s="7"/>
       <c r="E650" s="7"/>
@@ -22203,7 +22260,7 @@
     </row>
     <row r="651" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A651" s="7"/>
-      <c r="B651" s="23"/>
+      <c r="B651" s="21"/>
       <c r="C651" s="7"/>
       <c r="D651" s="7"/>
       <c r="E651" s="7"/>
@@ -22236,7 +22293,7 @@
     </row>
     <row r="652" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A652" s="7"/>
-      <c r="B652" s="23"/>
+      <c r="B652" s="21"/>
       <c r="C652" s="7"/>
       <c r="D652" s="7"/>
       <c r="E652" s="7"/>
@@ -22269,7 +22326,7 @@
     </row>
     <row r="653" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A653" s="7"/>
-      <c r="B653" s="23"/>
+      <c r="B653" s="21"/>
       <c r="C653" s="7"/>
       <c r="D653" s="7"/>
       <c r="E653" s="7"/>
@@ -22302,7 +22359,7 @@
     </row>
     <row r="654" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A654" s="7"/>
-      <c r="B654" s="23"/>
+      <c r="B654" s="21"/>
       <c r="C654" s="7"/>
       <c r="D654" s="7"/>
       <c r="E654" s="7"/>
@@ -22335,7 +22392,7 @@
     </row>
     <row r="655" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A655" s="7"/>
-      <c r="B655" s="23"/>
+      <c r="B655" s="21"/>
       <c r="C655" s="7"/>
       <c r="D655" s="7"/>
       <c r="E655" s="7"/>
@@ -22368,7 +22425,7 @@
     </row>
     <row r="656" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A656" s="7"/>
-      <c r="B656" s="23"/>
+      <c r="B656" s="21"/>
       <c r="C656" s="7"/>
       <c r="D656" s="7"/>
       <c r="E656" s="7"/>
@@ -22401,7 +22458,7 @@
     </row>
     <row r="657" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A657" s="7"/>
-      <c r="B657" s="23"/>
+      <c r="B657" s="21"/>
       <c r="C657" s="7"/>
       <c r="D657" s="7"/>
       <c r="E657" s="7"/>
@@ -22434,7 +22491,7 @@
     </row>
     <row r="658" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A658" s="7"/>
-      <c r="B658" s="23"/>
+      <c r="B658" s="21"/>
       <c r="C658" s="7"/>
       <c r="D658" s="7"/>
       <c r="E658" s="7"/>
@@ -22467,7 +22524,7 @@
     </row>
     <row r="659" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A659" s="7"/>
-      <c r="B659" s="23"/>
+      <c r="B659" s="21"/>
       <c r="C659" s="7"/>
       <c r="D659" s="7"/>
       <c r="E659" s="7"/>
@@ -22500,7 +22557,7 @@
     </row>
     <row r="660" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A660" s="7"/>
-      <c r="B660" s="23"/>
+      <c r="B660" s="21"/>
       <c r="C660" s="7"/>
       <c r="D660" s="7"/>
       <c r="E660" s="7"/>
@@ -22533,7 +22590,7 @@
     </row>
     <row r="661" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A661" s="7"/>
-      <c r="B661" s="23"/>
+      <c r="B661" s="21"/>
       <c r="C661" s="7"/>
       <c r="D661" s="7"/>
       <c r="E661" s="7"/>
@@ -22566,7 +22623,7 @@
     </row>
     <row r="662" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A662" s="7"/>
-      <c r="B662" s="23"/>
+      <c r="B662" s="21"/>
       <c r="C662" s="7"/>
       <c r="D662" s="7"/>
       <c r="E662" s="7"/>
@@ -22599,7 +22656,7 @@
     </row>
     <row r="663" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A663" s="7"/>
-      <c r="B663" s="23"/>
+      <c r="B663" s="21"/>
       <c r="C663" s="7"/>
       <c r="D663" s="7"/>
       <c r="E663" s="7"/>
@@ -22632,7 +22689,7 @@
     </row>
     <row r="664" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A664" s="7"/>
-      <c r="B664" s="23"/>
+      <c r="B664" s="21"/>
       <c r="C664" s="7"/>
       <c r="D664" s="7"/>
       <c r="E664" s="7"/>
@@ -22665,7 +22722,7 @@
     </row>
     <row r="665" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A665" s="7"/>
-      <c r="B665" s="23"/>
+      <c r="B665" s="21"/>
       <c r="C665" s="7"/>
       <c r="D665" s="7"/>
       <c r="E665" s="7"/>
@@ -22698,7 +22755,7 @@
     </row>
     <row r="666" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A666" s="7"/>
-      <c r="B666" s="23"/>
+      <c r="B666" s="21"/>
       <c r="C666" s="7"/>
       <c r="D666" s="7"/>
       <c r="E666" s="7"/>
@@ -22731,7 +22788,7 @@
     </row>
     <row r="667" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A667" s="7"/>
-      <c r="B667" s="23"/>
+      <c r="B667" s="21"/>
       <c r="C667" s="7"/>
       <c r="D667" s="7"/>
       <c r="E667" s="7"/>
@@ -22764,7 +22821,7 @@
     </row>
     <row r="668" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A668" s="7"/>
-      <c r="B668" s="23"/>
+      <c r="B668" s="21"/>
       <c r="C668" s="7"/>
       <c r="D668" s="7"/>
       <c r="E668" s="7"/>
@@ -22797,7 +22854,7 @@
     </row>
     <row r="669" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A669" s="7"/>
-      <c r="B669" s="23"/>
+      <c r="B669" s="21"/>
       <c r="C669" s="7"/>
       <c r="D669" s="7"/>
       <c r="E669" s="7"/>
@@ -22830,7 +22887,7 @@
     </row>
     <row r="670" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A670" s="7"/>
-      <c r="B670" s="23"/>
+      <c r="B670" s="21"/>
       <c r="C670" s="7"/>
       <c r="D670" s="7"/>
       <c r="E670" s="7"/>
@@ -22863,7 +22920,7 @@
     </row>
     <row r="671" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A671" s="7"/>
-      <c r="B671" s="23"/>
+      <c r="B671" s="21"/>
       <c r="C671" s="7"/>
       <c r="D671" s="7"/>
       <c r="E671" s="7"/>
@@ -22896,7 +22953,7 @@
     </row>
     <row r="672" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A672" s="7"/>
-      <c r="B672" s="23"/>
+      <c r="B672" s="21"/>
       <c r="C672" s="7"/>
       <c r="D672" s="7"/>
       <c r="E672" s="7"/>
@@ -22929,7 +22986,7 @@
     </row>
     <row r="673" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A673" s="7"/>
-      <c r="B673" s="23"/>
+      <c r="B673" s="21"/>
       <c r="C673" s="7"/>
       <c r="D673" s="7"/>
       <c r="E673" s="7"/>
@@ -22962,7 +23019,7 @@
     </row>
     <row r="674" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A674" s="7"/>
-      <c r="B674" s="23"/>
+      <c r="B674" s="21"/>
       <c r="C674" s="7"/>
       <c r="D674" s="7"/>
       <c r="E674" s="7"/>
@@ -22995,7 +23052,7 @@
     </row>
     <row r="675" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A675" s="7"/>
-      <c r="B675" s="23"/>
+      <c r="B675" s="21"/>
       <c r="C675" s="7"/>
       <c r="D675" s="7"/>
       <c r="E675" s="7"/>
@@ -23028,7 +23085,7 @@
     </row>
     <row r="676" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A676" s="7"/>
-      <c r="B676" s="23"/>
+      <c r="B676" s="21"/>
       <c r="C676" s="7"/>
       <c r="D676" s="7"/>
       <c r="E676" s="7"/>
@@ -23061,7 +23118,7 @@
     </row>
     <row r="677" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A677" s="7"/>
-      <c r="B677" s="23"/>
+      <c r="B677" s="21"/>
       <c r="C677" s="7"/>
       <c r="D677" s="7"/>
       <c r="E677" s="7"/>
@@ -23094,7 +23151,7 @@
     </row>
     <row r="678" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A678" s="7"/>
-      <c r="B678" s="23"/>
+      <c r="B678" s="21"/>
       <c r="C678" s="7"/>
       <c r="D678" s="7"/>
       <c r="E678" s="7"/>
@@ -23127,7 +23184,7 @@
     </row>
     <row r="679" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A679" s="7"/>
-      <c r="B679" s="23"/>
+      <c r="B679" s="21"/>
       <c r="C679" s="7"/>
       <c r="D679" s="7"/>
       <c r="E679" s="7"/>
@@ -23160,7 +23217,7 @@
     </row>
     <row r="680" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A680" s="7"/>
-      <c r="B680" s="23"/>
+      <c r="B680" s="21"/>
       <c r="C680" s="7"/>
       <c r="D680" s="7"/>
       <c r="E680" s="7"/>
@@ -23193,7 +23250,7 @@
     </row>
     <row r="681" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A681" s="7"/>
-      <c r="B681" s="23"/>
+      <c r="B681" s="21"/>
       <c r="C681" s="7"/>
       <c r="D681" s="7"/>
       <c r="E681" s="7"/>
@@ -23226,7 +23283,7 @@
     </row>
     <row r="682" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A682" s="7"/>
-      <c r="B682" s="23"/>
+      <c r="B682" s="21"/>
       <c r="C682" s="7"/>
       <c r="D682" s="7"/>
       <c r="E682" s="7"/>
@@ -23259,7 +23316,7 @@
     </row>
     <row r="683" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A683" s="7"/>
-      <c r="B683" s="23"/>
+      <c r="B683" s="21"/>
       <c r="C683" s="7"/>
       <c r="D683" s="7"/>
       <c r="E683" s="7"/>
@@ -23292,7 +23349,7 @@
     </row>
     <row r="684" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A684" s="7"/>
-      <c r="B684" s="23"/>
+      <c r="B684" s="21"/>
       <c r="C684" s="7"/>
       <c r="D684" s="7"/>
       <c r="E684" s="7"/>
@@ -23325,7 +23382,7 @@
     </row>
     <row r="685" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A685" s="7"/>
-      <c r="B685" s="23"/>
+      <c r="B685" s="21"/>
       <c r="C685" s="7"/>
       <c r="D685" s="7"/>
       <c r="E685" s="7"/>
@@ -23358,7 +23415,7 @@
     </row>
     <row r="686" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A686" s="7"/>
-      <c r="B686" s="23"/>
+      <c r="B686" s="21"/>
       <c r="C686" s="7"/>
       <c r="D686" s="7"/>
       <c r="E686" s="7"/>
@@ -23391,7 +23448,7 @@
     </row>
     <row r="687" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A687" s="7"/>
-      <c r="B687" s="23"/>
+      <c r="B687" s="21"/>
       <c r="C687" s="7"/>
       <c r="D687" s="7"/>
       <c r="E687" s="7"/>
@@ -23424,7 +23481,7 @@
     </row>
     <row r="688" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A688" s="7"/>
-      <c r="B688" s="23"/>
+      <c r="B688" s="21"/>
       <c r="C688" s="7"/>
       <c r="D688" s="7"/>
       <c r="E688" s="7"/>
@@ -23457,7 +23514,7 @@
     </row>
     <row r="689" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A689" s="7"/>
-      <c r="B689" s="23"/>
+      <c r="B689" s="21"/>
       <c r="C689" s="7"/>
       <c r="D689" s="7"/>
       <c r="E689" s="7"/>
@@ -23490,7 +23547,7 @@
     </row>
     <row r="690" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A690" s="7"/>
-      <c r="B690" s="23"/>
+      <c r="B690" s="21"/>
       <c r="C690" s="7"/>
       <c r="D690" s="7"/>
       <c r="E690" s="7"/>
@@ -23523,7 +23580,7 @@
     </row>
     <row r="691" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A691" s="7"/>
-      <c r="B691" s="23"/>
+      <c r="B691" s="21"/>
       <c r="C691" s="7"/>
       <c r="D691" s="7"/>
       <c r="E691" s="7"/>
@@ -23556,7 +23613,7 @@
     </row>
     <row r="692" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A692" s="7"/>
-      <c r="B692" s="23"/>
+      <c r="B692" s="21"/>
       <c r="C692" s="7"/>
       <c r="D692" s="7"/>
       <c r="E692" s="7"/>
@@ -23589,7 +23646,7 @@
     </row>
     <row r="693" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A693" s="7"/>
-      <c r="B693" s="23"/>
+      <c r="B693" s="21"/>
       <c r="C693" s="7"/>
       <c r="D693" s="7"/>
       <c r="E693" s="7"/>
@@ -23622,7 +23679,7 @@
     </row>
     <row r="694" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A694" s="7"/>
-      <c r="B694" s="23"/>
+      <c r="B694" s="21"/>
       <c r="C694" s="7"/>
       <c r="D694" s="7"/>
       <c r="E694" s="7"/>
@@ -23655,7 +23712,7 @@
     </row>
     <row r="695" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A695" s="7"/>
-      <c r="B695" s="23"/>
+      <c r="B695" s="21"/>
       <c r="C695" s="7"/>
       <c r="D695" s="7"/>
       <c r="E695" s="7"/>
@@ -23688,7 +23745,7 @@
     </row>
     <row r="696" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A696" s="7"/>
-      <c r="B696" s="23"/>
+      <c r="B696" s="21"/>
       <c r="C696" s="7"/>
       <c r="D696" s="7"/>
       <c r="E696" s="7"/>
@@ -23721,7 +23778,7 @@
     </row>
     <row r="697" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A697" s="7"/>
-      <c r="B697" s="23"/>
+      <c r="B697" s="21"/>
       <c r="C697" s="7"/>
       <c r="D697" s="7"/>
       <c r="E697" s="7"/>
@@ -23754,7 +23811,7 @@
     </row>
     <row r="698" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A698" s="7"/>
-      <c r="B698" s="23"/>
+      <c r="B698" s="21"/>
       <c r="C698" s="7"/>
       <c r="D698" s="7"/>
       <c r="E698" s="7"/>
@@ -23787,7 +23844,7 @@
     </row>
     <row r="699" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A699" s="7"/>
-      <c r="B699" s="23"/>
+      <c r="B699" s="21"/>
       <c r="C699" s="7"/>
       <c r="D699" s="7"/>
       <c r="E699" s="7"/>
@@ -23820,7 +23877,7 @@
     </row>
     <row r="700" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A700" s="7"/>
-      <c r="B700" s="23"/>
+      <c r="B700" s="21"/>
       <c r="C700" s="7"/>
       <c r="D700" s="7"/>
       <c r="E700" s="7"/>
@@ -23853,7 +23910,7 @@
     </row>
     <row r="701" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A701" s="7"/>
-      <c r="B701" s="23"/>
+      <c r="B701" s="21"/>
       <c r="C701" s="7"/>
       <c r="D701" s="7"/>
       <c r="E701" s="7"/>
@@ -23886,7 +23943,7 @@
     </row>
     <row r="702" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A702" s="7"/>
-      <c r="B702" s="23"/>
+      <c r="B702" s="21"/>
       <c r="C702" s="7"/>
       <c r="D702" s="7"/>
       <c r="E702" s="7"/>
@@ -23919,7 +23976,7 @@
     </row>
     <row r="703" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A703" s="7"/>
-      <c r="B703" s="23"/>
+      <c r="B703" s="21"/>
       <c r="C703" s="7"/>
       <c r="D703" s="7"/>
       <c r="E703" s="7"/>
@@ -23952,7 +24009,7 @@
     </row>
     <row r="704" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A704" s="7"/>
-      <c r="B704" s="23"/>
+      <c r="B704" s="21"/>
       <c r="C704" s="7"/>
       <c r="D704" s="7"/>
       <c r="E704" s="7"/>
@@ -23985,7 +24042,7 @@
     </row>
     <row r="705" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A705" s="7"/>
-      <c r="B705" s="23"/>
+      <c r="B705" s="21"/>
       <c r="C705" s="7"/>
       <c r="D705" s="7"/>
       <c r="E705" s="7"/>
@@ -24018,7 +24075,7 @@
     </row>
     <row r="706" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A706" s="7"/>
-      <c r="B706" s="23"/>
+      <c r="B706" s="21"/>
       <c r="C706" s="7"/>
       <c r="D706" s="7"/>
       <c r="E706" s="7"/>
@@ -24051,7 +24108,7 @@
     </row>
     <row r="707" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A707" s="7"/>
-      <c r="B707" s="23"/>
+      <c r="B707" s="21"/>
       <c r="C707" s="7"/>
       <c r="D707" s="7"/>
       <c r="E707" s="7"/>
@@ -24084,7 +24141,7 @@
     </row>
     <row r="708" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A708" s="7"/>
-      <c r="B708" s="23"/>
+      <c r="B708" s="21"/>
       <c r="C708" s="7"/>
       <c r="D708" s="7"/>
       <c r="E708" s="7"/>
@@ -24117,7 +24174,7 @@
     </row>
     <row r="709" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A709" s="7"/>
-      <c r="B709" s="23"/>
+      <c r="B709" s="21"/>
       <c r="C709" s="7"/>
       <c r="D709" s="7"/>
       <c r="E709" s="7"/>
@@ -24150,7 +24207,7 @@
     </row>
     <row r="710" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A710" s="7"/>
-      <c r="B710" s="23"/>
+      <c r="B710" s="21"/>
       <c r="C710" s="7"/>
       <c r="D710" s="7"/>
       <c r="E710" s="7"/>
@@ -24183,7 +24240,7 @@
     </row>
     <row r="711" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A711" s="7"/>
-      <c r="B711" s="23"/>
+      <c r="B711" s="21"/>
       <c r="C711" s="7"/>
       <c r="D711" s="7"/>
       <c r="E711" s="7"/>
@@ -24216,7 +24273,7 @@
     </row>
     <row r="712" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A712" s="7"/>
-      <c r="B712" s="23"/>
+      <c r="B712" s="21"/>
       <c r="C712" s="7"/>
       <c r="D712" s="7"/>
       <c r="E712" s="7"/>
@@ -24249,7 +24306,7 @@
     </row>
     <row r="713" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A713" s="7"/>
-      <c r="B713" s="23"/>
+      <c r="B713" s="21"/>
       <c r="C713" s="7"/>
       <c r="D713" s="7"/>
       <c r="E713" s="7"/>
@@ -24282,7 +24339,7 @@
     </row>
     <row r="714" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A714" s="7"/>
-      <c r="B714" s="23"/>
+      <c r="B714" s="21"/>
       <c r="C714" s="7"/>
       <c r="D714" s="7"/>
       <c r="E714" s="7"/>
@@ -24315,7 +24372,7 @@
     </row>
     <row r="715" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A715" s="7"/>
-      <c r="B715" s="23"/>
+      <c r="B715" s="21"/>
       <c r="C715" s="7"/>
       <c r="D715" s="7"/>
       <c r="E715" s="7"/>
@@ -24348,7 +24405,7 @@
     </row>
     <row r="716" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A716" s="7"/>
-      <c r="B716" s="23"/>
+      <c r="B716" s="21"/>
       <c r="C716" s="7"/>
       <c r="D716" s="7"/>
       <c r="E716" s="7"/>
@@ -24381,7 +24438,7 @@
     </row>
     <row r="717" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A717" s="7"/>
-      <c r="B717" s="23"/>
+      <c r="B717" s="21"/>
       <c r="C717" s="7"/>
       <c r="D717" s="7"/>
       <c r="E717" s="7"/>
@@ -24414,7 +24471,7 @@
     </row>
     <row r="718" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A718" s="7"/>
-      <c r="B718" s="23"/>
+      <c r="B718" s="21"/>
       <c r="C718" s="7"/>
       <c r="D718" s="7"/>
       <c r="E718" s="7"/>
@@ -24447,7 +24504,7 @@
     </row>
     <row r="719" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A719" s="7"/>
-      <c r="B719" s="23"/>
+      <c r="B719" s="21"/>
       <c r="C719" s="7"/>
       <c r="D719" s="7"/>
       <c r="E719" s="7"/>
@@ -24480,7 +24537,7 @@
     </row>
     <row r="720" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A720" s="7"/>
-      <c r="B720" s="23"/>
+      <c r="B720" s="21"/>
       <c r="C720" s="7"/>
       <c r="D720" s="7"/>
       <c r="E720" s="7"/>
@@ -24513,7 +24570,7 @@
     </row>
     <row r="721" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A721" s="7"/>
-      <c r="B721" s="23"/>
+      <c r="B721" s="21"/>
       <c r="C721" s="7"/>
       <c r="D721" s="7"/>
       <c r="E721" s="7"/>
@@ -24546,7 +24603,7 @@
     </row>
     <row r="722" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A722" s="7"/>
-      <c r="B722" s="23"/>
+      <c r="B722" s="21"/>
       <c r="C722" s="7"/>
       <c r="D722" s="7"/>
       <c r="E722" s="7"/>
@@ -24579,7 +24636,7 @@
     </row>
     <row r="723" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A723" s="7"/>
-      <c r="B723" s="23"/>
+      <c r="B723" s="21"/>
       <c r="C723" s="7"/>
       <c r="D723" s="7"/>
       <c r="E723" s="7"/>
@@ -24612,7 +24669,7 @@
     </row>
     <row r="724" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A724" s="7"/>
-      <c r="B724" s="23"/>
+      <c r="B724" s="21"/>
       <c r="C724" s="7"/>
       <c r="D724" s="7"/>
       <c r="E724" s="7"/>
@@ -24645,7 +24702,7 @@
     </row>
     <row r="725" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A725" s="7"/>
-      <c r="B725" s="23"/>
+      <c r="B725" s="21"/>
       <c r="C725" s="7"/>
       <c r="D725" s="7"/>
       <c r="E725" s="7"/>
@@ -24678,7 +24735,7 @@
     </row>
     <row r="726" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A726" s="7"/>
-      <c r="B726" s="23"/>
+      <c r="B726" s="21"/>
       <c r="C726" s="7"/>
       <c r="D726" s="7"/>
       <c r="E726" s="7"/>
@@ -24711,7 +24768,7 @@
     </row>
     <row r="727" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A727" s="7"/>
-      <c r="B727" s="23"/>
+      <c r="B727" s="21"/>
       <c r="C727" s="7"/>
       <c r="D727" s="7"/>
       <c r="E727" s="7"/>
@@ -24744,7 +24801,7 @@
     </row>
     <row r="728" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A728" s="7"/>
-      <c r="B728" s="23"/>
+      <c r="B728" s="21"/>
       <c r="C728" s="7"/>
       <c r="D728" s="7"/>
       <c r="E728" s="7"/>
@@ -24777,7 +24834,7 @@
     </row>
     <row r="729" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A729" s="7"/>
-      <c r="B729" s="23"/>
+      <c r="B729" s="21"/>
       <c r="C729" s="7"/>
       <c r="D729" s="7"/>
       <c r="E729" s="7"/>
@@ -24810,7 +24867,7 @@
     </row>
     <row r="730" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A730" s="7"/>
-      <c r="B730" s="23"/>
+      <c r="B730" s="21"/>
       <c r="C730" s="7"/>
       <c r="D730" s="7"/>
       <c r="E730" s="7"/>
@@ -24843,7 +24900,7 @@
     </row>
     <row r="731" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A731" s="7"/>
-      <c r="B731" s="23"/>
+      <c r="B731" s="21"/>
       <c r="C731" s="7"/>
       <c r="D731" s="7"/>
       <c r="E731" s="7"/>
@@ -24876,7 +24933,7 @@
     </row>
     <row r="732" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A732" s="7"/>
-      <c r="B732" s="23"/>
+      <c r="B732" s="21"/>
       <c r="C732" s="7"/>
       <c r="D732" s="7"/>
       <c r="E732" s="7"/>
@@ -24909,7 +24966,7 @@
     </row>
     <row r="733" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A733" s="7"/>
-      <c r="B733" s="23"/>
+      <c r="B733" s="21"/>
       <c r="C733" s="7"/>
       <c r="D733" s="7"/>
       <c r="E733" s="7"/>
@@ -24942,7 +24999,7 @@
     </row>
     <row r="734" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A734" s="7"/>
-      <c r="B734" s="23"/>
+      <c r="B734" s="21"/>
       <c r="C734" s="7"/>
       <c r="D734" s="7"/>
       <c r="E734" s="7"/>
@@ -24975,7 +25032,7 @@
     </row>
     <row r="735" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A735" s="7"/>
-      <c r="B735" s="23"/>
+      <c r="B735" s="21"/>
       <c r="C735" s="7"/>
       <c r="D735" s="7"/>
       <c r="E735" s="7"/>
@@ -25008,7 +25065,7 @@
     </row>
     <row r="736" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A736" s="7"/>
-      <c r="B736" s="23"/>
+      <c r="B736" s="21"/>
       <c r="C736" s="7"/>
       <c r="D736" s="7"/>
       <c r="E736" s="7"/>
@@ -25041,7 +25098,7 @@
     </row>
     <row r="737" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A737" s="7"/>
-      <c r="B737" s="23"/>
+      <c r="B737" s="21"/>
       <c r="C737" s="7"/>
       <c r="D737" s="7"/>
       <c r="E737" s="7"/>
@@ -25074,7 +25131,7 @@
     </row>
     <row r="738" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A738" s="7"/>
-      <c r="B738" s="23"/>
+      <c r="B738" s="21"/>
       <c r="C738" s="7"/>
       <c r="D738" s="7"/>
       <c r="E738" s="7"/>
@@ -25107,7 +25164,7 @@
     </row>
     <row r="739" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A739" s="7"/>
-      <c r="B739" s="23"/>
+      <c r="B739" s="21"/>
       <c r="C739" s="7"/>
       <c r="D739" s="7"/>
       <c r="E739" s="7"/>
@@ -25140,7 +25197,7 @@
     </row>
     <row r="740" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A740" s="7"/>
-      <c r="B740" s="23"/>
+      <c r="B740" s="21"/>
       <c r="C740" s="7"/>
       <c r="D740" s="7"/>
       <c r="E740" s="7"/>
@@ -25173,7 +25230,7 @@
     </row>
     <row r="741" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A741" s="7"/>
-      <c r="B741" s="23"/>
+      <c r="B741" s="21"/>
       <c r="C741" s="7"/>
       <c r="D741" s="7"/>
       <c r="E741" s="7"/>
@@ -25206,7 +25263,7 @@
     </row>
     <row r="742" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A742" s="7"/>
-      <c r="B742" s="23"/>
+      <c r="B742" s="21"/>
       <c r="C742" s="7"/>
       <c r="D742" s="7"/>
       <c r="E742" s="7"/>
@@ -25239,7 +25296,7 @@
     </row>
     <row r="743" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A743" s="7"/>
-      <c r="B743" s="23"/>
+      <c r="B743" s="21"/>
       <c r="C743" s="7"/>
       <c r="D743" s="7"/>
       <c r="E743" s="7"/>
@@ -25272,7 +25329,7 @@
     </row>
     <row r="744" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A744" s="7"/>
-      <c r="B744" s="23"/>
+      <c r="B744" s="21"/>
       <c r="C744" s="7"/>
       <c r="D744" s="7"/>
       <c r="E744" s="7"/>
@@ -25305,7 +25362,7 @@
     </row>
     <row r="745" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A745" s="7"/>
-      <c r="B745" s="23"/>
+      <c r="B745" s="21"/>
       <c r="C745" s="7"/>
       <c r="D745" s="7"/>
       <c r="E745" s="7"/>
@@ -25338,7 +25395,7 @@
     </row>
     <row r="746" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A746" s="7"/>
-      <c r="B746" s="23"/>
+      <c r="B746" s="21"/>
       <c r="C746" s="7"/>
       <c r="D746" s="7"/>
       <c r="E746" s="7"/>
@@ -25371,7 +25428,7 @@
     </row>
     <row r="747" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A747" s="7"/>
-      <c r="B747" s="23"/>
+      <c r="B747" s="21"/>
       <c r="C747" s="7"/>
       <c r="D747" s="7"/>
       <c r="E747" s="7"/>
@@ -25404,7 +25461,7 @@
     </row>
     <row r="748" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A748" s="7"/>
-      <c r="B748" s="23"/>
+      <c r="B748" s="21"/>
       <c r="C748" s="7"/>
       <c r="D748" s="7"/>
       <c r="E748" s="7"/>
@@ -25437,7 +25494,7 @@
     </row>
     <row r="749" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A749" s="7"/>
-      <c r="B749" s="23"/>
+      <c r="B749" s="21"/>
       <c r="C749" s="7"/>
       <c r="D749" s="7"/>
       <c r="E749" s="7"/>
@@ -25470,7 +25527,7 @@
     </row>
     <row r="750" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A750" s="7"/>
-      <c r="B750" s="23"/>
+      <c r="B750" s="21"/>
       <c r="C750" s="7"/>
       <c r="D750" s="7"/>
       <c r="E750" s="7"/>
@@ -25503,7 +25560,7 @@
     </row>
     <row r="751" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A751" s="7"/>
-      <c r="B751" s="23"/>
+      <c r="B751" s="21"/>
       <c r="C751" s="7"/>
       <c r="D751" s="7"/>
       <c r="E751" s="7"/>
@@ -25536,7 +25593,7 @@
     </row>
     <row r="752" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A752" s="7"/>
-      <c r="B752" s="23"/>
+      <c r="B752" s="21"/>
       <c r="C752" s="7"/>
       <c r="D752" s="7"/>
       <c r="E752" s="7"/>
@@ -25569,7 +25626,7 @@
     </row>
     <row r="753" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A753" s="7"/>
-      <c r="B753" s="23"/>
+      <c r="B753" s="21"/>
       <c r="C753" s="7"/>
       <c r="D753" s="7"/>
       <c r="E753" s="7"/>
@@ -25602,7 +25659,7 @@
     </row>
     <row r="754" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A754" s="7"/>
-      <c r="B754" s="23"/>
+      <c r="B754" s="21"/>
       <c r="C754" s="7"/>
       <c r="D754" s="7"/>
       <c r="E754" s="7"/>
@@ -25635,7 +25692,7 @@
     </row>
     <row r="755" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A755" s="7"/>
-      <c r="B755" s="23"/>
+      <c r="B755" s="21"/>
       <c r="C755" s="7"/>
       <c r="D755" s="7"/>
       <c r="E755" s="7"/>
@@ -25668,7 +25725,7 @@
     </row>
     <row r="756" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A756" s="7"/>
-      <c r="B756" s="23"/>
+      <c r="B756" s="21"/>
       <c r="C756" s="7"/>
       <c r="D756" s="7"/>
       <c r="E756" s="7"/>
@@ -25701,7 +25758,7 @@
     </row>
     <row r="757" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A757" s="7"/>
-      <c r="B757" s="23"/>
+      <c r="B757" s="21"/>
       <c r="C757" s="7"/>
       <c r="D757" s="7"/>
       <c r="E757" s="7"/>
@@ -25734,7 +25791,7 @@
     </row>
     <row r="758" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A758" s="7"/>
-      <c r="B758" s="23"/>
+      <c r="B758" s="21"/>
       <c r="C758" s="7"/>
       <c r="D758" s="7"/>
       <c r="E758" s="7"/>
@@ -25767,7 +25824,7 @@
     </row>
     <row r="759" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A759" s="7"/>
-      <c r="B759" s="23"/>
+      <c r="B759" s="21"/>
       <c r="C759" s="7"/>
       <c r="D759" s="7"/>
       <c r="E759" s="7"/>
@@ -25800,7 +25857,7 @@
     </row>
     <row r="760" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A760" s="7"/>
-      <c r="B760" s="23"/>
+      <c r="B760" s="21"/>
       <c r="C760" s="7"/>
       <c r="D760" s="7"/>
       <c r="E760" s="7"/>
@@ -25833,7 +25890,7 @@
     </row>
     <row r="761" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A761" s="7"/>
-      <c r="B761" s="23"/>
+      <c r="B761" s="21"/>
       <c r="C761" s="7"/>
       <c r="D761" s="7"/>
       <c r="E761" s="7"/>
@@ -25866,7 +25923,7 @@
     </row>
     <row r="762" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A762" s="7"/>
-      <c r="B762" s="23"/>
+      <c r="B762" s="21"/>
       <c r="C762" s="7"/>
       <c r="D762" s="7"/>
       <c r="E762" s="7"/>
@@ -25899,7 +25956,7 @@
     </row>
     <row r="763" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A763" s="7"/>
-      <c r="B763" s="23"/>
+      <c r="B763" s="21"/>
       <c r="C763" s="7"/>
       <c r="D763" s="7"/>
       <c r="E763" s="7"/>
@@ -25932,7 +25989,7 @@
     </row>
     <row r="764" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A764" s="7"/>
-      <c r="B764" s="23"/>
+      <c r="B764" s="21"/>
       <c r="C764" s="7"/>
       <c r="D764" s="7"/>
       <c r="E764" s="7"/>
@@ -25965,7 +26022,7 @@
     </row>
     <row r="765" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A765" s="7"/>
-      <c r="B765" s="23"/>
+      <c r="B765" s="21"/>
       <c r="C765" s="7"/>
       <c r="D765" s="7"/>
       <c r="E765" s="7"/>
@@ -25998,7 +26055,7 @@
     </row>
     <row r="766" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A766" s="7"/>
-      <c r="B766" s="23"/>
+      <c r="B766" s="21"/>
       <c r="C766" s="7"/>
       <c r="D766" s="7"/>
       <c r="E766" s="7"/>
@@ -26031,7 +26088,7 @@
     </row>
     <row r="767" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A767" s="7"/>
-      <c r="B767" s="23"/>
+      <c r="B767" s="21"/>
       <c r="C767" s="7"/>
       <c r="D767" s="7"/>
       <c r="E767" s="7"/>
@@ -26064,7 +26121,7 @@
     </row>
     <row r="768" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A768" s="7"/>
-      <c r="B768" s="23"/>
+      <c r="B768" s="21"/>
       <c r="C768" s="7"/>
       <c r="D768" s="7"/>
       <c r="E768" s="7"/>
@@ -26097,7 +26154,7 @@
     </row>
     <row r="769" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A769" s="7"/>
-      <c r="B769" s="23"/>
+      <c r="B769" s="21"/>
       <c r="C769" s="7"/>
       <c r="D769" s="7"/>
       <c r="E769" s="7"/>
@@ -26130,7 +26187,7 @@
     </row>
     <row r="770" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A770" s="7"/>
-      <c r="B770" s="23"/>
+      <c r="B770" s="21"/>
       <c r="C770" s="7"/>
       <c r="D770" s="7"/>
       <c r="E770" s="7"/>
@@ -26163,7 +26220,7 @@
     </row>
     <row r="771" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A771" s="7"/>
-      <c r="B771" s="23"/>
+      <c r="B771" s="21"/>
       <c r="C771" s="7"/>
       <c r="D771" s="7"/>
       <c r="E771" s="7"/>
@@ -26196,7 +26253,7 @@
     </row>
     <row r="772" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A772" s="7"/>
-      <c r="B772" s="23"/>
+      <c r="B772" s="21"/>
       <c r="C772" s="7"/>
       <c r="D772" s="7"/>
       <c r="E772" s="7"/>
@@ -26229,7 +26286,7 @@
     </row>
     <row r="773" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A773" s="7"/>
-      <c r="B773" s="23"/>
+      <c r="B773" s="21"/>
       <c r="C773" s="7"/>
       <c r="D773" s="7"/>
       <c r="E773" s="7"/>
@@ -26262,7 +26319,7 @@
     </row>
     <row r="774" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A774" s="7"/>
-      <c r="B774" s="23"/>
+      <c r="B774" s="21"/>
       <c r="C774" s="7"/>
       <c r="D774" s="7"/>
       <c r="E774" s="7"/>
@@ -26295,7 +26352,7 @@
     </row>
     <row r="775" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A775" s="7"/>
-      <c r="B775" s="23"/>
+      <c r="B775" s="21"/>
       <c r="C775" s="7"/>
       <c r="D775" s="7"/>
       <c r="E775" s="7"/>
@@ -26328,7 +26385,7 @@
     </row>
     <row r="776" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A776" s="7"/>
-      <c r="B776" s="23"/>
+      <c r="B776" s="21"/>
       <c r="C776" s="7"/>
       <c r="D776" s="7"/>
       <c r="E776" s="7"/>
@@ -26361,7 +26418,7 @@
     </row>
     <row r="777" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A777" s="7"/>
-      <c r="B777" s="23"/>
+      <c r="B777" s="21"/>
       <c r="C777" s="7"/>
       <c r="D777" s="7"/>
       <c r="E777" s="7"/>
@@ -26394,7 +26451,7 @@
     </row>
     <row r="778" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A778" s="7"/>
-      <c r="B778" s="23"/>
+      <c r="B778" s="21"/>
       <c r="C778" s="7"/>
       <c r="D778" s="7"/>
       <c r="E778" s="7"/>
@@ -26427,7 +26484,7 @@
     </row>
     <row r="779" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A779" s="7"/>
-      <c r="B779" s="23"/>
+      <c r="B779" s="21"/>
       <c r="C779" s="7"/>
       <c r="D779" s="7"/>
       <c r="E779" s="7"/>
@@ -26460,7 +26517,7 @@
     </row>
     <row r="780" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A780" s="7"/>
-      <c r="B780" s="23"/>
+      <c r="B780" s="21"/>
       <c r="C780" s="7"/>
       <c r="D780" s="7"/>
       <c r="E780" s="7"/>
@@ -26493,7 +26550,7 @@
     </row>
     <row r="781" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A781" s="7"/>
-      <c r="B781" s="23"/>
+      <c r="B781" s="21"/>
       <c r="C781" s="7"/>
       <c r="D781" s="7"/>
       <c r="E781" s="7"/>
@@ -26526,7 +26583,7 @@
     </row>
     <row r="782" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A782" s="7"/>
-      <c r="B782" s="23"/>
+      <c r="B782" s="21"/>
       <c r="C782" s="7"/>
       <c r="D782" s="7"/>
       <c r="E782" s="7"/>
@@ -26559,7 +26616,7 @@
     </row>
     <row r="783" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A783" s="7"/>
-      <c r="B783" s="23"/>
+      <c r="B783" s="21"/>
       <c r="C783" s="7"/>
       <c r="D783" s="7"/>
       <c r="E783" s="7"/>
@@ -26592,7 +26649,7 @@
     </row>
     <row r="784" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A784" s="7"/>
-      <c r="B784" s="23"/>
+      <c r="B784" s="21"/>
       <c r="C784" s="7"/>
       <c r="D784" s="7"/>
       <c r="E784" s="7"/>
@@ -26625,7 +26682,7 @@
     </row>
     <row r="785" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A785" s="7"/>
-      <c r="B785" s="23"/>
+      <c r="B785" s="21"/>
       <c r="C785" s="7"/>
       <c r="D785" s="7"/>
       <c r="E785" s="7"/>
@@ -26658,7 +26715,7 @@
     </row>
     <row r="786" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A786" s="7"/>
-      <c r="B786" s="23"/>
+      <c r="B786" s="21"/>
       <c r="C786" s="7"/>
       <c r="D786" s="7"/>
       <c r="E786" s="7"/>
@@ -26691,7 +26748,7 @@
     </row>
     <row r="787" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A787" s="7"/>
-      <c r="B787" s="23"/>
+      <c r="B787" s="21"/>
       <c r="C787" s="7"/>
       <c r="D787" s="7"/>
       <c r="E787" s="7"/>
@@ -26724,7 +26781,7 @@
     </row>
     <row r="788" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A788" s="7"/>
-      <c r="B788" s="23"/>
+      <c r="B788" s="21"/>
       <c r="C788" s="7"/>
       <c r="D788" s="7"/>
       <c r="E788" s="7"/>
@@ -26757,7 +26814,7 @@
     </row>
     <row r="789" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A789" s="7"/>
-      <c r="B789" s="23"/>
+      <c r="B789" s="21"/>
       <c r="C789" s="7"/>
       <c r="D789" s="7"/>
       <c r="E789" s="7"/>
@@ -26790,7 +26847,7 @@
     </row>
     <row r="790" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A790" s="7"/>
-      <c r="B790" s="23"/>
+      <c r="B790" s="21"/>
       <c r="C790" s="7"/>
       <c r="D790" s="7"/>
       <c r="E790" s="7"/>
@@ -26823,7 +26880,7 @@
     </row>
     <row r="791" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A791" s="7"/>
-      <c r="B791" s="23"/>
+      <c r="B791" s="21"/>
       <c r="C791" s="7"/>
       <c r="D791" s="7"/>
       <c r="E791" s="7"/>
@@ -26856,7 +26913,7 @@
     </row>
     <row r="792" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A792" s="7"/>
-      <c r="B792" s="23"/>
+      <c r="B792" s="21"/>
       <c r="C792" s="7"/>
       <c r="D792" s="7"/>
       <c r="E792" s="7"/>
@@ -26889,7 +26946,7 @@
     </row>
     <row r="793" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A793" s="7"/>
-      <c r="B793" s="23"/>
+      <c r="B793" s="21"/>
       <c r="C793" s="7"/>
       <c r="D793" s="7"/>
       <c r="E793" s="7"/>
@@ -26922,7 +26979,7 @@
     </row>
     <row r="794" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A794" s="7"/>
-      <c r="B794" s="23"/>
+      <c r="B794" s="21"/>
       <c r="C794" s="7"/>
       <c r="D794" s="7"/>
       <c r="E794" s="7"/>
@@ -26955,7 +27012,7 @@
     </row>
     <row r="795" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A795" s="7"/>
-      <c r="B795" s="23"/>
+      <c r="B795" s="21"/>
       <c r="C795" s="7"/>
       <c r="D795" s="7"/>
       <c r="E795" s="7"/>
@@ -26988,7 +27045,7 @@
     </row>
     <row r="796" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A796" s="7"/>
-      <c r="B796" s="23"/>
+      <c r="B796" s="21"/>
       <c r="C796" s="7"/>
       <c r="D796" s="7"/>
       <c r="E796" s="7"/>
@@ -27021,7 +27078,7 @@
     </row>
     <row r="797" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A797" s="7"/>
-      <c r="B797" s="23"/>
+      <c r="B797" s="21"/>
       <c r="C797" s="7"/>
       <c r="D797" s="7"/>
       <c r="E797" s="7"/>
@@ -27054,7 +27111,7 @@
     </row>
     <row r="798" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A798" s="7"/>
-      <c r="B798" s="23"/>
+      <c r="B798" s="21"/>
       <c r="C798" s="7"/>
       <c r="D798" s="7"/>
       <c r="E798" s="7"/>
@@ -27087,7 +27144,7 @@
     </row>
     <row r="799" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A799" s="7"/>
-      <c r="B799" s="23"/>
+      <c r="B799" s="21"/>
       <c r="C799" s="7"/>
       <c r="D799" s="7"/>
       <c r="E799" s="7"/>
@@ -27120,7 +27177,7 @@
     </row>
     <row r="800" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A800" s="7"/>
-      <c r="B800" s="23"/>
+      <c r="B800" s="21"/>
       <c r="C800" s="7"/>
       <c r="D800" s="7"/>
       <c r="E800" s="7"/>
@@ -27153,7 +27210,7 @@
     </row>
     <row r="801" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A801" s="7"/>
-      <c r="B801" s="23"/>
+      <c r="B801" s="21"/>
       <c r="C801" s="7"/>
       <c r="D801" s="7"/>
       <c r="E801" s="7"/>
@@ -27186,7 +27243,7 @@
     </row>
     <row r="802" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A802" s="7"/>
-      <c r="B802" s="23"/>
+      <c r="B802" s="21"/>
       <c r="C802" s="7"/>
       <c r="D802" s="7"/>
       <c r="E802" s="7"/>
@@ -27219,7 +27276,7 @@
     </row>
     <row r="803" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A803" s="7"/>
-      <c r="B803" s="23"/>
+      <c r="B803" s="21"/>
       <c r="C803" s="7"/>
       <c r="D803" s="7"/>
       <c r="E803" s="7"/>
@@ -27252,7 +27309,7 @@
     </row>
     <row r="804" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A804" s="7"/>
-      <c r="B804" s="23"/>
+      <c r="B804" s="21"/>
       <c r="C804" s="7"/>
       <c r="D804" s="7"/>
       <c r="E804" s="7"/>
@@ -27285,7 +27342,7 @@
     </row>
     <row r="805" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A805" s="7"/>
-      <c r="B805" s="23"/>
+      <c r="B805" s="21"/>
       <c r="C805" s="7"/>
       <c r="D805" s="7"/>
       <c r="E805" s="7"/>
@@ -27318,7 +27375,7 @@
     </row>
     <row r="806" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A806" s="7"/>
-      <c r="B806" s="23"/>
+      <c r="B806" s="21"/>
       <c r="C806" s="7"/>
       <c r="D806" s="7"/>
       <c r="E806" s="7"/>
@@ -27351,7 +27408,7 @@
     </row>
     <row r="807" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A807" s="7"/>
-      <c r="B807" s="23"/>
+      <c r="B807" s="21"/>
       <c r="C807" s="7"/>
       <c r="D807" s="7"/>
       <c r="E807" s="7"/>
@@ -27384,7 +27441,7 @@
     </row>
     <row r="808" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A808" s="7"/>
-      <c r="B808" s="23"/>
+      <c r="B808" s="21"/>
       <c r="C808" s="7"/>
       <c r="D808" s="7"/>
       <c r="E808" s="7"/>
@@ -27417,7 +27474,7 @@
     </row>
     <row r="809" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A809" s="7"/>
-      <c r="B809" s="23"/>
+      <c r="B809" s="21"/>
       <c r="C809" s="7"/>
       <c r="D809" s="7"/>
       <c r="E809" s="7"/>
@@ -27450,7 +27507,7 @@
     </row>
     <row r="810" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A810" s="7"/>
-      <c r="B810" s="23"/>
+      <c r="B810" s="21"/>
       <c r="C810" s="7"/>
       <c r="D810" s="7"/>
       <c r="E810" s="7"/>
@@ -27483,7 +27540,7 @@
     </row>
     <row r="811" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A811" s="7"/>
-      <c r="B811" s="23"/>
+      <c r="B811" s="21"/>
       <c r="C811" s="7"/>
       <c r="D811" s="7"/>
       <c r="E811" s="7"/>
@@ -27516,7 +27573,7 @@
     </row>
     <row r="812" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A812" s="7"/>
-      <c r="B812" s="23"/>
+      <c r="B812" s="21"/>
       <c r="C812" s="7"/>
       <c r="D812" s="7"/>
       <c r="E812" s="7"/>
@@ -27549,7 +27606,7 @@
     </row>
     <row r="813" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A813" s="7"/>
-      <c r="B813" s="23"/>
+      <c r="B813" s="21"/>
       <c r="C813" s="7"/>
       <c r="D813" s="7"/>
       <c r="E813" s="7"/>
@@ -27582,7 +27639,7 @@
     </row>
     <row r="814" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A814" s="7"/>
-      <c r="B814" s="23"/>
+      <c r="B814" s="21"/>
       <c r="C814" s="7"/>
       <c r="D814" s="7"/>
       <c r="E814" s="7"/>
@@ -27615,7 +27672,7 @@
     </row>
     <row r="815" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A815" s="7"/>
-      <c r="B815" s="23"/>
+      <c r="B815" s="21"/>
       <c r="C815" s="7"/>
       <c r="D815" s="7"/>
       <c r="E815" s="7"/>
@@ -27648,7 +27705,7 @@
     </row>
     <row r="816" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A816" s="7"/>
-      <c r="B816" s="23"/>
+      <c r="B816" s="21"/>
       <c r="C816" s="7"/>
       <c r="D816" s="7"/>
       <c r="E816" s="7"/>
@@ -27681,7 +27738,7 @@
     </row>
     <row r="817" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A817" s="7"/>
-      <c r="B817" s="23"/>
+      <c r="B817" s="21"/>
       <c r="C817" s="7"/>
       <c r="D817" s="7"/>
       <c r="E817" s="7"/>
@@ -27714,7 +27771,7 @@
     </row>
     <row r="818" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A818" s="7"/>
-      <c r="B818" s="23"/>
+      <c r="B818" s="21"/>
       <c r="C818" s="7"/>
       <c r="D818" s="7"/>
       <c r="E818" s="7"/>
@@ -27747,7 +27804,7 @@
     </row>
     <row r="819" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A819" s="7"/>
-      <c r="B819" s="23"/>
+      <c r="B819" s="21"/>
       <c r="C819" s="7"/>
       <c r="D819" s="7"/>
       <c r="E819" s="7"/>
@@ -27780,7 +27837,7 @@
     </row>
     <row r="820" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A820" s="7"/>
-      <c r="B820" s="23"/>
+      <c r="B820" s="21"/>
       <c r="C820" s="7"/>
       <c r="D820" s="7"/>
       <c r="E820" s="7"/>
@@ -27813,7 +27870,7 @@
     </row>
     <row r="821" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A821" s="7"/>
-      <c r="B821" s="23"/>
+      <c r="B821" s="21"/>
       <c r="C821" s="7"/>
       <c r="D821" s="7"/>
       <c r="E821" s="7"/>
@@ -27846,7 +27903,7 @@
     </row>
     <row r="822" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A822" s="7"/>
-      <c r="B822" s="23"/>
+      <c r="B822" s="21"/>
       <c r="C822" s="7"/>
       <c r="D822" s="7"/>
       <c r="E822" s="7"/>
@@ -27879,7 +27936,7 @@
     </row>
     <row r="823" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A823" s="7"/>
-      <c r="B823" s="23"/>
+      <c r="B823" s="21"/>
       <c r="C823" s="7"/>
       <c r="D823" s="7"/>
       <c r="E823" s="7"/>
@@ -27912,7 +27969,7 @@
     </row>
     <row r="824" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A824" s="7"/>
-      <c r="B824" s="23"/>
+      <c r="B824" s="21"/>
       <c r="C824" s="7"/>
       <c r="D824" s="7"/>
       <c r="E824" s="7"/>
@@ -27945,7 +28002,7 @@
     </row>
     <row r="825" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A825" s="7"/>
-      <c r="B825" s="23"/>
+      <c r="B825" s="21"/>
       <c r="C825" s="7"/>
       <c r="D825" s="7"/>
       <c r="E825" s="7"/>
@@ -27978,7 +28035,7 @@
     </row>
     <row r="826" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A826" s="7"/>
-      <c r="B826" s="23"/>
+      <c r="B826" s="21"/>
       <c r="C826" s="7"/>
       <c r="D826" s="7"/>
       <c r="E826" s="7"/>
@@ -28011,7 +28068,7 @@
     </row>
     <row r="827" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A827" s="7"/>
-      <c r="B827" s="23"/>
+      <c r="B827" s="21"/>
       <c r="C827" s="7"/>
       <c r="D827" s="7"/>
       <c r="E827" s="7"/>
@@ -28044,7 +28101,7 @@
     </row>
     <row r="828" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A828" s="7"/>
-      <c r="B828" s="23"/>
+      <c r="B828" s="21"/>
       <c r="C828" s="7"/>
       <c r="D828" s="7"/>
       <c r="E828" s="7"/>
@@ -28077,7 +28134,7 @@
     </row>
     <row r="829" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A829" s="7"/>
-      <c r="B829" s="23"/>
+      <c r="B829" s="21"/>
       <c r="C829" s="7"/>
       <c r="D829" s="7"/>
       <c r="E829" s="7"/>
@@ -28110,7 +28167,7 @@
     </row>
     <row r="830" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A830" s="7"/>
-      <c r="B830" s="23"/>
+      <c r="B830" s="21"/>
       <c r="C830" s="7"/>
       <c r="D830" s="7"/>
       <c r="E830" s="7"/>
@@ -28143,7 +28200,7 @@
     </row>
     <row r="831" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A831" s="7"/>
-      <c r="B831" s="23"/>
+      <c r="B831" s="21"/>
       <c r="C831" s="7"/>
       <c r="D831" s="7"/>
       <c r="E831" s="7"/>
@@ -28176,7 +28233,7 @@
     </row>
     <row r="832" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A832" s="7"/>
-      <c r="B832" s="23"/>
+      <c r="B832" s="21"/>
       <c r="C832" s="7"/>
       <c r="D832" s="7"/>
       <c r="E832" s="7"/>
@@ -28209,7 +28266,7 @@
     </row>
     <row r="833" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A833" s="7"/>
-      <c r="B833" s="23"/>
+      <c r="B833" s="21"/>
       <c r="C833" s="7"/>
       <c r="D833" s="7"/>
       <c r="E833" s="7"/>
@@ -28242,7 +28299,7 @@
     </row>
     <row r="834" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A834" s="7"/>
-      <c r="B834" s="23"/>
+      <c r="B834" s="21"/>
       <c r="C834" s="7"/>
       <c r="D834" s="7"/>
       <c r="E834" s="7"/>
@@ -28275,7 +28332,7 @@
     </row>
     <row r="835" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A835" s="7"/>
-      <c r="B835" s="23"/>
+      <c r="B835" s="21"/>
       <c r="C835" s="7"/>
       <c r="D835" s="7"/>
       <c r="E835" s="7"/>
@@ -28308,7 +28365,7 @@
     </row>
     <row r="836" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A836" s="7"/>
-      <c r="B836" s="23"/>
+      <c r="B836" s="21"/>
       <c r="C836" s="7"/>
       <c r="D836" s="7"/>
       <c r="E836" s="7"/>
@@ -28341,7 +28398,7 @@
     </row>
     <row r="837" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A837" s="7"/>
-      <c r="B837" s="23"/>
+      <c r="B837" s="21"/>
       <c r="C837" s="7"/>
       <c r="D837" s="7"/>
       <c r="E837" s="7"/>
@@ -28374,7 +28431,7 @@
     </row>
     <row r="838" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A838" s="7"/>
-      <c r="B838" s="23"/>
+      <c r="B838" s="21"/>
       <c r="C838" s="7"/>
       <c r="D838" s="7"/>
       <c r="E838" s="7"/>
@@ -28407,7 +28464,7 @@
     </row>
     <row r="839" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A839" s="7"/>
-      <c r="B839" s="23"/>
+      <c r="B839" s="21"/>
       <c r="C839" s="7"/>
       <c r="D839" s="7"/>
       <c r="E839" s="7"/>
@@ -28440,7 +28497,7 @@
     </row>
     <row r="840" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A840" s="7"/>
-      <c r="B840" s="23"/>
+      <c r="B840" s="21"/>
       <c r="C840" s="7"/>
       <c r="D840" s="7"/>
       <c r="E840" s="7"/>
@@ -28473,7 +28530,7 @@
     </row>
     <row r="841" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A841" s="7"/>
-      <c r="B841" s="23"/>
+      <c r="B841" s="21"/>
       <c r="C841" s="7"/>
       <c r="D841" s="7"/>
       <c r="E841" s="7"/>
@@ -28506,7 +28563,7 @@
     </row>
     <row r="842" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A842" s="7"/>
-      <c r="B842" s="23"/>
+      <c r="B842" s="21"/>
       <c r="C842" s="7"/>
       <c r="D842" s="7"/>
       <c r="E842" s="7"/>
@@ -28539,7 +28596,7 @@
     </row>
     <row r="843" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A843" s="7"/>
-      <c r="B843" s="23"/>
+      <c r="B843" s="21"/>
       <c r="C843" s="7"/>
       <c r="D843" s="7"/>
       <c r="E843" s="7"/>
@@ -28572,7 +28629,7 @@
     </row>
     <row r="844" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A844" s="7"/>
-      <c r="B844" s="23"/>
+      <c r="B844" s="21"/>
       <c r="C844" s="7"/>
       <c r="D844" s="7"/>
       <c r="E844" s="7"/>
@@ -28605,7 +28662,7 @@
     </row>
     <row r="845" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A845" s="7"/>
-      <c r="B845" s="23"/>
+      <c r="B845" s="21"/>
       <c r="C845" s="7"/>
       <c r="D845" s="7"/>
       <c r="E845" s="7"/>
@@ -28638,7 +28695,7 @@
     </row>
     <row r="846" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A846" s="7"/>
-      <c r="B846" s="23"/>
+      <c r="B846" s="21"/>
       <c r="C846" s="7"/>
       <c r="D846" s="7"/>
       <c r="E846" s="7"/>
@@ -28671,7 +28728,7 @@
     </row>
     <row r="847" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A847" s="7"/>
-      <c r="B847" s="23"/>
+      <c r="B847" s="21"/>
       <c r="C847" s="7"/>
       <c r="D847" s="7"/>
       <c r="E847" s="7"/>
@@ -28704,7 +28761,7 @@
     </row>
     <row r="848" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A848" s="7"/>
-      <c r="B848" s="23"/>
+      <c r="B848" s="21"/>
       <c r="C848" s="7"/>
       <c r="D848" s="7"/>
       <c r="E848" s="7"/>
@@ -28737,7 +28794,7 @@
     </row>
     <row r="849" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A849" s="7"/>
-      <c r="B849" s="23"/>
+      <c r="B849" s="21"/>
       <c r="C849" s="7"/>
       <c r="D849" s="7"/>
       <c r="E849" s="7"/>
@@ -28770,7 +28827,7 @@
     </row>
     <row r="850" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A850" s="7"/>
-      <c r="B850" s="23"/>
+      <c r="B850" s="21"/>
       <c r="C850" s="7"/>
       <c r="D850" s="7"/>
       <c r="E850" s="7"/>
@@ -28803,7 +28860,7 @@
     </row>
     <row r="851" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A851" s="7"/>
-      <c r="B851" s="23"/>
+      <c r="B851" s="21"/>
       <c r="C851" s="7"/>
       <c r="D851" s="7"/>
       <c r="E851" s="7"/>
@@ -28836,7 +28893,7 @@
     </row>
     <row r="852" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A852" s="7"/>
-      <c r="B852" s="23"/>
+      <c r="B852" s="21"/>
       <c r="C852" s="7"/>
       <c r="D852" s="7"/>
       <c r="E852" s="7"/>
@@ -28869,7 +28926,7 @@
     </row>
     <row r="853" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A853" s="7"/>
-      <c r="B853" s="23"/>
+      <c r="B853" s="21"/>
       <c r="C853" s="7"/>
       <c r="D853" s="7"/>
       <c r="E853" s="7"/>
@@ -28902,7 +28959,7 @@
     </row>
     <row r="854" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A854" s="7"/>
-      <c r="B854" s="23"/>
+      <c r="B854" s="21"/>
       <c r="C854" s="7"/>
       <c r="D854" s="7"/>
       <c r="E854" s="7"/>
@@ -28935,7 +28992,7 @@
     </row>
     <row r="855" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A855" s="7"/>
-      <c r="B855" s="23"/>
+      <c r="B855" s="21"/>
       <c r="C855" s="7"/>
       <c r="D855" s="7"/>
       <c r="E855" s="7"/>
@@ -28968,7 +29025,7 @@
     </row>
     <row r="856" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A856" s="7"/>
-      <c r="B856" s="23"/>
+      <c r="B856" s="21"/>
       <c r="C856" s="7"/>
       <c r="D856" s="7"/>
       <c r="E856" s="7"/>
@@ -29001,7 +29058,7 @@
     </row>
     <row r="857" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A857" s="7"/>
-      <c r="B857" s="23"/>
+      <c r="B857" s="21"/>
       <c r="C857" s="7"/>
       <c r="D857" s="7"/>
       <c r="E857" s="7"/>
@@ -29034,7 +29091,7 @@
     </row>
     <row r="858" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A858" s="7"/>
-      <c r="B858" s="23"/>
+      <c r="B858" s="21"/>
       <c r="C858" s="7"/>
       <c r="D858" s="7"/>
       <c r="E858" s="7"/>
@@ -29067,7 +29124,7 @@
     </row>
     <row r="859" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A859" s="7"/>
-      <c r="B859" s="23"/>
+      <c r="B859" s="21"/>
       <c r="C859" s="7"/>
       <c r="D859" s="7"/>
       <c r="E859" s="7"/>
@@ -29100,7 +29157,7 @@
     </row>
     <row r="860" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A860" s="7"/>
-      <c r="B860" s="23"/>
+      <c r="B860" s="21"/>
       <c r="C860" s="7"/>
       <c r="D860" s="7"/>
       <c r="E860" s="7"/>
@@ -29133,7 +29190,7 @@
     </row>
     <row r="861" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A861" s="7"/>
-      <c r="B861" s="23"/>
+      <c r="B861" s="21"/>
       <c r="C861" s="7"/>
       <c r="D861" s="7"/>
       <c r="E861" s="7"/>
@@ -29166,7 +29223,7 @@
     </row>
     <row r="862" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A862" s="7"/>
-      <c r="B862" s="23"/>
+      <c r="B862" s="21"/>
       <c r="C862" s="7"/>
       <c r="D862" s="7"/>
       <c r="E862" s="7"/>
@@ -29199,7 +29256,7 @@
     </row>
     <row r="863" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A863" s="7"/>
-      <c r="B863" s="23"/>
+      <c r="B863" s="21"/>
       <c r="C863" s="7"/>
       <c r="D863" s="7"/>
       <c r="E863" s="7"/>
@@ -29232,7 +29289,7 @@
     </row>
     <row r="864" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A864" s="7"/>
-      <c r="B864" s="23"/>
+      <c r="B864" s="21"/>
       <c r="C864" s="7"/>
       <c r="D864" s="7"/>
       <c r="E864" s="7"/>
@@ -29265,7 +29322,7 @@
     </row>
     <row r="865" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A865" s="7"/>
-      <c r="B865" s="23"/>
+      <c r="B865" s="21"/>
       <c r="C865" s="7"/>
       <c r="D865" s="7"/>
       <c r="E865" s="7"/>
@@ -29298,7 +29355,7 @@
     </row>
     <row r="866" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A866" s="7"/>
-      <c r="B866" s="23"/>
+      <c r="B866" s="21"/>
       <c r="C866" s="7"/>
       <c r="D866" s="7"/>
       <c r="E866" s="7"/>
@@ -29331,7 +29388,7 @@
     </row>
     <row r="867" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A867" s="7"/>
-      <c r="B867" s="23"/>
+      <c r="B867" s="21"/>
       <c r="C867" s="7"/>
       <c r="D867" s="7"/>
       <c r="E867" s="7"/>
@@ -29364,7 +29421,7 @@
     </row>
     <row r="868" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A868" s="7"/>
-      <c r="B868" s="23"/>
+      <c r="B868" s="21"/>
       <c r="C868" s="7"/>
       <c r="D868" s="7"/>
       <c r="E868" s="7"/>
@@ -29397,7 +29454,7 @@
     </row>
     <row r="869" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A869" s="7"/>
-      <c r="B869" s="23"/>
+      <c r="B869" s="21"/>
       <c r="C869" s="7"/>
       <c r="D869" s="7"/>
       <c r="E869" s="7"/>
@@ -29430,7 +29487,7 @@
     </row>
     <row r="870" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A870" s="7"/>
-      <c r="B870" s="23"/>
+      <c r="B870" s="21"/>
       <c r="C870" s="7"/>
       <c r="D870" s="7"/>
       <c r="E870" s="7"/>
@@ -29463,7 +29520,7 @@
     </row>
     <row r="871" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A871" s="7"/>
-      <c r="B871" s="23"/>
+      <c r="B871" s="21"/>
       <c r="C871" s="7"/>
       <c r="D871" s="7"/>
       <c r="E871" s="7"/>
@@ -29496,7 +29553,7 @@
     </row>
     <row r="872" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A872" s="7"/>
-      <c r="B872" s="23"/>
+      <c r="B872" s="21"/>
       <c r="C872" s="7"/>
       <c r="D872" s="7"/>
       <c r="E872" s="7"/>
@@ -29529,7 +29586,7 @@
     </row>
     <row r="873" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A873" s="7"/>
-      <c r="B873" s="23"/>
+      <c r="B873" s="21"/>
       <c r="C873" s="7"/>
       <c r="D873" s="7"/>
       <c r="E873" s="7"/>
@@ -29562,7 +29619,7 @@
     </row>
     <row r="874" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A874" s="7"/>
-      <c r="B874" s="23"/>
+      <c r="B874" s="21"/>
       <c r="C874" s="7"/>
       <c r="D874" s="7"/>
       <c r="E874" s="7"/>
@@ -29595,7 +29652,7 @@
     </row>
     <row r="875" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A875" s="7"/>
-      <c r="B875" s="23"/>
+      <c r="B875" s="21"/>
       <c r="C875" s="7"/>
       <c r="D875" s="7"/>
       <c r="E875" s="7"/>
@@ -29628,7 +29685,7 @@
     </row>
     <row r="876" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A876" s="7"/>
-      <c r="B876" s="23"/>
+      <c r="B876" s="21"/>
       <c r="C876" s="7"/>
       <c r="D876" s="7"/>
       <c r="E876" s="7"/>
@@ -29661,7 +29718,7 @@
     </row>
     <row r="877" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A877" s="7"/>
-      <c r="B877" s="23"/>
+      <c r="B877" s="21"/>
       <c r="C877" s="7"/>
       <c r="D877" s="7"/>
       <c r="E877" s="7"/>
@@ -29694,7 +29751,7 @@
     </row>
     <row r="878" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A878" s="7"/>
-      <c r="B878" s="23"/>
+      <c r="B878" s="21"/>
       <c r="C878" s="7"/>
       <c r="D878" s="7"/>
       <c r="E878" s="7"/>
@@ -29727,7 +29784,7 @@
     </row>
     <row r="879" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A879" s="7"/>
-      <c r="B879" s="23"/>
+      <c r="B879" s="21"/>
       <c r="C879" s="7"/>
       <c r="D879" s="7"/>
       <c r="E879" s="7"/>
@@ -29760,7 +29817,7 @@
     </row>
     <row r="880" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A880" s="7"/>
-      <c r="B880" s="23"/>
+      <c r="B880" s="21"/>
       <c r="C880" s="7"/>
       <c r="D880" s="7"/>
       <c r="E880" s="7"/>
@@ -29793,7 +29850,7 @@
     </row>
     <row r="881" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A881" s="7"/>
-      <c r="B881" s="23"/>
+      <c r="B881" s="21"/>
       <c r="C881" s="7"/>
       <c r="D881" s="7"/>
       <c r="E881" s="7"/>
@@ -29826,7 +29883,7 @@
     </row>
     <row r="882" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A882" s="7"/>
-      <c r="B882" s="23"/>
+      <c r="B882" s="21"/>
       <c r="C882" s="7"/>
       <c r="D882" s="7"/>
       <c r="E882" s="7"/>
@@ -29859,7 +29916,7 @@
     </row>
     <row r="883" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A883" s="7"/>
-      <c r="B883" s="23"/>
+      <c r="B883" s="21"/>
       <c r="C883" s="7"/>
       <c r="D883" s="7"/>
       <c r="E883" s="7"/>
@@ -29892,7 +29949,7 @@
     </row>
     <row r="884" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A884" s="7"/>
-      <c r="B884" s="23"/>
+      <c r="B884" s="21"/>
       <c r="C884" s="7"/>
       <c r="D884" s="7"/>
       <c r="E884" s="7"/>
@@ -29925,7 +29982,7 @@
     </row>
     <row r="885" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A885" s="7"/>
-      <c r="B885" s="23"/>
+      <c r="B885" s="21"/>
       <c r="C885" s="7"/>
       <c r="D885" s="7"/>
       <c r="E885" s="7"/>
@@ -29958,7 +30015,7 @@
     </row>
     <row r="886" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A886" s="7"/>
-      <c r="B886" s="23"/>
+      <c r="B886" s="21"/>
       <c r="C886" s="7"/>
       <c r="D886" s="7"/>
       <c r="E886" s="7"/>
@@ -29991,7 +30048,7 @@
     </row>
     <row r="887" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A887" s="7"/>
-      <c r="B887" s="23"/>
+      <c r="B887" s="21"/>
       <c r="C887" s="7"/>
       <c r="D887" s="7"/>
       <c r="E887" s="7"/>
@@ -30024,7 +30081,7 @@
     </row>
     <row r="888" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A888" s="7"/>
-      <c r="B888" s="23"/>
+      <c r="B888" s="21"/>
       <c r="C888" s="7"/>
       <c r="D888" s="7"/>
       <c r="E888" s="7"/>
@@ -30057,7 +30114,7 @@
     </row>
     <row r="889" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A889" s="7"/>
-      <c r="B889" s="23"/>
+      <c r="B889" s="21"/>
       <c r="C889" s="7"/>
       <c r="D889" s="7"/>
       <c r="E889" s="7"/>
@@ -30090,7 +30147,7 @@
     </row>
     <row r="890" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A890" s="7"/>
-      <c r="B890" s="23"/>
+      <c r="B890" s="21"/>
       <c r="C890" s="7"/>
       <c r="D890" s="7"/>
       <c r="E890" s="7"/>
@@ -30123,7 +30180,7 @@
     </row>
     <row r="891" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A891" s="7"/>
-      <c r="B891" s="23"/>
+      <c r="B891" s="21"/>
       <c r="C891" s="7"/>
       <c r="D891" s="7"/>
       <c r="E891" s="7"/>
@@ -30156,7 +30213,7 @@
     </row>
     <row r="892" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A892" s="7"/>
-      <c r="B892" s="23"/>
+      <c r="B892" s="21"/>
       <c r="C892" s="7"/>
       <c r="D892" s="7"/>
       <c r="E892" s="7"/>
@@ -30189,7 +30246,7 @@
     </row>
     <row r="893" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A893" s="7"/>
-      <c r="B893" s="23"/>
+      <c r="B893" s="21"/>
       <c r="C893" s="7"/>
       <c r="D893" s="7"/>
       <c r="E893" s="7"/>
@@ -30222,7 +30279,7 @@
     </row>
     <row r="894" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A894" s="7"/>
-      <c r="B894" s="23"/>
+      <c r="B894" s="21"/>
       <c r="C894" s="7"/>
       <c r="D894" s="7"/>
       <c r="E894" s="7"/>
@@ -30255,7 +30312,7 @@
     </row>
     <row r="895" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A895" s="7"/>
-      <c r="B895" s="23"/>
+      <c r="B895" s="21"/>
       <c r="C895" s="7"/>
       <c r="D895" s="7"/>
       <c r="E895" s="7"/>
@@ -30288,7 +30345,7 @@
     </row>
     <row r="896" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A896" s="7"/>
-      <c r="B896" s="23"/>
+      <c r="B896" s="21"/>
       <c r="C896" s="7"/>
       <c r="D896" s="7"/>
       <c r="E896" s="7"/>
@@ -30321,7 +30378,7 @@
     </row>
     <row r="897" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A897" s="7"/>
-      <c r="B897" s="23"/>
+      <c r="B897" s="21"/>
       <c r="C897" s="7"/>
       <c r="D897" s="7"/>
       <c r="E897" s="7"/>
@@ -30354,7 +30411,7 @@
     </row>
     <row r="898" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A898" s="7"/>
-      <c r="B898" s="23"/>
+      <c r="B898" s="21"/>
       <c r="C898" s="7"/>
       <c r="D898" s="7"/>
       <c r="E898" s="7"/>
@@ -30387,7 +30444,7 @@
     </row>
     <row r="899" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A899" s="7"/>
-      <c r="B899" s="23"/>
+      <c r="B899" s="21"/>
       <c r="C899" s="7"/>
       <c r="D899" s="7"/>
       <c r="E899" s="7"/>
@@ -30420,7 +30477,7 @@
     </row>
     <row r="900" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A900" s="7"/>
-      <c r="B900" s="23"/>
+      <c r="B900" s="21"/>
       <c r="C900" s="7"/>
       <c r="D900" s="7"/>
       <c r="E900" s="7"/>
@@ -30453,7 +30510,7 @@
     </row>
     <row r="901" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A901" s="7"/>
-      <c r="B901" s="23"/>
+      <c r="B901" s="21"/>
       <c r="C901" s="7"/>
       <c r="D901" s="7"/>
       <c r="E901" s="7"/>
@@ -30486,7 +30543,7 @@
     </row>
     <row r="902" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A902" s="7"/>
-      <c r="B902" s="23"/>
+      <c r="B902" s="21"/>
       <c r="C902" s="7"/>
       <c r="D902" s="7"/>
       <c r="E902" s="7"/>
@@ -30519,7 +30576,7 @@
     </row>
     <row r="903" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A903" s="7"/>
-      <c r="B903" s="23"/>
+      <c r="B903" s="21"/>
       <c r="C903" s="7"/>
       <c r="D903" s="7"/>
       <c r="E903" s="7"/>
@@ -30552,7 +30609,7 @@
     </row>
     <row r="904" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A904" s="7"/>
-      <c r="B904" s="23"/>
+      <c r="B904" s="21"/>
       <c r="C904" s="7"/>
       <c r="D904" s="7"/>
       <c r="E904" s="7"/>
@@ -30585,7 +30642,7 @@
     </row>
     <row r="905" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A905" s="7"/>
-      <c r="B905" s="23"/>
+      <c r="B905" s="21"/>
       <c r="C905" s="7"/>
       <c r="D905" s="7"/>
       <c r="E905" s="7"/>
@@ -30618,7 +30675,7 @@
     </row>
     <row r="906" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A906" s="7"/>
-      <c r="B906" s="23"/>
+      <c r="B906" s="21"/>
       <c r="C906" s="7"/>
       <c r="D906" s="7"/>
       <c r="E906" s="7"/>
@@ -30651,7 +30708,7 @@
     </row>
     <row r="907" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A907" s="7"/>
-      <c r="B907" s="23"/>
+      <c r="B907" s="21"/>
       <c r="C907" s="7"/>
       <c r="D907" s="7"/>
       <c r="E907" s="7"/>
@@ -30684,7 +30741,7 @@
     </row>
     <row r="908" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A908" s="7"/>
-      <c r="B908" s="23"/>
+      <c r="B908" s="21"/>
       <c r="C908" s="7"/>
       <c r="D908" s="7"/>
       <c r="E908" s="7"/>
@@ -30717,7 +30774,7 @@
     </row>
     <row r="909" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A909" s="7"/>
-      <c r="B909" s="23"/>
+      <c r="B909" s="21"/>
       <c r="C909" s="7"/>
       <c r="D909" s="7"/>
       <c r="E909" s="7"/>
@@ -30750,7 +30807,7 @@
     </row>
     <row r="910" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A910" s="7"/>
-      <c r="B910" s="23"/>
+      <c r="B910" s="21"/>
       <c r="C910" s="7"/>
       <c r="D910" s="7"/>
       <c r="E910" s="7"/>
@@ -30783,7 +30840,7 @@
     </row>
     <row r="911" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A911" s="7"/>
-      <c r="B911" s="23"/>
+      <c r="B911" s="21"/>
       <c r="C911" s="7"/>
       <c r="D911" s="7"/>
       <c r="E911" s="7"/>
@@ -30816,7 +30873,7 @@
     </row>
     <row r="912" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A912" s="7"/>
-      <c r="B912" s="23"/>
+      <c r="B912" s="21"/>
       <c r="C912" s="7"/>
       <c r="D912" s="7"/>
       <c r="E912" s="7"/>
@@ -30849,7 +30906,7 @@
     </row>
     <row r="913" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A913" s="7"/>
-      <c r="B913" s="23"/>
+      <c r="B913" s="21"/>
       <c r="C913" s="7"/>
       <c r="D913" s="7"/>
       <c r="E913" s="7"/>
@@ -30882,7 +30939,7 @@
     </row>
     <row r="914" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A914" s="7"/>
-      <c r="B914" s="23"/>
+      <c r="B914" s="21"/>
       <c r="C914" s="7"/>
       <c r="D914" s="7"/>
       <c r="E914" s="7"/>
@@ -30915,7 +30972,7 @@
     </row>
     <row r="915" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A915" s="7"/>
-      <c r="B915" s="23"/>
+      <c r="B915" s="21"/>
       <c r="C915" s="7"/>
       <c r="D915" s="7"/>
       <c r="E915" s="7"/>
@@ -30948,7 +31005,7 @@
     </row>
     <row r="916" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A916" s="7"/>
-      <c r="B916" s="23"/>
+      <c r="B916" s="21"/>
       <c r="C916" s="7"/>
       <c r="D916" s="7"/>
       <c r="E916" s="7"/>
@@ -30981,7 +31038,7 @@
     </row>
     <row r="917" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A917" s="7"/>
-      <c r="B917" s="23"/>
+      <c r="B917" s="21"/>
       <c r="C917" s="7"/>
       <c r="D917" s="7"/>
       <c r="E917" s="7"/>
@@ -31014,7 +31071,7 @@
     </row>
     <row r="918" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A918" s="7"/>
-      <c r="B918" s="23"/>
+      <c r="B918" s="21"/>
       <c r="C918" s="7"/>
       <c r="D918" s="7"/>
       <c r="E918" s="7"/>
@@ -31047,7 +31104,7 @@
     </row>
     <row r="919" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A919" s="7"/>
-      <c r="B919" s="23"/>
+      <c r="B919" s="21"/>
       <c r="C919" s="7"/>
       <c r="D919" s="7"/>
       <c r="E919" s="7"/>
@@ -31080,7 +31137,7 @@
     </row>
     <row r="920" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A920" s="7"/>
-      <c r="B920" s="23"/>
+      <c r="B920" s="21"/>
       <c r="C920" s="7"/>
       <c r="D920" s="7"/>
       <c r="E920" s="7"/>
@@ -31113,7 +31170,7 @@
     </row>
     <row r="921" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A921" s="7"/>
-      <c r="B921" s="23"/>
+      <c r="B921" s="21"/>
       <c r="C921" s="7"/>
       <c r="D921" s="7"/>
       <c r="E921" s="7"/>
@@ -31146,7 +31203,7 @@
     </row>
     <row r="922" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A922" s="7"/>
-      <c r="B922" s="23"/>
+      <c r="B922" s="21"/>
       <c r="C922" s="7"/>
       <c r="D922" s="7"/>
       <c r="E922" s="7"/>
@@ -31179,7 +31236,7 @@
     </row>
     <row r="923" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A923" s="7"/>
-      <c r="B923" s="23"/>
+      <c r="B923" s="21"/>
       <c r="C923" s="7"/>
       <c r="D923" s="7"/>
       <c r="E923" s="7"/>
@@ -31212,7 +31269,7 @@
     </row>
     <row r="924" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A924" s="7"/>
-      <c r="B924" s="23"/>
+      <c r="B924" s="21"/>
       <c r="C924" s="7"/>
       <c r="D924" s="7"/>
       <c r="E924" s="7"/>
@@ -31245,7 +31302,7 @@
     </row>
     <row r="925" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A925" s="7"/>
-      <c r="B925" s="23"/>
+      <c r="B925" s="21"/>
       <c r="C925" s="7"/>
       <c r="D925" s="7"/>
       <c r="E925" s="7"/>
@@ -31278,7 +31335,7 @@
     </row>
     <row r="926" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A926" s="7"/>
-      <c r="B926" s="23"/>
+      <c r="B926" s="21"/>
       <c r="C926" s="7"/>
       <c r="D926" s="7"/>
       <c r="E926" s="7"/>
@@ -31311,7 +31368,7 @@
     </row>
     <row r="927" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A927" s="7"/>
-      <c r="B927" s="23"/>
+      <c r="B927" s="21"/>
       <c r="C927" s="7"/>
       <c r="D927" s="7"/>
       <c r="E927" s="7"/>
@@ -31344,7 +31401,7 @@
     </row>
     <row r="928" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A928" s="7"/>
-      <c r="B928" s="23"/>
+      <c r="B928" s="21"/>
       <c r="C928" s="7"/>
       <c r="D928" s="7"/>
       <c r="E928" s="7"/>
@@ -31377,7 +31434,7 @@
     </row>
     <row r="929" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A929" s="7"/>
-      <c r="B929" s="23"/>
+      <c r="B929" s="21"/>
       <c r="C929" s="7"/>
       <c r="D929" s="7"/>
       <c r="E929" s="7"/>
@@ -31410,7 +31467,7 @@
     </row>
     <row r="930" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A930" s="7"/>
-      <c r="B930" s="23"/>
+      <c r="B930" s="21"/>
       <c r="C930" s="7"/>
       <c r="D930" s="7"/>
       <c r="E930" s="7"/>
@@ -31443,7 +31500,7 @@
     </row>
     <row r="931" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A931" s="7"/>
-      <c r="B931" s="23"/>
+      <c r="B931" s="21"/>
       <c r="C931" s="7"/>
       <c r="D931" s="7"/>
       <c r="E931" s="7"/>
@@ -31476,7 +31533,7 @@
     </row>
     <row r="932" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A932" s="7"/>
-      <c r="B932" s="23"/>
+      <c r="B932" s="21"/>
       <c r="C932" s="7"/>
       <c r="D932" s="7"/>
       <c r="E932" s="7"/>
@@ -31509,7 +31566,7 @@
     </row>
     <row r="933" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A933" s="7"/>
-      <c r="B933" s="23"/>
+      <c r="B933" s="21"/>
       <c r="C933" s="7"/>
       <c r="D933" s="7"/>
       <c r="E933" s="7"/>
@@ -31542,7 +31599,7 @@
     </row>
     <row r="934" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A934" s="7"/>
-      <c r="B934" s="23"/>
+      <c r="B934" s="21"/>
       <c r="C934" s="7"/>
       <c r="D934" s="7"/>
       <c r="E934" s="7"/>
@@ -31575,7 +31632,7 @@
     </row>
     <row r="935" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A935" s="7"/>
-      <c r="B935" s="23"/>
+      <c r="B935" s="21"/>
       <c r="C935" s="7"/>
       <c r="D935" s="7"/>
       <c r="E935" s="7"/>
@@ -31608,7 +31665,7 @@
     </row>
     <row r="936" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A936" s="7"/>
-      <c r="B936" s="23"/>
+      <c r="B936" s="21"/>
       <c r="C936" s="7"/>
       <c r="D936" s="7"/>
       <c r="E936" s="7"/>
@@ -31641,7 +31698,7 @@
     </row>
     <row r="937" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A937" s="7"/>
-      <c r="B937" s="23"/>
+      <c r="B937" s="21"/>
       <c r="C937" s="7"/>
       <c r="D937" s="7"/>
       <c r="E937" s="7"/>
@@ -31674,7 +31731,7 @@
     </row>
     <row r="938" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A938" s="7"/>
-      <c r="B938" s="23"/>
+      <c r="B938" s="21"/>
       <c r="C938" s="7"/>
       <c r="D938" s="7"/>
       <c r="E938" s="7"/>
@@ -31707,7 +31764,7 @@
     </row>
     <row r="939" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A939" s="7"/>
-      <c r="B939" s="23"/>
+      <c r="B939" s="21"/>
       <c r="C939" s="7"/>
       <c r="D939" s="7"/>
       <c r="E939" s="7"/>
@@ -31740,7 +31797,7 @@
     </row>
     <row r="940" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A940" s="7"/>
-      <c r="B940" s="23"/>
+      <c r="B940" s="21"/>
       <c r="C940" s="7"/>
       <c r="D940" s="7"/>
       <c r="E940" s="7"/>
@@ -31773,7 +31830,7 @@
     </row>
     <row r="941" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A941" s="7"/>
-      <c r="B941" s="23"/>
+      <c r="B941" s="21"/>
       <c r="C941" s="7"/>
       <c r="D941" s="7"/>
       <c r="E941" s="7"/>
@@ -31806,7 +31863,7 @@
     </row>
     <row r="942" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A942" s="7"/>
-      <c r="B942" s="23"/>
+      <c r="B942" s="21"/>
       <c r="C942" s="7"/>
       <c r="D942" s="7"/>
       <c r="E942" s="7"/>
@@ -31839,7 +31896,7 @@
     </row>
     <row r="943" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A943" s="7"/>
-      <c r="B943" s="23"/>
+      <c r="B943" s="21"/>
       <c r="C943" s="7"/>
       <c r="D943" s="7"/>
       <c r="E943" s="7"/>
@@ -31872,7 +31929,7 @@
     </row>
     <row r="944" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A944" s="7"/>
-      <c r="B944" s="23"/>
+      <c r="B944" s="21"/>
       <c r="C944" s="7"/>
       <c r="D944" s="7"/>
       <c r="E944" s="7"/>
@@ -31905,7 +31962,7 @@
     </row>
     <row r="945" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A945" s="7"/>
-      <c r="B945" s="23"/>
+      <c r="B945" s="21"/>
       <c r="C945" s="7"/>
       <c r="D945" s="7"/>
       <c r="E945" s="7"/>
@@ -31938,7 +31995,7 @@
     </row>
     <row r="946" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A946" s="7"/>
-      <c r="B946" s="23"/>
+      <c r="B946" s="21"/>
       <c r="C946" s="7"/>
       <c r="D946" s="7"/>
       <c r="E946" s="7"/>
@@ -31971,7 +32028,7 @@
     </row>
     <row r="947" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A947" s="7"/>
-      <c r="B947" s="23"/>
+      <c r="B947" s="21"/>
       <c r="C947" s="7"/>
       <c r="D947" s="7"/>
       <c r="E947" s="7"/>
@@ -32004,7 +32061,7 @@
     </row>
     <row r="948" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A948" s="7"/>
-      <c r="B948" s="23"/>
+      <c r="B948" s="21"/>
       <c r="C948" s="7"/>
       <c r="D948" s="7"/>
       <c r="E948" s="7"/>
@@ -32037,7 +32094,7 @@
     </row>
     <row r="949" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A949" s="7"/>
-      <c r="B949" s="23"/>
+      <c r="B949" s="21"/>
       <c r="C949" s="7"/>
       <c r="D949" s="7"/>
       <c r="E949" s="7"/>
@@ -32070,7 +32127,7 @@
     </row>
     <row r="950" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A950" s="7"/>
-      <c r="B950" s="23"/>
+      <c r="B950" s="21"/>
       <c r="C950" s="7"/>
       <c r="D950" s="7"/>
       <c r="E950" s="7"/>
@@ -32103,7 +32160,7 @@
     </row>
     <row r="951" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A951" s="7"/>
-      <c r="B951" s="23"/>
+      <c r="B951" s="21"/>
       <c r="C951" s="7"/>
       <c r="D951" s="7"/>
       <c r="E951" s="7"/>
@@ -32136,7 +32193,7 @@
     </row>
     <row r="952" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A952" s="7"/>
-      <c r="B952" s="23"/>
+      <c r="B952" s="21"/>
       <c r="C952" s="7"/>
       <c r="D952" s="7"/>
       <c r="E952" s="7"/>
@@ -32169,7 +32226,7 @@
     </row>
     <row r="953" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A953" s="7"/>
-      <c r="B953" s="23"/>
+      <c r="B953" s="21"/>
       <c r="C953" s="7"/>
       <c r="D953" s="7"/>
       <c r="E953" s="7"/>
@@ -32202,7 +32259,7 @@
     </row>
     <row r="954" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A954" s="7"/>
-      <c r="B954" s="23"/>
+      <c r="B954" s="21"/>
       <c r="C954" s="7"/>
       <c r="D954" s="7"/>
       <c r="E954" s="7"/>
@@ -32235,7 +32292,7 @@
     </row>
     <row r="955" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A955" s="7"/>
-      <c r="B955" s="23"/>
+      <c r="B955" s="21"/>
       <c r="C955" s="7"/>
       <c r="D955" s="7"/>
       <c r="E955" s="7"/>
@@ -32268,7 +32325,7 @@
     </row>
     <row r="956" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A956" s="7"/>
-      <c r="B956" s="23"/>
+      <c r="B956" s="21"/>
       <c r="C956" s="7"/>
       <c r="D956" s="7"/>
       <c r="E956" s="7"/>
@@ -32301,7 +32358,7 @@
     </row>
     <row r="957" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A957" s="7"/>
-      <c r="B957" s="23"/>
+      <c r="B957" s="21"/>
       <c r="C957" s="7"/>
       <c r="D957" s="7"/>
       <c r="E957" s="7"/>
@@ -32334,7 +32391,7 @@
     </row>
     <row r="958" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A958" s="7"/>
-      <c r="B958" s="23"/>
+      <c r="B958" s="21"/>
       <c r="C958" s="7"/>
       <c r="D958" s="7"/>
       <c r="E958" s="7"/>
@@ -32367,7 +32424,7 @@
     </row>
     <row r="959" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A959" s="7"/>
-      <c r="B959" s="23"/>
+      <c r="B959" s="21"/>
       <c r="C959" s="7"/>
       <c r="D959" s="7"/>
       <c r="E959" s="7"/>
@@ -32400,7 +32457,7 @@
     </row>
     <row r="960" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A960" s="7"/>
-      <c r="B960" s="23"/>
+      <c r="B960" s="21"/>
       <c r="C960" s="7"/>
       <c r="D960" s="7"/>
       <c r="E960" s="7"/>
@@ -32433,7 +32490,7 @@
     </row>
     <row r="961" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A961" s="7"/>
-      <c r="B961" s="23"/>
+      <c r="B961" s="21"/>
       <c r="C961" s="7"/>
       <c r="D961" s="7"/>
       <c r="E961" s="7"/>
@@ -32466,7 +32523,7 @@
     </row>
     <row r="962" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A962" s="7"/>
-      <c r="B962" s="23"/>
+      <c r="B962" s="21"/>
       <c r="C962" s="7"/>
       <c r="D962" s="7"/>
       <c r="E962" s="7"/>
@@ -32499,7 +32556,7 @@
     </row>
     <row r="963" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A963" s="7"/>
-      <c r="B963" s="23"/>
+      <c r="B963" s="21"/>
       <c r="C963" s="7"/>
       <c r="D963" s="7"/>
       <c r="E963" s="7"/>
@@ -32532,7 +32589,7 @@
     </row>
     <row r="964" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A964" s="7"/>
-      <c r="B964" s="23"/>
+      <c r="B964" s="21"/>
       <c r="C964" s="7"/>
       <c r="D964" s="7"/>
       <c r="E964" s="7"/>
@@ -32565,7 +32622,7 @@
     </row>
     <row r="965" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A965" s="7"/>
-      <c r="B965" s="23"/>
+      <c r="B965" s="21"/>
       <c r="C965" s="7"/>
       <c r="D965" s="7"/>
       <c r="E965" s="7"/>
@@ -32598,7 +32655,7 @@
     </row>
     <row r="966" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A966" s="7"/>
-      <c r="B966" s="23"/>
+      <c r="B966" s="21"/>
       <c r="C966" s="7"/>
       <c r="D966" s="7"/>
       <c r="E966" s="7"/>
@@ -32631,7 +32688,7 @@
     </row>
     <row r="967" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A967" s="7"/>
-      <c r="B967" s="23"/>
+      <c r="B967" s="21"/>
       <c r="C967" s="7"/>
       <c r="D967" s="7"/>
       <c r="E967" s="7"/>
@@ -32664,7 +32721,7 @@
     </row>
     <row r="968" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A968" s="7"/>
-      <c r="B968" s="23"/>
+      <c r="B968" s="21"/>
       <c r="C968" s="7"/>
       <c r="D968" s="7"/>
       <c r="E968" s="7"/>
@@ -32697,7 +32754,7 @@
     </row>
     <row r="969" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A969" s="7"/>
-      <c r="B969" s="23"/>
+      <c r="B969" s="21"/>
       <c r="C969" s="7"/>
       <c r="D969" s="7"/>
       <c r="E969" s="7"/>
@@ -32730,7 +32787,7 @@
     </row>
     <row r="970" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A970" s="7"/>
-      <c r="B970" s="23"/>
+      <c r="B970" s="21"/>
       <c r="C970" s="7"/>
       <c r="D970" s="7"/>
       <c r="E970" s="7"/>
@@ -32763,7 +32820,7 @@
     </row>
     <row r="971" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A971" s="7"/>
-      <c r="B971" s="23"/>
+      <c r="B971" s="21"/>
       <c r="C971" s="7"/>
       <c r="D971" s="7"/>
       <c r="E971" s="7"/>
@@ -32796,7 +32853,7 @@
     </row>
     <row r="972" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A972" s="7"/>
-      <c r="B972" s="23"/>
+      <c r="B972" s="21"/>
       <c r="C972" s="7"/>
       <c r="D972" s="7"/>
       <c r="E972" s="7"/>
@@ -32829,7 +32886,7 @@
     </row>
     <row r="973" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A973" s="7"/>
-      <c r="B973" s="23"/>
+      <c r="B973" s="21"/>
       <c r="C973" s="7"/>
       <c r="D973" s="7"/>
       <c r="E973" s="7"/>
@@ -32862,7 +32919,7 @@
     </row>
     <row r="974" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A974" s="7"/>
-      <c r="B974" s="23"/>
+      <c r="B974" s="21"/>
       <c r="C974" s="7"/>
       <c r="D974" s="7"/>
       <c r="E974" s="7"/>
@@ -32895,7 +32952,7 @@
     </row>
     <row r="975" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A975" s="7"/>
-      <c r="B975" s="23"/>
+      <c r="B975" s="21"/>
       <c r="C975" s="7"/>
       <c r="D975" s="7"/>
       <c r="E975" s="7"/>
@@ -32928,7 +32985,7 @@
     </row>
     <row r="976" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A976" s="7"/>
-      <c r="B976" s="23"/>
+      <c r="B976" s="21"/>
       <c r="C976" s="7"/>
       <c r="D976" s="7"/>
       <c r="E976" s="7"/>
@@ -32961,7 +33018,7 @@
     </row>
     <row r="977" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A977" s="7"/>
-      <c r="B977" s="23"/>
+      <c r="B977" s="21"/>
       <c r="C977" s="7"/>
       <c r="D977" s="7"/>
       <c r="E977" s="7"/>
@@ -32994,7 +33051,7 @@
     </row>
     <row r="978" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A978" s="7"/>
-      <c r="B978" s="23"/>
+      <c r="B978" s="21"/>
       <c r="C978" s="7"/>
       <c r="D978" s="7"/>
       <c r="E978" s="7"/>
@@ -33027,7 +33084,7 @@
     </row>
     <row r="979" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A979" s="7"/>
-      <c r="B979" s="23"/>
+      <c r="B979" s="21"/>
       <c r="C979" s="7"/>
       <c r="D979" s="7"/>
       <c r="E979" s="7"/>
@@ -33060,7 +33117,7 @@
     </row>
     <row r="980" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A980" s="7"/>
-      <c r="B980" s="23"/>
+      <c r="B980" s="21"/>
       <c r="C980" s="7"/>
       <c r="D980" s="7"/>
       <c r="E980" s="7"/>
@@ -33093,7 +33150,7 @@
     </row>
     <row r="981" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A981" s="7"/>
-      <c r="B981" s="23"/>
+      <c r="B981" s="21"/>
       <c r="C981" s="7"/>
       <c r="D981" s="7"/>
       <c r="E981" s="7"/>
@@ -33126,7 +33183,7 @@
     </row>
     <row r="982" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A982" s="7"/>
-      <c r="B982" s="23"/>
+      <c r="B982" s="21"/>
       <c r="C982" s="7"/>
       <c r="D982" s="7"/>
       <c r="E982" s="7"/>
@@ -33159,7 +33216,7 @@
     </row>
     <row r="983" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A983" s="7"/>
-      <c r="B983" s="23"/>
+      <c r="B983" s="21"/>
       <c r="C983" s="7"/>
       <c r="D983" s="7"/>
       <c r="E983" s="7"/>
@@ -33192,7 +33249,7 @@
     </row>
     <row r="984" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A984" s="7"/>
-      <c r="B984" s="23"/>
+      <c r="B984" s="21"/>
       <c r="C984" s="7"/>
       <c r="D984" s="7"/>
       <c r="E984" s="7"/>
@@ -33225,7 +33282,7 @@
     </row>
     <row r="985" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A985" s="7"/>
-      <c r="B985" s="23"/>
+      <c r="B985" s="21"/>
       <c r="C985" s="7"/>
       <c r="D985" s="7"/>
       <c r="E985" s="7"/>
@@ -33258,7 +33315,7 @@
     </row>
     <row r="986" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A986" s="7"/>
-      <c r="B986" s="23"/>
+      <c r="B986" s="21"/>
       <c r="C986" s="7"/>
       <c r="D986" s="7"/>
       <c r="E986" s="7"/>
@@ -33291,7 +33348,7 @@
     </row>
     <row r="987" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A987" s="7"/>
-      <c r="B987" s="23"/>
+      <c r="B987" s="21"/>
       <c r="C987" s="7"/>
       <c r="D987" s="7"/>
       <c r="E987" s="7"/>
@@ -33324,7 +33381,7 @@
     </row>
     <row r="988" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A988" s="7"/>
-      <c r="B988" s="23"/>
+      <c r="B988" s="21"/>
       <c r="C988" s="7"/>
       <c r="D988" s="7"/>
       <c r="E988" s="7"/>
@@ -33357,7 +33414,7 @@
     </row>
     <row r="989" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A989" s="7"/>
-      <c r="B989" s="23"/>
+      <c r="B989" s="21"/>
       <c r="C989" s="7"/>
       <c r="D989" s="7"/>
       <c r="E989" s="7"/>
@@ -33390,7 +33447,7 @@
     </row>
     <row r="990" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A990" s="7"/>
-      <c r="B990" s="23"/>
+      <c r="B990" s="21"/>
       <c r="C990" s="7"/>
       <c r="D990" s="7"/>
       <c r="E990" s="7"/>
@@ -33423,7 +33480,7 @@
     </row>
     <row r="991" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A991" s="7"/>
-      <c r="B991" s="23"/>
+      <c r="B991" s="21"/>
       <c r="C991" s="7"/>
       <c r="D991" s="7"/>
       <c r="E991" s="7"/>
@@ -33456,7 +33513,7 @@
     </row>
     <row r="992" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A992" s="7"/>
-      <c r="B992" s="23"/>
+      <c r="B992" s="21"/>
       <c r="C992" s="7"/>
       <c r="D992" s="7"/>
       <c r="E992" s="7"/>
@@ -33489,7 +33546,7 @@
     </row>
     <row r="993" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A993" s="7"/>
-      <c r="B993" s="23"/>
+      <c r="B993" s="21"/>
       <c r="C993" s="7"/>
       <c r="D993" s="7"/>
       <c r="E993" s="7"/>
@@ -33522,7 +33579,7 @@
     </row>
     <row r="994" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A994" s="7"/>
-      <c r="B994" s="23"/>
+      <c r="B994" s="21"/>
       <c r="C994" s="7"/>
       <c r="D994" s="7"/>
       <c r="E994" s="7"/>
@@ -33555,7 +33612,7 @@
     </row>
     <row r="995" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A995" s="7"/>
-      <c r="B995" s="23"/>
+      <c r="B995" s="21"/>
       <c r="C995" s="7"/>
       <c r="D995" s="7"/>
       <c r="E995" s="7"/>
@@ -33588,7 +33645,7 @@
     </row>
     <row r="996" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A996" s="7"/>
-      <c r="B996" s="23"/>
+      <c r="B996" s="21"/>
       <c r="C996" s="7"/>
       <c r="D996" s="7"/>
       <c r="E996" s="7"/>
@@ -33621,7 +33678,7 @@
     </row>
     <row r="997" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A997" s="7"/>
-      <c r="B997" s="23"/>
+      <c r="B997" s="21"/>
       <c r="C997" s="7"/>
       <c r="D997" s="7"/>
       <c r="E997" s="7"/>
@@ -33654,7 +33711,7 @@
     </row>
     <row r="998" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A998" s="7"/>
-      <c r="B998" s="23"/>
+      <c r="B998" s="21"/>
       <c r="C998" s="7"/>
       <c r="D998" s="7"/>
       <c r="E998" s="7"/>
@@ -33687,7 +33744,7 @@
     </row>
     <row r="999" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A999" s="7"/>
-      <c r="B999" s="23"/>
+      <c r="B999" s="21"/>
       <c r="C999" s="7"/>
       <c r="D999" s="7"/>
       <c r="E999" s="7"/>
@@ -33720,7 +33777,7 @@
     </row>
     <row r="1000" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1000" s="7"/>
-      <c r="B1000" s="23"/>
+      <c r="B1000" s="21"/>
       <c r="C1000" s="7"/>
       <c r="D1000" s="7"/>
       <c r="E1000" s="7"/>
@@ -34211,7 +34268,9 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="I9" r:id="rId2"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="I7" r:id="rId3"/>
+    <hyperlink ref="I9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/updatadeDataBase.xlsx
+++ b/data/updatadeDataBase.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="170">
   <si>
     <t>شماره ردیف</t>
   </si>
@@ -85,10 +85,16 @@
     <t>برای هماهنگی قطعی شدن زمان به ایمیل alireza.bagheri.sh@gmail.com پیام بدهید.</t>
   </si>
   <si>
-    <t>http://uplod.ir/1u2rkn6hpaka/ali_bagheri.JPG.htm</t>
-  </si>
-  <si>
-    <t>شنبه ها بعد از ظهر</t>
+    <t>http://s11.picofile.com/file/8392736434/ali_bagheri.JPG</t>
+  </si>
+  <si>
+    <t>مهندسی برق - قدرت</t>
+  </si>
+  <si>
+    <t>22 فروردین ماه، ساعت 11</t>
+  </si>
+  <si>
+    <t>22 فروردین ماه، ساعت 17</t>
   </si>
   <si>
     <t>محمد</t>
@@ -106,67 +112,104 @@
     <t>201</t>
   </si>
   <si>
+    <t>هماهنگی و تماس از طریق شماره تماس 09379411263</t>
+  </si>
+  <si>
+    <t>http://s11.picofile.com/file/8392736500/fathi.JPG</t>
+  </si>
+  <si>
+    <t>مهندسی مکانیک - تبدیل انرژی</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 فروردین. ساعت 17-18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. ساعت 17-18:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مصطفی </t>
+  </si>
+  <si>
+    <t>الوندیان</t>
+  </si>
+  <si>
+    <t>مخابرات</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>هماهنگی و تماس از طریق واتساپ و با 09212405364</t>
+  </si>
+  <si>
+    <t>http://s10.picofile.com/file/8392736442/alvandian.JPG</t>
+  </si>
+  <si>
+    <t>مهندسی برق - مخابرات</t>
+  </si>
+  <si>
+    <t>ایوب</t>
+  </si>
+  <si>
+    <t>حسنی</t>
+  </si>
+  <si>
+    <t>طراحی کاربردی</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>http://s11.picofile.com/file/8392736500/fathi.JPG</t>
-  </si>
-  <si>
-    <t>شنبه ها</t>
-  </si>
-  <si>
-    <t>دوشنب ها</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مصطفی </t>
-  </si>
-  <si>
-    <t>الوندیان</t>
-  </si>
-  <si>
-    <t>مخابرات</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>هماهنگی و تماس از طریق واتساپ و با 09212405364</t>
-  </si>
-  <si>
-    <t>http://s10.picofile.com/file/8392736442/alvandian.JPG</t>
-  </si>
-  <si>
-    <t>یک شنبه ساعت 5 تا 8</t>
-  </si>
-  <si>
-    <t>دوشنبه</t>
-  </si>
-  <si>
-    <t>دوشنبه ساعت 6</t>
-  </si>
-  <si>
-    <t>سه شنبه</t>
-  </si>
-  <si>
-    <t>ایوب</t>
-  </si>
-  <si>
-    <t>حسنی</t>
-  </si>
-  <si>
-    <t>طراحی کاربردی</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
     <t>http://s10.picofile.com/file/8392736450/ayoub_hasani.JPG</t>
   </si>
   <si>
-    <t>شنبه</t>
-  </si>
-  <si>
-    <t>یکشنبه</t>
+    <t>مهندسی مکانیک - طراحی کاربردی</t>
+  </si>
+  <si>
+    <t>16 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>17 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>18 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>19 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>20 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>21 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>22 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمدرضا </t>
+  </si>
+  <si>
+    <t>فرحناک</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هماهنگی تماس از طریق ایدی تلگرامی @Mreza_farahnak
+</t>
+  </si>
+  <si>
+    <t>http://s11.picofile.com/file/8392736484/farahnak.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 فروردین. ساعت 18-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. ساعت 18-19</t>
   </si>
   <si>
     <t xml:space="preserve">علیرضا </t>
@@ -187,6 +230,9 @@
     <t>http://s10.picofile.com/file/8392736526/ghaderi.JPG</t>
   </si>
   <si>
+    <t>مهندسی نفت - مخازن هیدروکربوری</t>
+  </si>
+  <si>
     <t>محسن</t>
   </si>
   <si>
@@ -196,9 +242,21 @@
     <t>204</t>
   </si>
   <si>
+    <t>هماهنگی تماس از طریق ایدی تلگرامی @MsnGhmi</t>
+  </si>
+  <si>
     <t>http://s11.picofile.com/file/8392736550/gholami.JPG</t>
   </si>
   <si>
+    <t xml:space="preserve"> 18 فروردین. 8-10 (به وقت ایران)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 فروردین. 8-10 (به وقت ایران)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. 8-10 (به وقت ایران)</t>
+  </si>
+  <si>
     <t>رمضان</t>
   </si>
   <si>
@@ -223,6 +281,30 @@
     <t>http://s11.picofile.com/file/8392736626/jalilvand.JPG</t>
   </si>
   <si>
+    <t>16 فروردین ساعت 9-10</t>
+  </si>
+  <si>
+    <t>17 فروردین ساعت 17 تا 16</t>
+  </si>
+  <si>
+    <t>18 فروردین ساعت 9-10</t>
+  </si>
+  <si>
+    <t>19 فروردین ساعت 17 تا 16</t>
+  </si>
+  <si>
+    <t>20 فروردین ساعت 9-10</t>
+  </si>
+  <si>
+    <t>21 فروردین ساعت 17 تا 16</t>
+  </si>
+  <si>
+    <t>22 فروردین ساعت 9-10</t>
+  </si>
+  <si>
+    <t>22 فروردین ساعت 17 تا 16</t>
+  </si>
+  <si>
     <t>سیدحسین</t>
   </si>
   <si>
@@ -233,18 +315,6 @@
   </si>
   <si>
     <t>http://s11.picofile.com/file/8392741392/kamali.JPG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محمدرضا </t>
-  </si>
-  <si>
-    <t>فرحناک</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>http://s11.picofile.com/file/8392736484/farahnak.JPG</t>
   </si>
   <si>
     <t>جمال</t>
@@ -293,6 +363,12 @@
     <t>http://s11.picofile.com/file/8392736718/miri.JPG</t>
   </si>
   <si>
+    <t xml:space="preserve"> 19 فروردین. ساعت 18-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. ساعت 18-11</t>
+  </si>
+  <si>
     <t>امیر</t>
   </si>
   <si>
@@ -308,15 +384,33 @@
     <t>http://s10.picofile.com/file/8392736726/mollaii.JPG</t>
   </si>
   <si>
+    <t xml:space="preserve"> 19 فروردین. ساعت 18-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. ساعت 18-16</t>
+  </si>
+  <si>
     <t>حسین</t>
   </si>
   <si>
     <t>208</t>
   </si>
   <si>
+    <t>هماهنگی و تماس از طریق شماره تماس 09122508337</t>
+  </si>
+  <si>
     <t>http://s11.picofile.com/file/8392736742/saeed_hosein.JPG</t>
   </si>
   <si>
+    <t>18 فروردین ساعت 19:30 تا 19</t>
+  </si>
+  <si>
+    <t>19 فروردین ساعت 19:30 تا 19</t>
+  </si>
+  <si>
+    <t>20 فروردین ساعت 19:30 تا 19</t>
+  </si>
+  <si>
     <t>احسان</t>
   </si>
   <si>
@@ -335,6 +429,9 @@
     <t>http://s11.picofile.com/file/8392736768/shahparvari.JPG</t>
   </si>
   <si>
+    <t>مهندسی برق - الکترونیک</t>
+  </si>
+  <si>
     <t>علی</t>
   </si>
   <si>
@@ -344,6 +441,11 @@
     <t>108</t>
   </si>
   <si>
+    <t xml:space="preserve">تماس با تلفن همراه یا تماس صوتی با واتساپ
+با شماره: 09127717602
+ترجیح با تماس به شماره تلفن همراه</t>
+  </si>
+  <si>
     <t>http://s11.picofile.com/file/8392736776/tajik.JPG</t>
   </si>
   <si>
@@ -362,19 +464,69 @@
     <t>http://s10.picofile.com/file/8392741726/HajiHasani.JPG</t>
   </si>
   <si>
-    <t>اکبر</t>
-  </si>
-  <si>
-    <t>یوسفی</t>
-  </si>
-  <si>
-    <t>@golam</t>
-  </si>
-  <si>
-    <t>https://ece.ut.ac.ir/image/edu/teacher?img_id=71874335&amp;t=1585488639782</t>
-  </si>
-  <si>
-    <t>پسر خوبیه هستند</t>
+    <t xml:space="preserve"> 19 فروردین. ساعت 22-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. ساعت 22-21</t>
+  </si>
+  <si>
+    <t>خوش اخلاق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هماهنگی تماس از طریق ارسال پیام در تلگرام با ایدی @DrKhoshakhlagh یا واتساپ روی شماره 09124880702
+</t>
+  </si>
+  <si>
+    <t>http://s10.picofile.com/file/8392878418/khoshakhlagh.JPG</t>
+  </si>
+  <si>
+    <t>هجده فروردین. نیم ساعت توافقی</t>
+  </si>
+  <si>
+    <t>نوزده فروردین. نیم ساعت توافقی</t>
+  </si>
+  <si>
+    <t>بیست فروردین. نیم ساعت توافقی</t>
+  </si>
+  <si>
+    <t>حامد</t>
+  </si>
+  <si>
+    <t>عالمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هماهنگی و تماس از طریق شماره همراه 09109339615
+</t>
+  </si>
+  <si>
+    <t>http://s10.picofile.com/file/8392878350/alemi.JPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 فروردین. ساعت 18-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. ساعت 18-17</t>
+  </si>
+  <si>
+    <t>محمدمتین</t>
+  </si>
+  <si>
+    <t>بهزادی</t>
+  </si>
+  <si>
+    <t>هماهنگی و تماس از طریق تماس تلفنی یا پیامک از طریق شماره همراه 09198958869</t>
+  </si>
+  <si>
+    <t>http://s11.picofile.com/file/8392878392/behzadi.JPG</t>
+  </si>
+  <si>
+    <t>هجده فروردین 20-20:30</t>
+  </si>
+  <si>
+    <t>نوزده فروردین 20-20:30</t>
+  </si>
+  <si>
+    <t>بیست فروردین 20-20:30</t>
   </si>
 </sst>
 </file>
@@ -407,23 +559,24 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="B nazanin"/>
     </font>
     <font>
+      <color rgb="FF008080"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Noto Sans Symbols"/>
+    </font>
+    <font>
+      <u/>
+      <color theme="10"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="5">
@@ -452,7 +605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -508,11 +661,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -532,7 +698,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -541,17 +707,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -562,22 +728,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -921,9 +1090,7 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
+      <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
@@ -945,28 +1112,20 @@
       <c r="I3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="11"/>
+      <c r="J3" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="K3" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -993,25 +1152,13 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="13">
-        <v>1</v>
-      </c>
-      <c r="L4" s="13">
-        <v>1</v>
-      </c>
-      <c r="M4" s="13">
-        <v>1</v>
-      </c>
-      <c r="N4" s="13">
-        <v>1</v>
-      </c>
-      <c r="O4" s="13">
-        <v>1</v>
-      </c>
-      <c r="P4" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="13"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -1031,42 +1178,42 @@
       <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="13"/>
       <c r="L5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -1093,13 +1240,13 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -1119,46 +1266,38 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="14">
-        <v>3</v>
-      </c>
+      <c r="B7" s="14"/>
       <c r="C7" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="J7" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -1184,14 +1323,14 @@
       <c r="G8" s="8"/>
       <c r="H8" s="16"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -1211,9 +1350,7 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="14">
-        <v>4</v>
-      </c>
+      <c r="B9" s="14"/>
       <c r="C9" s="15" t="s">
         <v>45</v>
       </c>
@@ -1221,7 +1358,7 @@
         <v>46</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>47</v>
@@ -1230,23 +1367,35 @@
         <v>48</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="K9" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -1272,16 +1421,14 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13">
-        <v>2</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -1301,38 +1448,42 @@
       <c r="A11" s="8">
         <v>5</v>
       </c>
-      <c r="B11" s="14">
-        <v>5</v>
-      </c>
+      <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
+      <c r="L11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -1356,16 +1507,16 @@
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -1385,38 +1536,42 @@
       <c r="A13" s="8">
         <v>6</v>
       </c>
-      <c r="B13" s="14">
-        <v>6</v>
-      </c>
+      <c r="B13" s="14"/>
       <c r="C13" s="15" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -1442,14 +1597,14 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -1469,38 +1624,44 @@
       <c r="A15" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="14">
-        <v>7</v>
-      </c>
+      <c r="B15" s="14"/>
       <c r="C15" s="15" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>31</v>
+        <v>75</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -1524,16 +1685,16 @@
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -1553,38 +1714,38 @@
       <c r="A17" s="8">
         <v>8</v>
       </c>
-      <c r="B17" s="14">
-        <v>8</v>
-      </c>
+      <c r="B17" s="14"/>
       <c r="C17" s="15" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -1610,14 +1771,14 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -1637,39 +1798,55 @@
       <c r="A19" s="8">
         <v>9</v>
       </c>
-      <c r="B19" s="14">
-        <v>9</v>
-      </c>
+      <c r="B19" s="14"/>
       <c r="C19" s="15" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -1694,14 +1871,14 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
@@ -1721,38 +1898,38 @@
       <c r="A21" s="8">
         <v>10</v>
       </c>
-      <c r="B21" s="14">
-        <v>10</v>
-      </c>
+      <c r="B21" s="14"/>
       <c r="C21" s="15" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -1778,14 +1955,14 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -1805,38 +1982,38 @@
       <c r="A23" s="8">
         <v>11</v>
       </c>
-      <c r="B23" s="14">
-        <v>11</v>
-      </c>
+      <c r="B23" s="14"/>
       <c r="C23" s="15" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="8"/>
+        <v>105</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -1862,14 +2039,14 @@
       <c r="G24" s="8"/>
       <c r="H24" s="16"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -1889,14 +2066,12 @@
       <c r="A25" s="8">
         <v>12</v>
       </c>
-      <c r="B25" s="14">
-        <v>12</v>
-      </c>
+      <c r="B25" s="14"/>
       <c r="C25" s="15" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>20</v>
@@ -1905,22 +2080,24 @@
         <v>21</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25" s="8"/>
+        <v>110</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -1946,14 +2123,14 @@
       <c r="G26" s="8"/>
       <c r="H26" s="16"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -1973,38 +2150,42 @@
       <c r="A27" s="8">
         <v>13</v>
       </c>
-      <c r="B27" s="14">
-        <v>13</v>
-      </c>
+      <c r="B27" s="14"/>
       <c r="C27" s="15" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="L27" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -2030,14 +2211,14 @@
       <c r="G28" s="8"/>
       <c r="H28" s="16"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -2057,38 +2238,42 @@
       <c r="A29" s="8">
         <v>14</v>
       </c>
-      <c r="B29" s="14">
-        <v>14</v>
-      </c>
+      <c r="B29" s="14"/>
       <c r="C29" s="15" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J29" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="L29" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -2114,14 +2299,14 @@
       <c r="G30" s="8"/>
       <c r="H30" s="16"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -2141,38 +2326,44 @@
       <c r="A31" s="8">
         <v>15</v>
       </c>
-      <c r="B31" s="14">
-        <v>15</v>
-      </c>
+      <c r="B31" s="14"/>
       <c r="C31" s="15" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>31</v>
+        <v>126</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+        <v>128</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
@@ -2196,16 +2387,16 @@
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
@@ -2225,38 +2416,38 @@
       <c r="A33" s="8">
         <v>16</v>
       </c>
-      <c r="B33" s="14">
-        <v>16</v>
-      </c>
+      <c r="B33" s="14"/>
       <c r="C33" s="15" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33" s="8"/>
+        <v>137</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>138</v>
+      </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -2282,14 +2473,14 @@
       <c r="G34" s="8"/>
       <c r="H34" s="16"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
@@ -2309,38 +2500,38 @@
       <c r="A35" s="8">
         <v>17</v>
       </c>
-      <c r="B35" s="14">
-        <v>17</v>
-      </c>
+      <c r="B35" s="14"/>
       <c r="C35" s="15" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>31</v>
+        <v>141</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J35" s="8"/>
+        <v>143</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
@@ -2364,16 +2555,16 @@
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="H36" s="16"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
@@ -2393,14 +2584,12 @@
       <c r="A37" s="8">
         <v>18</v>
       </c>
-      <c r="B37" s="14">
-        <v>18</v>
-      </c>
+      <c r="B37" s="14"/>
       <c r="C37" s="15" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>20</v>
@@ -2409,22 +2598,28 @@
         <v>21</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+        <v>148</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="L37" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -2450,14 +2645,14 @@
       <c r="G38" s="8"/>
       <c r="H38" s="16"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
@@ -2478,39 +2673,41 @@
         <v>19</v>
       </c>
       <c r="B39" s="14"/>
-      <c r="C39" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="17" t="s">
+      <c r="C39" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="17">
-        <v>1234</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
+      <c r="F39" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="M39" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -2529,21 +2726,21 @@
     <row r="40" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
@@ -2564,21 +2761,39 @@
         <v>20</v>
       </c>
       <c r="B41" s="14"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="8"/>
+      <c r="C41" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="H41" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
+      <c r="L41" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -2597,21 +2812,21 @@
     <row r="42" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="8"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
@@ -2632,21 +2847,41 @@
         <v>21</v>
       </c>
       <c r="B43" s="14"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="8"/>
+      <c r="C43" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
+      <c r="H43" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M43" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
@@ -2665,21 +2900,21 @@
     <row r="44" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="8"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
@@ -2700,21 +2935,21 @@
         <v>22</v>
       </c>
       <c r="B45" s="14"/>
-      <c r="C45" s="21"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="21"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -2733,21 +2968,21 @@
     <row r="46" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="21"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="21"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
@@ -2768,21 +3003,21 @@
         <v>23</v>
       </c>
       <c r="B47" s="14"/>
-      <c r="C47" s="21"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="21"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -2801,21 +3036,21 @@
     <row r="48" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="21"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="21"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -2836,21 +3071,21 @@
         <v>24</v>
       </c>
       <c r="B49" s="14"/>
-      <c r="C49" s="21"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="21"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
@@ -2869,21 +3104,21 @@
     <row r="50" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="21"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="21"/>
+      <c r="E50" s="23"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
@@ -2904,21 +3139,21 @@
         <v>25</v>
       </c>
       <c r="B51" s="14"/>
-      <c r="C51" s="21"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="21"/>
+      <c r="E51" s="23"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
@@ -2937,21 +3172,21 @@
     <row r="52" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="21"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="21"/>
+      <c r="E52" s="23"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
@@ -2972,21 +3207,21 @@
         <v>26</v>
       </c>
       <c r="B53" s="14"/>
-      <c r="C53" s="21"/>
+      <c r="C53" s="23"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="21"/>
+      <c r="E53" s="23"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
@@ -3005,21 +3240,21 @@
     <row r="54" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="21"/>
+      <c r="C54" s="23"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="21"/>
+      <c r="E54" s="23"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
@@ -3040,21 +3275,21 @@
         <v>27</v>
       </c>
       <c r="B55" s="14"/>
-      <c r="C55" s="21"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="21"/>
+      <c r="E55" s="23"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
@@ -3073,21 +3308,21 @@
     <row r="56" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="21"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="21"/>
+      <c r="E56" s="23"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
@@ -3108,21 +3343,21 @@
         <v>28</v>
       </c>
       <c r="B57" s="14"/>
-      <c r="C57" s="21"/>
+      <c r="C57" s="23"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="21"/>
+      <c r="E57" s="23"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -3141,21 +3376,21 @@
     <row r="58" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="21"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="21"/>
+      <c r="E58" s="23"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
@@ -3176,21 +3411,21 @@
         <v>29</v>
       </c>
       <c r="B59" s="14"/>
-      <c r="C59" s="21"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="21"/>
+      <c r="E59" s="23"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
@@ -3209,21 +3444,21 @@
     <row r="60" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="21"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="8"/>
-      <c r="E60" s="21"/>
+      <c r="E60" s="23"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
@@ -3244,21 +3479,21 @@
         <v>30</v>
       </c>
       <c r="B61" s="14"/>
-      <c r="C61" s="21"/>
+      <c r="C61" s="23"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="21"/>
+      <c r="E61" s="23"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
@@ -3277,21 +3512,21 @@
     <row r="62" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="21"/>
+      <c r="C62" s="23"/>
       <c r="D62" s="8"/>
-      <c r="E62" s="21"/>
+      <c r="E62" s="23"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
@@ -3312,21 +3547,21 @@
         <v>31</v>
       </c>
       <c r="B63" s="14"/>
-      <c r="C63" s="21"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="21"/>
+      <c r="E63" s="23"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
@@ -3345,21 +3580,21 @@
     <row r="64" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="21"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="21"/>
+      <c r="E64" s="23"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
       <c r="T64" s="7"/>
@@ -3380,21 +3615,21 @@
         <v>32</v>
       </c>
       <c r="B65" s="14"/>
-      <c r="C65" s="21"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="21"/>
+      <c r="E65" s="23"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
@@ -3413,21 +3648,21 @@
     <row r="66" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="21"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="21"/>
+      <c r="E66" s="23"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
@@ -3448,21 +3683,21 @@
         <v>33</v>
       </c>
       <c r="B67" s="14"/>
-      <c r="C67" s="21"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="21"/>
+      <c r="E67" s="23"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
@@ -3481,21 +3716,21 @@
     <row r="68" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="21"/>
+      <c r="C68" s="23"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="21"/>
+      <c r="E68" s="23"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="22"/>
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
       <c r="T68" s="7"/>
@@ -3516,21 +3751,21 @@
         <v>34</v>
       </c>
       <c r="B69" s="14"/>
-      <c r="C69" s="21"/>
+      <c r="C69" s="23"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="21"/>
+      <c r="E69" s="23"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
@@ -3549,21 +3784,21 @@
     <row r="70" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="21"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="21"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="22"/>
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
       <c r="T70" s="7"/>
@@ -3584,21 +3819,21 @@
         <v>35</v>
       </c>
       <c r="B71" s="14"/>
-      <c r="C71" s="21"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="21"/>
+      <c r="E71" s="23"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="22"/>
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
@@ -3617,21 +3852,21 @@
     <row r="72" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="21"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="21"/>
+      <c r="E72" s="23"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
@@ -3652,21 +3887,21 @@
         <v>36</v>
       </c>
       <c r="B73" s="14"/>
-      <c r="C73" s="21"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="21"/>
+      <c r="E73" s="23"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="22"/>
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
@@ -3685,21 +3920,21 @@
     <row r="74" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="21"/>
+      <c r="C74" s="23"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="21"/>
+      <c r="E74" s="23"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
@@ -3720,21 +3955,21 @@
         <v>37</v>
       </c>
       <c r="B75" s="14"/>
-      <c r="C75" s="21"/>
+      <c r="C75" s="23"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="21"/>
+      <c r="E75" s="23"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
@@ -3753,21 +3988,21 @@
     <row r="76" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="21"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="8"/>
-      <c r="E76" s="21"/>
+      <c r="E76" s="23"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
       <c r="T76" s="7"/>
@@ -3788,21 +4023,21 @@
         <v>38</v>
       </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="21"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="21"/>
+      <c r="E77" s="23"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
@@ -3821,21 +4056,21 @@
     <row r="78" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="21"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="8"/>
-      <c r="E78" s="21"/>
+      <c r="E78" s="23"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
@@ -3856,21 +4091,21 @@
         <v>39</v>
       </c>
       <c r="B79" s="14"/>
-      <c r="C79" s="21"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="21"/>
+      <c r="E79" s="23"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="22"/>
+      <c r="Q79" s="22"/>
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
@@ -3889,21 +4124,21 @@
     <row r="80" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="21"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="8"/>
-      <c r="E80" s="21"/>
+      <c r="E80" s="23"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="22"/>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
@@ -3924,21 +4159,21 @@
         <v>40</v>
       </c>
       <c r="B81" s="14"/>
-      <c r="C81" s="21"/>
+      <c r="C81" s="23"/>
       <c r="D81" s="8"/>
-      <c r="E81" s="21"/>
+      <c r="E81" s="23"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
+      <c r="Q81" s="22"/>
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
@@ -3957,21 +4192,21 @@
     <row r="82" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="21"/>
+      <c r="C82" s="23"/>
       <c r="D82" s="8"/>
-      <c r="E82" s="21"/>
+      <c r="E82" s="23"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="22"/>
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
       <c r="T82" s="7"/>
@@ -3992,7 +4227,7 @@
         <v>41</v>
       </c>
       <c r="B83" s="14"/>
-      <c r="C83" s="21"/>
+      <c r="C83" s="23"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -4000,13 +4235,13 @@
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
@@ -4025,7 +4260,7 @@
     <row r="84" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="21"/>
+      <c r="C84" s="23"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -4033,13 +4268,13 @@
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
       <c r="T84" s="7"/>
@@ -4060,21 +4295,21 @@
         <v>42</v>
       </c>
       <c r="B85" s="14"/>
-      <c r="C85" s="21"/>
+      <c r="C85" s="23"/>
       <c r="D85" s="8"/>
-      <c r="E85" s="21"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="13"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="22"/>
+      <c r="Q85" s="22"/>
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
@@ -4093,21 +4328,21 @@
     <row r="86" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="21"/>
+      <c r="C86" s="23"/>
       <c r="D86" s="8"/>
-      <c r="E86" s="21"/>
+      <c r="E86" s="23"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="22"/>
+      <c r="Q86" s="22"/>
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
@@ -4128,21 +4363,21 @@
         <v>43</v>
       </c>
       <c r="B87" s="14"/>
-      <c r="C87" s="21"/>
+      <c r="C87" s="23"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="21"/>
+      <c r="E87" s="23"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="13"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
+      <c r="Q87" s="22"/>
       <c r="R87" s="7"/>
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
@@ -4161,21 +4396,21 @@
     <row r="88" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="21"/>
+      <c r="C88" s="23"/>
       <c r="D88" s="8"/>
-      <c r="E88" s="21"/>
+      <c r="E88" s="23"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="13"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
+      <c r="Q88" s="22"/>
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
@@ -4196,21 +4431,21 @@
         <v>44</v>
       </c>
       <c r="B89" s="14"/>
-      <c r="C89" s="21"/>
+      <c r="C89" s="23"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="21"/>
+      <c r="E89" s="23"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="13"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="22"/>
       <c r="R89" s="7"/>
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
@@ -4229,21 +4464,21 @@
     <row r="90" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="21"/>
+      <c r="C90" s="23"/>
       <c r="D90" s="8"/>
-      <c r="E90" s="21"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13"/>
-      <c r="Q90" s="13"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
+      <c r="Q90" s="22"/>
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
       <c r="T90" s="7"/>
@@ -4261,7 +4496,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
-      <c r="B91" s="22"/>
+      <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -4294,7 +4529,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
-      <c r="B92" s="22"/>
+      <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -4327,7 +4562,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
-      <c r="B93" s="22"/>
+      <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -4360,7 +4595,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
-      <c r="B94" s="22"/>
+      <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -4393,7 +4628,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
-      <c r="B95" s="22"/>
+      <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -4426,7 +4661,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
-      <c r="B96" s="22"/>
+      <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -4459,7 +4694,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
-      <c r="B97" s="22"/>
+      <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -4492,7 +4727,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
-      <c r="B98" s="22"/>
+      <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -4525,7 +4760,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
-      <c r="B99" s="22"/>
+      <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -4558,7 +4793,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
-      <c r="B100" s="22"/>
+      <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -4591,7 +4826,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
-      <c r="B101" s="22"/>
+      <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -4624,7 +4859,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
-      <c r="B102" s="22"/>
+      <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -4657,7 +4892,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
-      <c r="B103" s="22"/>
+      <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -4690,7 +4925,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
-      <c r="B104" s="22"/>
+      <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -4723,7 +4958,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
-      <c r="B105" s="22"/>
+      <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -4756,7 +4991,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
-      <c r="B106" s="22"/>
+      <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -4789,7 +5024,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
-      <c r="B107" s="22"/>
+      <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -4822,7 +5057,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
-      <c r="B108" s="22"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -4855,7 +5090,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
-      <c r="B109" s="22"/>
+      <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -4888,7 +5123,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
-      <c r="B110" s="22"/>
+      <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -4921,7 +5156,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
-      <c r="B111" s="22"/>
+      <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -4954,7 +5189,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
-      <c r="B112" s="22"/>
+      <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -4987,7 +5222,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
-      <c r="B113" s="22"/>
+      <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -5020,7 +5255,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
-      <c r="B114" s="22"/>
+      <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -5053,7 +5288,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
-      <c r="B115" s="22"/>
+      <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -5086,7 +5321,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
-      <c r="B116" s="22"/>
+      <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -5119,7 +5354,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
-      <c r="B117" s="22"/>
+      <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -5152,7 +5387,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
-      <c r="B118" s="22"/>
+      <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -5185,7 +5420,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
-      <c r="B119" s="22"/>
+      <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -5218,7 +5453,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
-      <c r="B120" s="22"/>
+      <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -5251,7 +5486,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
-      <c r="B121" s="22"/>
+      <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -5284,7 +5519,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
-      <c r="B122" s="22"/>
+      <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -5317,7 +5552,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
-      <c r="B123" s="22"/>
+      <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -5350,7 +5585,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
-      <c r="B124" s="22"/>
+      <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -5383,7 +5618,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
-      <c r="B125" s="22"/>
+      <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -5416,7 +5651,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
-      <c r="B126" s="22"/>
+      <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -5449,7 +5684,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
-      <c r="B127" s="22"/>
+      <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -5482,7 +5717,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
-      <c r="B128" s="22"/>
+      <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -5515,7 +5750,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
-      <c r="B129" s="22"/>
+      <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -5548,7 +5783,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
-      <c r="B130" s="22"/>
+      <c r="B130" s="7"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -5581,7 +5816,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
-      <c r="B131" s="22"/>
+      <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
@@ -5614,7 +5849,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
-      <c r="B132" s="22"/>
+      <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
@@ -5647,7 +5882,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
-      <c r="B133" s="22"/>
+      <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -5680,7 +5915,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
-      <c r="B134" s="22"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -5713,7 +5948,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
-      <c r="B135" s="22"/>
+      <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
@@ -5746,7 +5981,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
-      <c r="B136" s="22"/>
+      <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -5779,7 +6014,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
-      <c r="B137" s="22"/>
+      <c r="B137" s="7"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
@@ -5812,7 +6047,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
-      <c r="B138" s="22"/>
+      <c r="B138" s="7"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
@@ -5845,7 +6080,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
-      <c r="B139" s="22"/>
+      <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -5878,7 +6113,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
-      <c r="B140" s="22"/>
+      <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
@@ -5911,7 +6146,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
-      <c r="B141" s="22"/>
+      <c r="B141" s="7"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -5944,7 +6179,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
-      <c r="B142" s="22"/>
+      <c r="B142" s="7"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -5977,7 +6212,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
-      <c r="B143" s="22"/>
+      <c r="B143" s="7"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
@@ -6010,7 +6245,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
-      <c r="B144" s="22"/>
+      <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -6043,7 +6278,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
-      <c r="B145" s="22"/>
+      <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -6076,7 +6311,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
-      <c r="B146" s="22"/>
+      <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -6109,7 +6344,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
-      <c r="B147" s="22"/>
+      <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -6142,7 +6377,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
-      <c r="B148" s="22"/>
+      <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -6175,7 +6410,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
-      <c r="B149" s="22"/>
+      <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -6208,7 +6443,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
-      <c r="B150" s="22"/>
+      <c r="B150" s="7"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -6241,7 +6476,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
-      <c r="B151" s="22"/>
+      <c r="B151" s="7"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -6274,7 +6509,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
-      <c r="B152" s="22"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -6307,7 +6542,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="22"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -6340,7 +6575,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="22"/>
+      <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -6373,7 +6608,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
-      <c r="B155" s="22"/>
+      <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -6406,7 +6641,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="22"/>
+      <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -6439,7 +6674,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="22"/>
+      <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -6472,7 +6707,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="22"/>
+      <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -6505,7 +6740,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="22"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -6538,7 +6773,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="22"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -6571,7 +6806,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
-      <c r="B161" s="22"/>
+      <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -6604,7 +6839,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="22"/>
+      <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -6637,7 +6872,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
-      <c r="B163" s="22"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -6670,7 +6905,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
-      <c r="B164" s="22"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -6703,7 +6938,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
-      <c r="B165" s="22"/>
+      <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -6736,7 +6971,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
-      <c r="B166" s="22"/>
+      <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -6769,7 +7004,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
-      <c r="B167" s="22"/>
+      <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -6802,7 +7037,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
-      <c r="B168" s="22"/>
+      <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -6835,7 +7070,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
-      <c r="B169" s="22"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -6868,7 +7103,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
-      <c r="B170" s="22"/>
+      <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -6901,7 +7136,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
-      <c r="B171" s="22"/>
+      <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -6934,7 +7169,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
-      <c r="B172" s="22"/>
+      <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -6967,7 +7202,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
-      <c r="B173" s="22"/>
+      <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -7000,7 +7235,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
-      <c r="B174" s="22"/>
+      <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -7033,7 +7268,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
-      <c r="B175" s="22"/>
+      <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -7066,7 +7301,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
-      <c r="B176" s="22"/>
+      <c r="B176" s="7"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -7099,7 +7334,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
-      <c r="B177" s="22"/>
+      <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -7132,7 +7367,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
-      <c r="B178" s="22"/>
+      <c r="B178" s="7"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -7165,7 +7400,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
-      <c r="B179" s="22"/>
+      <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -7198,7 +7433,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
-      <c r="B180" s="22"/>
+      <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -7231,7 +7466,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
-      <c r="B181" s="22"/>
+      <c r="B181" s="7"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -7264,7 +7499,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
-      <c r="B182" s="22"/>
+      <c r="B182" s="7"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -7297,7 +7532,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
-      <c r="B183" s="22"/>
+      <c r="B183" s="7"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -7330,7 +7565,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
-      <c r="B184" s="22"/>
+      <c r="B184" s="7"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -7363,7 +7598,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
-      <c r="B185" s="22"/>
+      <c r="B185" s="7"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -7396,7 +7631,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
-      <c r="B186" s="22"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -7429,7 +7664,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
-      <c r="B187" s="22"/>
+      <c r="B187" s="7"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -7462,7 +7697,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
-      <c r="B188" s="22"/>
+      <c r="B188" s="7"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -7495,7 +7730,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
-      <c r="B189" s="22"/>
+      <c r="B189" s="7"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -7528,7 +7763,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
-      <c r="B190" s="22"/>
+      <c r="B190" s="7"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -7561,7 +7796,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
-      <c r="B191" s="22"/>
+      <c r="B191" s="7"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -7594,7 +7829,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
-      <c r="B192" s="22"/>
+      <c r="B192" s="7"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -7627,7 +7862,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
-      <c r="B193" s="22"/>
+      <c r="B193" s="7"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -7660,7 +7895,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
-      <c r="B194" s="22"/>
+      <c r="B194" s="7"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -7693,7 +7928,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
-      <c r="B195" s="22"/>
+      <c r="B195" s="7"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -7726,7 +7961,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
-      <c r="B196" s="22"/>
+      <c r="B196" s="7"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -7759,7 +7994,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
-      <c r="B197" s="22"/>
+      <c r="B197" s="7"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -7792,7 +8027,7 @@
     </row>
     <row r="198" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
-      <c r="B198" s="22"/>
+      <c r="B198" s="7"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -7825,7 +8060,7 @@
     </row>
     <row r="199" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
-      <c r="B199" s="22"/>
+      <c r="B199" s="7"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -7858,7 +8093,7 @@
     </row>
     <row r="200" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
-      <c r="B200" s="22"/>
+      <c r="B200" s="7"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -7891,7 +8126,7 @@
     </row>
     <row r="201" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
-      <c r="B201" s="22"/>
+      <c r="B201" s="7"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -7924,7 +8159,7 @@
     </row>
     <row r="202" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
-      <c r="B202" s="22"/>
+      <c r="B202" s="7"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -7957,7 +8192,7 @@
     </row>
     <row r="203" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
-      <c r="B203" s="22"/>
+      <c r="B203" s="7"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -7990,7 +8225,7 @@
     </row>
     <row r="204" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
-      <c r="B204" s="22"/>
+      <c r="B204" s="7"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -8023,7 +8258,7 @@
     </row>
     <row r="205" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
-      <c r="B205" s="22"/>
+      <c r="B205" s="7"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -8056,7 +8291,7 @@
     </row>
     <row r="206" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
-      <c r="B206" s="22"/>
+      <c r="B206" s="7"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -8089,7 +8324,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
-      <c r="B207" s="22"/>
+      <c r="B207" s="7"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -8122,7 +8357,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
-      <c r="B208" s="22"/>
+      <c r="B208" s="7"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -8155,7 +8390,7 @@
     </row>
     <row r="209" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
-      <c r="B209" s="22"/>
+      <c r="B209" s="7"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -8188,7 +8423,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
-      <c r="B210" s="22"/>
+      <c r="B210" s="7"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -8221,7 +8456,7 @@
     </row>
     <row r="211" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
-      <c r="B211" s="22"/>
+      <c r="B211" s="7"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -8254,7 +8489,7 @@
     </row>
     <row r="212" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
-      <c r="B212" s="22"/>
+      <c r="B212" s="7"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -8287,7 +8522,7 @@
     </row>
     <row r="213" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
-      <c r="B213" s="22"/>
+      <c r="B213" s="7"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -8320,7 +8555,7 @@
     </row>
     <row r="214" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
-      <c r="B214" s="22"/>
+      <c r="B214" s="7"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -8353,7 +8588,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
-      <c r="B215" s="22"/>
+      <c r="B215" s="7"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -8386,7 +8621,7 @@
     </row>
     <row r="216" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
-      <c r="B216" s="22"/>
+      <c r="B216" s="7"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -8419,7 +8654,7 @@
     </row>
     <row r="217" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
-      <c r="B217" s="22"/>
+      <c r="B217" s="7"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -8452,7 +8687,7 @@
     </row>
     <row r="218" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
-      <c r="B218" s="22"/>
+      <c r="B218" s="7"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -8485,7 +8720,7 @@
     </row>
     <row r="219" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
-      <c r="B219" s="22"/>
+      <c r="B219" s="7"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -8518,7 +8753,7 @@
     </row>
     <row r="220" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
-      <c r="B220" s="22"/>
+      <c r="B220" s="7"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -8551,7 +8786,7 @@
     </row>
     <row r="221" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
-      <c r="B221" s="22"/>
+      <c r="B221" s="7"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -8584,7 +8819,7 @@
     </row>
     <row r="222" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
-      <c r="B222" s="22"/>
+      <c r="B222" s="7"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -8617,7 +8852,7 @@
     </row>
     <row r="223" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
-      <c r="B223" s="22"/>
+      <c r="B223" s="7"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -8650,7 +8885,7 @@
     </row>
     <row r="224" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
-      <c r="B224" s="22"/>
+      <c r="B224" s="7"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -8683,7 +8918,7 @@
     </row>
     <row r="225" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
-      <c r="B225" s="22"/>
+      <c r="B225" s="7"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -8716,7 +8951,7 @@
     </row>
     <row r="226" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
-      <c r="B226" s="22"/>
+      <c r="B226" s="7"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -8749,7 +8984,7 @@
     </row>
     <row r="227" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
-      <c r="B227" s="22"/>
+      <c r="B227" s="7"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -8782,7 +9017,7 @@
     </row>
     <row r="228" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
-      <c r="B228" s="22"/>
+      <c r="B228" s="7"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -8815,7 +9050,7 @@
     </row>
     <row r="229" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
-      <c r="B229" s="22"/>
+      <c r="B229" s="7"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -8848,7 +9083,7 @@
     </row>
     <row r="230" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
-      <c r="B230" s="22"/>
+      <c r="B230" s="7"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -8881,7 +9116,7 @@
     </row>
     <row r="231" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
-      <c r="B231" s="22"/>
+      <c r="B231" s="7"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -8914,7 +9149,7 @@
     </row>
     <row r="232" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
-      <c r="B232" s="22"/>
+      <c r="B232" s="7"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -8947,7 +9182,7 @@
     </row>
     <row r="233" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
-      <c r="B233" s="22"/>
+      <c r="B233" s="7"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -8980,7 +9215,7 @@
     </row>
     <row r="234" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
-      <c r="B234" s="22"/>
+      <c r="B234" s="7"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -9013,7 +9248,7 @@
     </row>
     <row r="235" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
-      <c r="B235" s="22"/>
+      <c r="B235" s="7"/>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -9046,7 +9281,7 @@
     </row>
     <row r="236" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
-      <c r="B236" s="22"/>
+      <c r="B236" s="7"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -9079,7 +9314,7 @@
     </row>
     <row r="237" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
-      <c r="B237" s="22"/>
+      <c r="B237" s="7"/>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -9112,7 +9347,7 @@
     </row>
     <row r="238" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
-      <c r="B238" s="22"/>
+      <c r="B238" s="7"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -9145,7 +9380,7 @@
     </row>
     <row r="239" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
-      <c r="B239" s="22"/>
+      <c r="B239" s="7"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -9178,7 +9413,7 @@
     </row>
     <row r="240" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
-      <c r="B240" s="22"/>
+      <c r="B240" s="7"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -9211,7 +9446,7 @@
     </row>
     <row r="241" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
-      <c r="B241" s="22"/>
+      <c r="B241" s="7"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -9244,7 +9479,7 @@
     </row>
     <row r="242" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
-      <c r="B242" s="22"/>
+      <c r="B242" s="7"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -9277,7 +9512,7 @@
     </row>
     <row r="243" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
-      <c r="B243" s="22"/>
+      <c r="B243" s="7"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -9310,7 +9545,7 @@
     </row>
     <row r="244" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
-      <c r="B244" s="22"/>
+      <c r="B244" s="7"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -9343,7 +9578,7 @@
     </row>
     <row r="245" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
-      <c r="B245" s="22"/>
+      <c r="B245" s="7"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -9376,7 +9611,7 @@
     </row>
     <row r="246" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
-      <c r="B246" s="22"/>
+      <c r="B246" s="7"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -9409,7 +9644,7 @@
     </row>
     <row r="247" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A247" s="7"/>
-      <c r="B247" s="22"/>
+      <c r="B247" s="7"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -9442,7 +9677,7 @@
     </row>
     <row r="248" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
-      <c r="B248" s="22"/>
+      <c r="B248" s="7"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -9475,7 +9710,7 @@
     </row>
     <row r="249" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
-      <c r="B249" s="22"/>
+      <c r="B249" s="7"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -9508,7 +9743,7 @@
     </row>
     <row r="250" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A250" s="7"/>
-      <c r="B250" s="22"/>
+      <c r="B250" s="7"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -9541,7 +9776,7 @@
     </row>
     <row r="251" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
-      <c r="B251" s="22"/>
+      <c r="B251" s="7"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -9574,7 +9809,7 @@
     </row>
     <row r="252" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
-      <c r="B252" s="22"/>
+      <c r="B252" s="7"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -9607,7 +9842,7 @@
     </row>
     <row r="253" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A253" s="7"/>
-      <c r="B253" s="22"/>
+      <c r="B253" s="7"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -9640,7 +9875,7 @@
     </row>
     <row r="254" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
-      <c r="B254" s="22"/>
+      <c r="B254" s="7"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -9673,7 +9908,7 @@
     </row>
     <row r="255" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
-      <c r="B255" s="22"/>
+      <c r="B255" s="7"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -9706,7 +9941,7 @@
     </row>
     <row r="256" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
-      <c r="B256" s="22"/>
+      <c r="B256" s="7"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -9739,7 +9974,7 @@
     </row>
     <row r="257" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
-      <c r="B257" s="22"/>
+      <c r="B257" s="7"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -9772,7 +10007,7 @@
     </row>
     <row r="258" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A258" s="7"/>
-      <c r="B258" s="22"/>
+      <c r="B258" s="7"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -9805,7 +10040,7 @@
     </row>
     <row r="259" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
-      <c r="B259" s="22"/>
+      <c r="B259" s="7"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -9838,7 +10073,7 @@
     </row>
     <row r="260" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
-      <c r="B260" s="22"/>
+      <c r="B260" s="7"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -9871,7 +10106,7 @@
     </row>
     <row r="261" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A261" s="7"/>
-      <c r="B261" s="22"/>
+      <c r="B261" s="7"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -9904,7 +10139,7 @@
     </row>
     <row r="262" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A262" s="7"/>
-      <c r="B262" s="22"/>
+      <c r="B262" s="7"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -9937,7 +10172,7 @@
     </row>
     <row r="263" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A263" s="7"/>
-      <c r="B263" s="22"/>
+      <c r="B263" s="7"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -9970,7 +10205,7 @@
     </row>
     <row r="264" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
-      <c r="B264" s="22"/>
+      <c r="B264" s="7"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -10003,7 +10238,7 @@
     </row>
     <row r="265" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A265" s="7"/>
-      <c r="B265" s="22"/>
+      <c r="B265" s="7"/>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -10036,7 +10271,7 @@
     </row>
     <row r="266" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A266" s="7"/>
-      <c r="B266" s="22"/>
+      <c r="B266" s="7"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -10069,7 +10304,7 @@
     </row>
     <row r="267" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A267" s="7"/>
-      <c r="B267" s="22"/>
+      <c r="B267" s="7"/>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -10102,7 +10337,7 @@
     </row>
     <row r="268" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A268" s="7"/>
-      <c r="B268" s="22"/>
+      <c r="B268" s="7"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -10135,7 +10370,7 @@
     </row>
     <row r="269" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A269" s="7"/>
-      <c r="B269" s="22"/>
+      <c r="B269" s="7"/>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -10168,7 +10403,7 @@
     </row>
     <row r="270" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
-      <c r="B270" s="22"/>
+      <c r="B270" s="7"/>
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -10201,7 +10436,7 @@
     </row>
     <row r="271" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
-      <c r="B271" s="22"/>
+      <c r="B271" s="7"/>
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -10234,7 +10469,7 @@
     </row>
     <row r="272" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
-      <c r="B272" s="22"/>
+      <c r="B272" s="7"/>
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -10267,7 +10502,7 @@
     </row>
     <row r="273" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
-      <c r="B273" s="22"/>
+      <c r="B273" s="7"/>
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -10300,7 +10535,7 @@
     </row>
     <row r="274" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A274" s="7"/>
-      <c r="B274" s="22"/>
+      <c r="B274" s="7"/>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -10333,7 +10568,7 @@
     </row>
     <row r="275" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
-      <c r="B275" s="22"/>
+      <c r="B275" s="7"/>
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -10366,7 +10601,7 @@
     </row>
     <row r="276" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
-      <c r="B276" s="22"/>
+      <c r="B276" s="7"/>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -10399,7 +10634,7 @@
     </row>
     <row r="277" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
-      <c r="B277" s="22"/>
+      <c r="B277" s="7"/>
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -10432,7 +10667,7 @@
     </row>
     <row r="278" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
-      <c r="B278" s="22"/>
+      <c r="B278" s="7"/>
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -10465,7 +10700,7 @@
     </row>
     <row r="279" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
-      <c r="B279" s="22"/>
+      <c r="B279" s="7"/>
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -10498,7 +10733,7 @@
     </row>
     <row r="280" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A280" s="7"/>
-      <c r="B280" s="22"/>
+      <c r="B280" s="7"/>
       <c r="C280" s="7"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -10531,7 +10766,7 @@
     </row>
     <row r="281" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
-      <c r="B281" s="22"/>
+      <c r="B281" s="7"/>
       <c r="C281" s="7"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -10564,7 +10799,7 @@
     </row>
     <row r="282" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
-      <c r="B282" s="22"/>
+      <c r="B282" s="7"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -10597,7 +10832,7 @@
     </row>
     <row r="283" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
-      <c r="B283" s="22"/>
+      <c r="B283" s="7"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -10630,7 +10865,7 @@
     </row>
     <row r="284" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
-      <c r="B284" s="22"/>
+      <c r="B284" s="7"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -10663,7 +10898,7 @@
     </row>
     <row r="285" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A285" s="7"/>
-      <c r="B285" s="22"/>
+      <c r="B285" s="7"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -10696,7 +10931,7 @@
     </row>
     <row r="286" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
-      <c r="B286" s="22"/>
+      <c r="B286" s="7"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -10729,7 +10964,7 @@
     </row>
     <row r="287" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A287" s="7"/>
-      <c r="B287" s="22"/>
+      <c r="B287" s="7"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -10762,7 +10997,7 @@
     </row>
     <row r="288" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A288" s="7"/>
-      <c r="B288" s="22"/>
+      <c r="B288" s="7"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -10795,7 +11030,7 @@
     </row>
     <row r="289" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
-      <c r="B289" s="22"/>
+      <c r="B289" s="7"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
@@ -11997,6 +12232,8 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="I39" r:id="rId1"/>
+    <hyperlink ref="I41" r:id="rId2"/>
+    <hyperlink ref="I43" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/updatadeDataBase.xlsx
+++ b/data/updatadeDataBase.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="196">
   <si>
     <t>شماره ردیف</t>
   </si>
@@ -79,7 +79,7 @@
     <t>قدرت</t>
   </si>
   <si>
-    <t>101</t>
+    <t>fRQRQqEYjq</t>
   </si>
   <si>
     <t>برای هماهنگی قطعی شدن زمان به ایمیل alireza.bagheri.sh@gmail.com پیام بدهید.</t>
@@ -109,7 +109,7 @@
     <t>تبدیل انرژی</t>
   </si>
   <si>
-    <t>201</t>
+    <t>WREN2z4tr4</t>
   </si>
   <si>
     <t>هماهنگی و تماس از طریق شماره تماس 09379411263</t>
@@ -121,82 +121,58 @@
     <t>مهندسی مکانیک - تبدیل انرژی</t>
   </si>
   <si>
+    <t>18 فروردین. ساعت 17-18:30</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 19 فروردین. ساعت 17-18:30</t>
   </si>
   <si>
     <t xml:space="preserve"> 20 فروردین. ساعت 17-18:30</t>
   </si>
   <si>
-    <t xml:space="preserve">مصطفی </t>
-  </si>
-  <si>
-    <t>الوندیان</t>
-  </si>
-  <si>
-    <t>مخابرات</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>هماهنگی و تماس از طریق واتساپ و با 09212405364</t>
-  </si>
-  <si>
-    <t>http://s10.picofile.com/file/8392736442/alvandian.JPG</t>
-  </si>
-  <si>
-    <t>مهندسی برق - مخابرات</t>
-  </si>
-  <si>
-    <t>ایوب</t>
-  </si>
-  <si>
-    <t>حسنی</t>
+    <t xml:space="preserve">علیرضا </t>
+  </si>
+  <si>
+    <t>قادری</t>
+  </si>
+  <si>
+    <t>مهندسی نفت</t>
+  </si>
+  <si>
+    <t>مخازن هیدروکربوری</t>
+  </si>
+  <si>
+    <t>rUQzIoy67R</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>http://s10.picofile.com/file/8392736526/ghaderi.JPG</t>
+  </si>
+  <si>
+    <t>مهندسی نفت - مخازن هیدروکربوری</t>
+  </si>
+  <si>
+    <t>۲۰ فروردین ساعت 16 تا 19</t>
+  </si>
+  <si>
+    <t>18 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>19 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمدرضا </t>
+  </si>
+  <si>
+    <t>فرحناک</t>
   </si>
   <si>
     <t>طراحی کاربردی</t>
   </si>
   <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>http://s10.picofile.com/file/8392736450/ayoub_hasani.JPG</t>
-  </si>
-  <si>
-    <t>مهندسی مکانیک - طراحی کاربردی</t>
-  </si>
-  <si>
-    <t>16 فروردین ساعت 18 تا 19</t>
-  </si>
-  <si>
-    <t>17 فروردین ساعت 18 تا 19</t>
-  </si>
-  <si>
-    <t>18 فروردین ساعت 18 تا 19</t>
-  </si>
-  <si>
-    <t>19 فروردین ساعت 18 تا 19</t>
-  </si>
-  <si>
-    <t>20 فروردین ساعت 18 تا 19</t>
-  </si>
-  <si>
-    <t>21 فروردین ساعت 18 تا 19</t>
-  </si>
-  <si>
-    <t>22 فروردین ساعت 18 تا 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">محمدرضا </t>
-  </si>
-  <si>
-    <t>فرحناک</t>
-  </si>
-  <si>
-    <t>203</t>
+    <t>yVT5bzwdtk</t>
   </si>
   <si>
     <t xml:space="preserve">هماهنگی تماس از طریق ایدی تلگرامی @Mreza_farahnak
@@ -206,31 +182,70 @@
     <t>http://s11.picofile.com/file/8392736484/farahnak.JPG</t>
   </si>
   <si>
+    <t>مهندسی مکانیک - طراحی کاربردی</t>
+  </si>
+  <si>
+    <t>21 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>22 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 19 فروردین. ساعت 18-19</t>
   </si>
   <si>
+    <t>18 فروردین. ساعت 18-19</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 20 فروردین. ساعت 18-19</t>
   </si>
   <si>
-    <t xml:space="preserve">علیرضا </t>
-  </si>
-  <si>
-    <t>قادری</t>
-  </si>
-  <si>
-    <t>مهندسی نفت</t>
-  </si>
-  <si>
-    <t>مخازن هیدروکربوری</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>http://s10.picofile.com/file/8392736526/ghaderi.JPG</t>
-  </si>
-  <si>
-    <t>مهندسی نفت - مخازن هیدروکربوری</t>
+    <t xml:space="preserve">مصطفی </t>
+  </si>
+  <si>
+    <t>الوندیان</t>
+  </si>
+  <si>
+    <t>مخابرات</t>
+  </si>
+  <si>
+    <t>TjsUjDatfS</t>
+  </si>
+  <si>
+    <t>هماهنگی و تماس از طریق واتساپ و با 09212405364</t>
+  </si>
+  <si>
+    <t>http://s10.picofile.com/file/8392736442/alvandian.JPG</t>
+  </si>
+  <si>
+    <t>مهندسی برق - مخابرات</t>
+  </si>
+  <si>
+    <t>19 فروردین ساعت 16 تا 19</t>
+  </si>
+  <si>
+    <t>20 فروردین ساعت 10 تا 12</t>
+  </si>
+  <si>
+    <t>ایوب</t>
+  </si>
+  <si>
+    <t>حسنی</t>
+  </si>
+  <si>
+    <t>GPq3HM3THE</t>
+  </si>
+  <si>
+    <t>http://s10.picofile.com/file/8392736450/ayoub_hasani.JPG</t>
+  </si>
+  <si>
+    <t>دیر وقت</t>
+  </si>
+  <si>
+    <t>17 فروردین ساعت 18 تا 19</t>
+  </si>
+  <si>
+    <t>20 فروردین ساعت 18 تا 19</t>
   </si>
   <si>
     <t>محسن</t>
@@ -239,7 +254,7 @@
     <t>غلامی</t>
   </si>
   <si>
-    <t>204</t>
+    <t>dXoGRhNRYt</t>
   </si>
   <si>
     <t>هماهنگی تماس از طریق ایدی تلگرامی @MsnGhmi</t>
@@ -251,7 +266,7 @@
     <t xml:space="preserve"> 18 فروردین. 8-10 (به وقت ایران)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 19 فروردین. 8-10 (به وقت ایران)</t>
+    <t>خیلی دیر</t>
   </si>
   <si>
     <t xml:space="preserve"> 20 فروردین. 8-10 (به وقت ایران)</t>
@@ -263,19 +278,28 @@
     <t>حسینی</t>
   </si>
   <si>
-    <t>205</t>
+    <t>ml6HHB3vyc</t>
   </si>
   <si>
     <t>http://s11.picofile.com/file/8392736592/hoseini.JPG</t>
   </si>
   <si>
+    <t>18 فروردین ساعت 20 تا 12</t>
+  </si>
+  <si>
+    <t>19 فروردین ساعت 20 تا 12</t>
+  </si>
+  <si>
+    <t>20 فروردین ساعت 20 تا 12</t>
+  </si>
+  <si>
     <t>سعید</t>
   </si>
   <si>
     <t>جلیلوند</t>
   </si>
   <si>
-    <t>206</t>
+    <t>2OQs50FBCo</t>
   </si>
   <si>
     <t>http://s11.picofile.com/file/8392736626/jalilvand.JPG</t>
@@ -311,19 +335,31 @@
     <t>کمالی</t>
   </si>
   <si>
-    <t>207</t>
+    <t>hoJTL3Og7Y</t>
   </si>
   <si>
     <t>http://s11.picofile.com/file/8392741392/kamali.JPG</t>
   </si>
   <si>
+    <t>19 فروردین، یک ساعت توافقی</t>
+  </si>
+  <si>
+    <t>18 فروردین، یک ساعت توافقی</t>
+  </si>
+  <si>
+    <t>20 فروردین، یک ساعت توافقی</t>
+  </si>
+  <si>
+    <t>من هستم</t>
+  </si>
+  <si>
     <t>جمال</t>
   </si>
   <si>
     <t>کزازی</t>
   </si>
   <si>
-    <t>103</t>
+    <t>9M0zXoQdqh</t>
   </si>
   <si>
     <t>تماس از طریق تلفن یا تلگرام با شماره 9187042184</t>
@@ -332,13 +368,22 @@
     <t>http://s10.picofile.com/file/8392736976/kazzazi.JPG</t>
   </si>
   <si>
+    <t>18 فروردین. ساعت 17-20</t>
+  </si>
+  <si>
+    <t>19 فروردین. ساعت 18-20</t>
+  </si>
+  <si>
+    <t>20 فروردین. ساعت 16-19</t>
+  </si>
+  <si>
     <t>کورش</t>
   </si>
   <si>
     <t>خلج مفرد</t>
   </si>
   <si>
-    <t>104</t>
+    <t>u37VMTksrf</t>
   </si>
   <si>
     <t xml:space="preserve">هماهنگی و تماس از طریق تلگرام با ایدی @Kkmonfared و همچنین تماس از طریق اسکایپ با شماره 9128303218
@@ -348,13 +393,19 @@
     <t>http://s10.picofile.com/file/8392736684/khalaj.JPG</t>
   </si>
   <si>
+    <t>21 فروردین. ساعت 14-15</t>
+  </si>
+  <si>
+    <t>22 فروردین. ساعت 14-15</t>
+  </si>
+  <si>
     <t>سیدمیلاد</t>
   </si>
   <si>
     <t>میری</t>
   </si>
   <si>
-    <t>105</t>
+    <t>wDAk68R3QR</t>
   </si>
   <si>
     <t>هماهنگی و تماس صوتی با تلفن همراه یا تماس از طریق واتساپ از طریق شماره 09117716042</t>
@@ -363,6 +414,9 @@
     <t>http://s11.picofile.com/file/8392736718/miri.JPG</t>
   </si>
   <si>
+    <t>18 فروردین. ساعت 18-11</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 19 فروردین. ساعت 18-11</t>
   </si>
   <si>
@@ -375,7 +429,7 @@
     <t>ملایی</t>
   </si>
   <si>
-    <t>106</t>
+    <t>OAE9mBtufq</t>
   </si>
   <si>
     <t>هماهنگی و تماس با تلفن همراه از طریق شماره 9157131289</t>
@@ -384,6 +438,9 @@
     <t>http://s10.picofile.com/file/8392736726/mollaii.JPG</t>
   </si>
   <si>
+    <t>18 فروردین. ساعت 18-16</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 19 فروردین. ساعت 18-16</t>
   </si>
   <si>
@@ -393,7 +450,7 @@
     <t>حسین</t>
   </si>
   <si>
-    <t>208</t>
+    <t>BgCVEyc7oL</t>
   </si>
   <si>
     <t>هماهنگی و تماس از طریق شماره تماس 09122508337</t>
@@ -420,7 +477,7 @@
     <t>الکترونیک</t>
   </si>
   <si>
-    <t>107</t>
+    <t>RpRxaU1Tnv</t>
   </si>
   <si>
     <t>هماهنگی و تماس صوتی با تلفن همراه یا تماس از طریق واتساپ از طریق شماره 09377988277</t>
@@ -432,13 +489,19 @@
     <t>مهندسی برق - الکترونیک</t>
   </si>
   <si>
+    <t>18 فروردین ساعت 16 تا 19</t>
+  </si>
+  <si>
+    <t>20 فروردین ساعت 16 تا 19</t>
+  </si>
+  <si>
     <t>علی</t>
   </si>
   <si>
     <t>تاجیک</t>
   </si>
   <si>
-    <t>108</t>
+    <t>mlKF9VydGX</t>
   </si>
   <si>
     <t xml:space="preserve">تماس با تلفن همراه یا تماس صوتی با واتساپ
@@ -455,7 +518,7 @@
     <t>حاجی حسنی</t>
   </si>
   <si>
-    <t>109</t>
+    <t>Bg7kK7M1gk</t>
   </si>
   <si>
     <t>هماهنگی و تماس با شماره همراه 09384220698 یا از طریق پیام رسان تلگرام و آیدی @Vahid_Hajihasani</t>
@@ -464,6 +527,9 @@
     <t>http://s10.picofile.com/file/8392741726/HajiHasani.JPG</t>
   </si>
   <si>
+    <t>18 فروردین. ساعت 22-21</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 19 فروردین. ساعت 22-21</t>
   </si>
   <si>
@@ -471,6 +537,9 @@
   </si>
   <si>
     <t>خوش اخلاق</t>
+  </si>
+  <si>
+    <t>9dhCcoDWmE</t>
   </si>
   <si>
     <t xml:space="preserve">هماهنگی تماس از طریق ارسال پیام در تلگرام با ایدی @DrKhoshakhlagh یا واتساپ روی شماره 09124880702
@@ -495,6 +564,9 @@
     <t>عالمی</t>
   </si>
   <si>
+    <t>Qi64Z9lRPP</t>
+  </si>
+  <si>
     <t xml:space="preserve">هماهنگی و تماس از طریق شماره همراه 09109339615
 </t>
   </si>
@@ -502,38 +574,44 @@
     <t>http://s10.picofile.com/file/8392878350/alemi.JPG</t>
   </si>
   <si>
+    <t>18 فروردین. ساعت 18-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 فروردین. ساعت 18-17</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 19 فروردین. ساعت 18-17</t>
   </si>
   <si>
-    <t xml:space="preserve"> 20 فروردین. ساعت 18-17</t>
-  </si>
-  <si>
     <t>محمدمتین</t>
   </si>
   <si>
     <t>بهزادی</t>
   </si>
   <si>
+    <t>dqtWHhmN2l</t>
+  </si>
+  <si>
     <t>هماهنگی و تماس از طریق تماس تلفنی یا پیامک از طریق شماره همراه 09198958869</t>
   </si>
   <si>
     <t>http://s11.picofile.com/file/8392878392/behzadi.JPG</t>
   </si>
   <si>
+    <t>بیست فروردین 20-20:30</t>
+  </si>
+  <si>
+    <t>نوزده فروردین 20-20:30</t>
+  </si>
+  <si>
     <t>هجده فروردین 20-20:30</t>
-  </si>
-  <si>
-    <t>نوزده فروردین 20-20:30</t>
-  </si>
-  <si>
-    <t>بیست فروردین 20-20:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -559,23 +637,16 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <sz val="11"/>
-      <name val="B nazanin"/>
-    </font>
-    <font>
-      <color rgb="FF008080"/>
-      <sz val="11"/>
-      <name val="Noto Sans Symbols"/>
-    </font>
-    <font>
-      <u/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -605,7 +676,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -661,24 +732,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -698,7 +756,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -707,17 +765,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,25 +786,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,7 +1139,9 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
       <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
@@ -1121,11 +1172,11 @@
       <c r="L3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -1152,13 +1203,13 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
@@ -1178,7 +1229,9 @@
       <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
       <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
@@ -1203,17 +1256,19 @@
       <c r="J5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="L5" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -1240,13 +1295,13 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -1266,38 +1321,46 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="14">
+        <v>3</v>
+      </c>
       <c r="C7" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -1321,16 +1384,16 @@
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -1350,52 +1413,52 @@
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="14">
+        <v>4</v>
+      </c>
       <c r="C9" s="15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="L9" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>58</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="Q9" s="13"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -1419,16 +1482,16 @@
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="8"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
@@ -1448,42 +1511,44 @@
       <c r="A11" s="8">
         <v>5</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="14">
+        <v>5</v>
+      </c>
       <c r="C11" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="L11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -1510,13 +1575,13 @@
       <c r="H12" s="16"/>
       <c r="I12" s="8"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -1536,42 +1601,54 @@
       <c r="A13" s="8">
         <v>6</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="14">
+        <v>6</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="O13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
@@ -1598,13 +1675,13 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="16"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
@@ -1624,44 +1701,46 @@
       <c r="A15" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="14">
+        <v>7</v>
+      </c>
       <c r="C15" s="15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -1688,13 +1767,13 @@
       <c r="H16" s="16"/>
       <c r="I16" s="8"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
@@ -1714,38 +1793,46 @@
       <c r="A17" s="8">
         <v>8</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="14">
+        <v>8</v>
+      </c>
       <c r="C17" s="15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
@@ -1772,13 +1859,13 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
@@ -1798,54 +1885,56 @@
       <c r="A19" s="8">
         <v>9</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="14">
+        <v>9</v>
+      </c>
       <c r="C19" s="15" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>90</v>
+        <v>97</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="R19" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
@@ -1872,13 +1961,13 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
@@ -1898,38 +1987,48 @@
       <c r="A21" s="8">
         <v>10</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="14">
+        <v>10</v>
+      </c>
       <c r="C21" s="15" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
@@ -1956,13 +2055,13 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
@@ -1982,38 +2081,46 @@
       <c r="A23" s="8">
         <v>11</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="14">
+        <v>11</v>
+      </c>
       <c r="C23" s="15" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
@@ -2040,13 +2147,13 @@
       <c r="H24" s="16"/>
       <c r="I24" s="8"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
@@ -2066,12 +2173,14 @@
       <c r="A25" s="8">
         <v>12</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="14">
+        <v>12</v>
+      </c>
       <c r="C25" s="15" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>20</v>
@@ -2080,24 +2189,28 @@
         <v>21</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
+      <c r="K25" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
@@ -2124,13 +2237,13 @@
       <c r="H26" s="16"/>
       <c r="I26" s="8"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
@@ -2150,42 +2263,46 @@
       <c r="A27" s="8">
         <v>13</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="14">
+        <v>13</v>
+      </c>
       <c r="C27" s="15" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="18" t="s">
-        <v>116</v>
+        <v>68</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -2212,13 +2329,13 @@
       <c r="H28" s="16"/>
       <c r="I28" s="8"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -2238,42 +2355,46 @@
       <c r="A29" s="8">
         <v>14</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="14">
+        <v>14</v>
+      </c>
       <c r="C29" s="15" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="18" t="s">
-        <v>123</v>
+        <v>68</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
+        <v>143</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -2300,13 +2421,13 @@
       <c r="H30" s="16"/>
       <c r="I30" s="8"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -2326,12 +2447,14 @@
       <c r="A31" s="8">
         <v>15</v>
       </c>
-      <c r="B31" s="14"/>
+      <c r="B31" s="14">
+        <v>15</v>
+      </c>
       <c r="C31" s="15" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>30</v>
@@ -2340,30 +2463,30 @@
         <v>31</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="J31" s="16" t="s">
         <v>35</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>130</v>
+        <v>148</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
@@ -2390,13 +2513,13 @@
       <c r="H32" s="16"/>
       <c r="I32" s="8"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
@@ -2416,38 +2539,46 @@
       <c r="A33" s="8">
         <v>16</v>
       </c>
-      <c r="B33" s="14"/>
+      <c r="B33" s="14">
+        <v>16</v>
+      </c>
       <c r="C33" s="15" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -2474,13 +2605,13 @@
       <c r="H34" s="16"/>
       <c r="I34" s="8"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
@@ -2500,38 +2631,46 @@
       <c r="A35" s="8">
         <v>17</v>
       </c>
-      <c r="B35" s="14"/>
+      <c r="B35" s="14">
+        <v>17</v>
+      </c>
       <c r="C35" s="15" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
@@ -2558,13 +2697,13 @@
       <c r="H36" s="16"/>
       <c r="I36" s="8"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
@@ -2584,12 +2723,14 @@
       <c r="A37" s="8">
         <v>18</v>
       </c>
-      <c r="B37" s="14"/>
+      <c r="B37" s="14">
+        <v>18</v>
+      </c>
       <c r="C37" s="15" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>20</v>
@@ -2598,28 +2739,30 @@
         <v>21</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="17"/>
+      <c r="K37" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="L37" s="12" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
+        <v>172</v>
+      </c>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -2646,13 +2789,13 @@
       <c r="H38" s="16"/>
       <c r="I38" s="8"/>
       <c r="J38" s="16"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
@@ -2672,42 +2815,46 @@
       <c r="A39" s="8">
         <v>19</v>
       </c>
-      <c r="B39" s="14"/>
+      <c r="B39" s="14">
+        <v>19</v>
+      </c>
       <c r="C39" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I39" s="20" t="s">
         <v>153</v>
       </c>
+      <c r="G39" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="J39" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="M39" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
+        <v>157</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -2731,16 +2878,16 @@
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="20"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
@@ -2760,12 +2907,14 @@
       <c r="A41" s="8">
         <v>20</v>
       </c>
-      <c r="B41" s="14"/>
+      <c r="B41" s="14">
+        <v>20</v>
+      </c>
       <c r="C41" s="15" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>30</v>
@@ -2773,27 +2922,31 @@
       <c r="F41" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>160</v>
+      <c r="G41" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="J41" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="18" t="s">
-        <v>161</v>
+      <c r="K41" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
+        <v>187</v>
+      </c>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
@@ -2817,16 +2970,16 @@
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
@@ -2846,12 +2999,14 @@
       <c r="A43" s="8">
         <v>21</v>
       </c>
-      <c r="B43" s="14"/>
+      <c r="B43" s="14">
+        <v>21</v>
+      </c>
       <c r="C43" s="15" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>30</v>
@@ -2859,29 +3014,31 @@
       <c r="F43" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="8"/>
+      <c r="G43" s="8" t="s">
+        <v>190</v>
+      </c>
       <c r="H43" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>166</v>
+        <v>191</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K43" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="L43" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="M43" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
+      <c r="K43" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
@@ -2906,15 +3063,15 @@
       <c r="F44" s="16"/>
       <c r="G44" s="8"/>
       <c r="H44" s="16"/>
-      <c r="I44" s="20"/>
+      <c r="I44" s="8"/>
       <c r="J44" s="16"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
@@ -2935,21 +3092,21 @@
         <v>22</v>
       </c>
       <c r="B45" s="14"/>
-      <c r="C45" s="23"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="23"/>
+      <c r="E45" s="19"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -2968,21 +3125,21 @@
     <row r="46" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="23"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="23"/>
+      <c r="E46" s="19"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
@@ -3003,21 +3160,21 @@
         <v>23</v>
       </c>
       <c r="B47" s="14"/>
-      <c r="C47" s="23"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="23"/>
+      <c r="E47" s="19"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -3036,21 +3193,21 @@
     <row r="48" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="23"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="8"/>
-      <c r="E48" s="23"/>
+      <c r="E48" s="19"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
@@ -3071,21 +3228,21 @@
         <v>24</v>
       </c>
       <c r="B49" s="14"/>
-      <c r="C49" s="23"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="23"/>
+      <c r="E49" s="19"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
@@ -3104,21 +3261,21 @@
     <row r="50" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="23"/>
+      <c r="C50" s="19"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="23"/>
+      <c r="E50" s="19"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
@@ -3139,21 +3296,21 @@
         <v>25</v>
       </c>
       <c r="B51" s="14"/>
-      <c r="C51" s="23"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="23"/>
+      <c r="E51" s="19"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
@@ -3172,21 +3329,21 @@
     <row r="52" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="23"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="23"/>
+      <c r="E52" s="19"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
@@ -3207,21 +3364,21 @@
         <v>26</v>
       </c>
       <c r="B53" s="14"/>
-      <c r="C53" s="23"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="23"/>
+      <c r="E53" s="19"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
@@ -3240,21 +3397,21 @@
     <row r="54" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="23"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="23"/>
+      <c r="E54" s="19"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
@@ -3275,21 +3432,21 @@
         <v>27</v>
       </c>
       <c r="B55" s="14"/>
-      <c r="C55" s="23"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="23"/>
+      <c r="E55" s="19"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
@@ -3308,21 +3465,21 @@
     <row r="56" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="23"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="23"/>
+      <c r="E56" s="19"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
@@ -3343,21 +3500,21 @@
         <v>28</v>
       </c>
       <c r="B57" s="14"/>
-      <c r="C57" s="23"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="23"/>
+      <c r="E57" s="19"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -3376,21 +3533,21 @@
     <row r="58" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="23"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="23"/>
+      <c r="E58" s="19"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
@@ -3411,21 +3568,21 @@
         <v>29</v>
       </c>
       <c r="B59" s="14"/>
-      <c r="C59" s="23"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="23"/>
+      <c r="E59" s="19"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
@@ -3444,21 +3601,21 @@
     <row r="60" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="23"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="8"/>
-      <c r="E60" s="23"/>
+      <c r="E60" s="19"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
@@ -3479,21 +3636,21 @@
         <v>30</v>
       </c>
       <c r="B61" s="14"/>
-      <c r="C61" s="23"/>
+      <c r="C61" s="19"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="23"/>
+      <c r="E61" s="19"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
@@ -3512,21 +3669,21 @@
     <row r="62" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="23"/>
+      <c r="C62" s="19"/>
       <c r="D62" s="8"/>
-      <c r="E62" s="23"/>
+      <c r="E62" s="19"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
@@ -3547,21 +3704,21 @@
         <v>31</v>
       </c>
       <c r="B63" s="14"/>
-      <c r="C63" s="23"/>
+      <c r="C63" s="19"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="23"/>
+      <c r="E63" s="19"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
@@ -3580,21 +3737,21 @@
     <row r="64" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="23"/>
+      <c r="C64" s="19"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="23"/>
+      <c r="E64" s="19"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
       <c r="T64" s="7"/>
@@ -3615,21 +3772,21 @@
         <v>32</v>
       </c>
       <c r="B65" s="14"/>
-      <c r="C65" s="23"/>
+      <c r="C65" s="19"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="23"/>
+      <c r="E65" s="19"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
@@ -3648,21 +3805,21 @@
     <row r="66" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="23"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="23"/>
+      <c r="E66" s="19"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
@@ -3683,21 +3840,21 @@
         <v>33</v>
       </c>
       <c r="B67" s="14"/>
-      <c r="C67" s="23"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="23"/>
+      <c r="E67" s="19"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
@@ -3716,21 +3873,21 @@
     <row r="68" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="23"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="23"/>
+      <c r="E68" s="19"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
       <c r="T68" s="7"/>
@@ -3751,21 +3908,21 @@
         <v>34</v>
       </c>
       <c r="B69" s="14"/>
-      <c r="C69" s="23"/>
+      <c r="C69" s="19"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="23"/>
+      <c r="E69" s="19"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
@@ -3784,21 +3941,21 @@
     <row r="70" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="23"/>
+      <c r="C70" s="19"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="23"/>
+      <c r="E70" s="19"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
       <c r="T70" s="7"/>
@@ -3819,21 +3976,21 @@
         <v>35</v>
       </c>
       <c r="B71" s="14"/>
-      <c r="C71" s="23"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="23"/>
+      <c r="E71" s="19"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
@@ -3852,21 +4009,21 @@
     <row r="72" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="23"/>
+      <c r="C72" s="19"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="23"/>
+      <c r="E72" s="19"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
@@ -3887,21 +4044,21 @@
         <v>36</v>
       </c>
       <c r="B73" s="14"/>
-      <c r="C73" s="23"/>
+      <c r="C73" s="19"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="23"/>
+      <c r="E73" s="19"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
@@ -3920,21 +4077,21 @@
     <row r="74" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="23"/>
+      <c r="C74" s="19"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="23"/>
+      <c r="E74" s="19"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
@@ -3955,21 +4112,21 @@
         <v>37</v>
       </c>
       <c r="B75" s="14"/>
-      <c r="C75" s="23"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="23"/>
+      <c r="E75" s="19"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
@@ -3988,21 +4145,21 @@
     <row r="76" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="23"/>
+      <c r="C76" s="19"/>
       <c r="D76" s="8"/>
-      <c r="E76" s="23"/>
+      <c r="E76" s="19"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
       <c r="T76" s="7"/>
@@ -4023,21 +4180,21 @@
         <v>38</v>
       </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="23"/>
+      <c r="C77" s="19"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="23"/>
+      <c r="E77" s="19"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
@@ -4056,21 +4213,21 @@
     <row r="78" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="23"/>
+      <c r="C78" s="19"/>
       <c r="D78" s="8"/>
-      <c r="E78" s="23"/>
+      <c r="E78" s="19"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
@@ -4091,21 +4248,21 @@
         <v>39</v>
       </c>
       <c r="B79" s="14"/>
-      <c r="C79" s="23"/>
+      <c r="C79" s="19"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="23"/>
+      <c r="E79" s="19"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
@@ -4124,21 +4281,21 @@
     <row r="80" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="23"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="8"/>
-      <c r="E80" s="23"/>
+      <c r="E80" s="19"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
@@ -4159,21 +4316,21 @@
         <v>40</v>
       </c>
       <c r="B81" s="14"/>
-      <c r="C81" s="23"/>
+      <c r="C81" s="19"/>
       <c r="D81" s="8"/>
-      <c r="E81" s="23"/>
+      <c r="E81" s="19"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
@@ -4192,21 +4349,21 @@
     <row r="82" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="23"/>
+      <c r="C82" s="19"/>
       <c r="D82" s="8"/>
-      <c r="E82" s="23"/>
+      <c r="E82" s="19"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
       <c r="T82" s="7"/>
@@ -4227,7 +4384,7 @@
         <v>41</v>
       </c>
       <c r="B83" s="14"/>
-      <c r="C83" s="23"/>
+      <c r="C83" s="19"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -4235,13 +4392,13 @@
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
@@ -4260,7 +4417,7 @@
     <row r="84" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="23"/>
+      <c r="C84" s="19"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -4268,13 +4425,13 @@
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
       <c r="T84" s="7"/>
@@ -4295,21 +4452,21 @@
         <v>42</v>
       </c>
       <c r="B85" s="14"/>
-      <c r="C85" s="23"/>
+      <c r="C85" s="19"/>
       <c r="D85" s="8"/>
-      <c r="E85" s="23"/>
+      <c r="E85" s="19"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="22"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
@@ -4328,21 +4485,21 @@
     <row r="86" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="23"/>
+      <c r="C86" s="19"/>
       <c r="D86" s="8"/>
-      <c r="E86" s="23"/>
+      <c r="E86" s="19"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="22"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
@@ -4363,21 +4520,21 @@
         <v>43</v>
       </c>
       <c r="B87" s="14"/>
-      <c r="C87" s="23"/>
+      <c r="C87" s="19"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="23"/>
+      <c r="E87" s="19"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
       <c r="R87" s="7"/>
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
@@ -4396,21 +4553,21 @@
     <row r="88" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="23"/>
+      <c r="C88" s="19"/>
       <c r="D88" s="8"/>
-      <c r="E88" s="23"/>
+      <c r="E88" s="19"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
@@ -4431,21 +4588,21 @@
         <v>44</v>
       </c>
       <c r="B89" s="14"/>
-      <c r="C89" s="23"/>
+      <c r="C89" s="19"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="23"/>
+      <c r="E89" s="19"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
       <c r="R89" s="7"/>
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
@@ -4464,21 +4621,21 @@
     <row r="90" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="23"/>
+      <c r="C90" s="19"/>
       <c r="D90" s="8"/>
-      <c r="E90" s="23"/>
+      <c r="E90" s="19"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
       <c r="T90" s="7"/>
@@ -4496,7 +4653,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -4529,7 +4686,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -4562,7 +4719,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -4595,7 +4752,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -4628,7 +4785,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -4661,7 +4818,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -4694,7 +4851,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -4727,7 +4884,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -4760,7 +4917,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -4793,7 +4950,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -4826,7 +4983,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -4859,7 +5016,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -4892,7 +5049,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -4925,7 +5082,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -4958,7 +5115,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -4991,7 +5148,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -5024,7 +5181,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -5057,7 +5214,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -5090,7 +5247,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -5123,7 +5280,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -5156,7 +5313,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -5189,7 +5346,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -5222,7 +5379,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -5255,7 +5412,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -5288,7 +5445,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -5321,7 +5478,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -5354,7 +5511,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -5387,7 +5544,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -5420,7 +5577,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -5453,7 +5610,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -5486,7 +5643,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -5519,7 +5676,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -5552,7 +5709,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -5585,7 +5742,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -5618,7 +5775,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -5651,7 +5808,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -5684,7 +5841,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -5717,7 +5874,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -5750,7 +5907,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -5783,7 +5940,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -5816,7 +5973,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
@@ -5849,7 +6006,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
@@ -5882,7 +6039,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -5915,7 +6072,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -5948,7 +6105,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
@@ -5981,7 +6138,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -6014,7 +6171,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
@@ -6047,7 +6204,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
@@ -6080,7 +6237,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -6113,7 +6270,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
@@ -6146,7 +6303,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
-      <c r="B141" s="7"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -6179,7 +6336,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -6212,7 +6369,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
@@ -6245,7 +6402,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -6278,7 +6435,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -6311,7 +6468,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -6344,7 +6501,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -6377,7 +6534,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -6410,7 +6567,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -6443,7 +6600,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -6476,7 +6633,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -6509,7 +6666,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -6542,7 +6699,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -6575,7 +6732,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -6608,7 +6765,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -6641,7 +6798,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -6674,7 +6831,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -6707,7 +6864,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -6740,7 +6897,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -6773,7 +6930,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -6806,7 +6963,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -6839,7 +6996,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -6872,7 +7029,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -6905,7 +7062,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -6938,7 +7095,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -6971,7 +7128,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -7004,7 +7161,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -7037,7 +7194,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -7070,7 +7227,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -7103,7 +7260,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -7136,7 +7293,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -7169,7 +7326,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -7202,7 +7359,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -7235,7 +7392,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -7268,7 +7425,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -7301,7 +7458,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -7334,7 +7491,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
-      <c r="B177" s="7"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -7367,7 +7524,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
-      <c r="B178" s="7"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -7400,7 +7557,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -7433,7 +7590,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
-      <c r="B180" s="7"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -7466,7 +7623,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
-      <c r="B181" s="7"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -7499,7 +7656,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
-      <c r="B182" s="7"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -7532,7 +7689,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
-      <c r="B183" s="7"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -7565,7 +7722,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -7598,7 +7755,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
-      <c r="B185" s="7"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -7631,7 +7788,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
-      <c r="B186" s="7"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -7664,7 +7821,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
-      <c r="B187" s="7"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -7697,7 +7854,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
-      <c r="B188" s="7"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -7730,7 +7887,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
-      <c r="B189" s="7"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -7763,7 +7920,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
-      <c r="B190" s="7"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -7796,7 +7953,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
-      <c r="B191" s="7"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -7829,7 +7986,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
-      <c r="B192" s="7"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -7862,7 +8019,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
-      <c r="B193" s="7"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -7895,7 +8052,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
-      <c r="B194" s="7"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -7928,7 +8085,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
-      <c r="B195" s="7"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -7961,7 +8118,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
-      <c r="B196" s="7"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -7994,7 +8151,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
-      <c r="B197" s="7"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -8027,7 +8184,7 @@
     </row>
     <row r="198" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
-      <c r="B198" s="7"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -8060,7 +8217,7 @@
     </row>
     <row r="199" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
-      <c r="B199" s="7"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -8093,7 +8250,7 @@
     </row>
     <row r="200" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
-      <c r="B200" s="7"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -8126,7 +8283,7 @@
     </row>
     <row r="201" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
-      <c r="B201" s="7"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -8159,7 +8316,7 @@
     </row>
     <row r="202" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
-      <c r="B202" s="7"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -8192,7 +8349,7 @@
     </row>
     <row r="203" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
-      <c r="B203" s="7"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -8225,7 +8382,7 @@
     </row>
     <row r="204" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
-      <c r="B204" s="7"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -8258,7 +8415,7 @@
     </row>
     <row r="205" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
-      <c r="B205" s="7"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -8291,7 +8448,7 @@
     </row>
     <row r="206" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
-      <c r="B206" s="7"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -8324,7 +8481,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
-      <c r="B207" s="7"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -8357,7 +8514,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
-      <c r="B208" s="7"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -8390,7 +8547,7 @@
     </row>
     <row r="209" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
-      <c r="B209" s="7"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -8423,7 +8580,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
-      <c r="B210" s="7"/>
+      <c r="B210" s="20"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -8456,7 +8613,7 @@
     </row>
     <row r="211" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
-      <c r="B211" s="7"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -8489,7 +8646,7 @@
     </row>
     <row r="212" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
-      <c r="B212" s="7"/>
+      <c r="B212" s="20"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -8522,7 +8679,7 @@
     </row>
     <row r="213" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
-      <c r="B213" s="7"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -8555,7 +8712,7 @@
     </row>
     <row r="214" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
-      <c r="B214" s="7"/>
+      <c r="B214" s="20"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -8588,7 +8745,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
-      <c r="B215" s="7"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -8621,7 +8778,7 @@
     </row>
     <row r="216" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
-      <c r="B216" s="7"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -8654,7 +8811,7 @@
     </row>
     <row r="217" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
-      <c r="B217" s="7"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -8687,7 +8844,7 @@
     </row>
     <row r="218" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
-      <c r="B218" s="7"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -8720,7 +8877,7 @@
     </row>
     <row r="219" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
+      <c r="B219" s="20"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -8753,7 +8910,7 @@
     </row>
     <row r="220" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
-      <c r="B220" s="7"/>
+      <c r="B220" s="20"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -8786,7 +8943,7 @@
     </row>
     <row r="221" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
-      <c r="B221" s="7"/>
+      <c r="B221" s="20"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -8819,7 +8976,7 @@
     </row>
     <row r="222" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
-      <c r="B222" s="7"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -8852,7 +9009,7 @@
     </row>
     <row r="223" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
-      <c r="B223" s="7"/>
+      <c r="B223" s="20"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -8885,7 +9042,7 @@
     </row>
     <row r="224" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -8918,7 +9075,7 @@
     </row>
     <row r="225" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
-      <c r="B225" s="7"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -8951,7 +9108,7 @@
     </row>
     <row r="226" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
-      <c r="B226" s="7"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -8984,7 +9141,7 @@
     </row>
     <row r="227" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
-      <c r="B227" s="7"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -9017,7 +9174,7 @@
     </row>
     <row r="228" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -9050,7 +9207,7 @@
     </row>
     <row r="229" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -9083,7 +9240,7 @@
     </row>
     <row r="230" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -9116,7 +9273,7 @@
     </row>
     <row r="231" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -9149,7 +9306,7 @@
     </row>
     <row r="232" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -9182,7 +9339,7 @@
     </row>
     <row r="233" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
-      <c r="B233" s="7"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -9215,7 +9372,7 @@
     </row>
     <row r="234" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
-      <c r="B234" s="7"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -9248,7 +9405,7 @@
     </row>
     <row r="235" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
-      <c r="B235" s="7"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -9281,7 +9438,7 @@
     </row>
     <row r="236" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -9314,7 +9471,7 @@
     </row>
     <row r="237" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -9347,7 +9504,7 @@
     </row>
     <row r="238" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -9380,7 +9537,7 @@
     </row>
     <row r="239" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
-      <c r="B239" s="7"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -9413,7 +9570,7 @@
     </row>
     <row r="240" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
-      <c r="B240" s="7"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -9446,7 +9603,7 @@
     </row>
     <row r="241" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
-      <c r="B241" s="7"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -9479,7 +9636,7 @@
     </row>
     <row r="242" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -9512,7 +9669,7 @@
     </row>
     <row r="243" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -9545,7 +9702,7 @@
     </row>
     <row r="244" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -9578,7 +9735,7 @@
     </row>
     <row r="245" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -9611,7 +9768,7 @@
     </row>
     <row r="246" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -9644,7 +9801,7 @@
     </row>
     <row r="247" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -9677,7 +9834,7 @@
     </row>
     <row r="248" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
-      <c r="B248" s="7"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -9710,7 +9867,7 @@
     </row>
     <row r="249" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
-      <c r="B249" s="7"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -9743,7 +9900,7 @@
     </row>
     <row r="250" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A250" s="7"/>
-      <c r="B250" s="7"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -9776,7 +9933,7 @@
     </row>
     <row r="251" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -9809,7 +9966,7 @@
     </row>
     <row r="252" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
-      <c r="B252" s="7"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -9842,7 +9999,7 @@
     </row>
     <row r="253" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A253" s="7"/>
-      <c r="B253" s="7"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -9875,7 +10032,7 @@
     </row>
     <row r="254" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
-      <c r="B254" s="7"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -9908,7 +10065,7 @@
     </row>
     <row r="255" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
-      <c r="B255" s="7"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -9941,7 +10098,7 @@
     </row>
     <row r="256" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
-      <c r="B256" s="7"/>
+      <c r="B256" s="20"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -9974,7 +10131,7 @@
     </row>
     <row r="257" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
-      <c r="B257" s="7"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -10007,7 +10164,7 @@
     </row>
     <row r="258" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A258" s="7"/>
-      <c r="B258" s="7"/>
+      <c r="B258" s="20"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -10040,7 +10197,7 @@
     </row>
     <row r="259" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
-      <c r="B259" s="7"/>
+      <c r="B259" s="20"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -10073,7 +10230,7 @@
     </row>
     <row r="260" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
-      <c r="B260" s="7"/>
+      <c r="B260" s="20"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -10106,7 +10263,7 @@
     </row>
     <row r="261" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A261" s="7"/>
-      <c r="B261" s="7"/>
+      <c r="B261" s="20"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -10139,7 +10296,7 @@
     </row>
     <row r="262" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A262" s="7"/>
-      <c r="B262" s="7"/>
+      <c r="B262" s="20"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -10172,7 +10329,7 @@
     </row>
     <row r="263" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A263" s="7"/>
-      <c r="B263" s="7"/>
+      <c r="B263" s="20"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -10205,7 +10362,7 @@
     </row>
     <row r="264" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
-      <c r="B264" s="7"/>
+      <c r="B264" s="20"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -10238,7 +10395,7 @@
     </row>
     <row r="265" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A265" s="7"/>
-      <c r="B265" s="7"/>
+      <c r="B265" s="20"/>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -10271,7 +10428,7 @@
     </row>
     <row r="266" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A266" s="7"/>
-      <c r="B266" s="7"/>
+      <c r="B266" s="20"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -10304,7 +10461,7 @@
     </row>
     <row r="267" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A267" s="7"/>
-      <c r="B267" s="7"/>
+      <c r="B267" s="20"/>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -10337,7 +10494,7 @@
     </row>
     <row r="268" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A268" s="7"/>
-      <c r="B268" s="7"/>
+      <c r="B268" s="20"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -10370,7 +10527,7 @@
     </row>
     <row r="269" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A269" s="7"/>
-      <c r="B269" s="7"/>
+      <c r="B269" s="20"/>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -10403,7 +10560,7 @@
     </row>
     <row r="270" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
-      <c r="B270" s="7"/>
+      <c r="B270" s="20"/>
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -10436,7 +10593,7 @@
     </row>
     <row r="271" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
-      <c r="B271" s="7"/>
+      <c r="B271" s="20"/>
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -10469,7 +10626,7 @@
     </row>
     <row r="272" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
-      <c r="B272" s="7"/>
+      <c r="B272" s="20"/>
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -10502,7 +10659,7 @@
     </row>
     <row r="273" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
-      <c r="B273" s="7"/>
+      <c r="B273" s="20"/>
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -10535,7 +10692,7 @@
     </row>
     <row r="274" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A274" s="7"/>
-      <c r="B274" s="7"/>
+      <c r="B274" s="20"/>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -10568,7 +10725,7 @@
     </row>
     <row r="275" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
-      <c r="B275" s="7"/>
+      <c r="B275" s="20"/>
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -10601,7 +10758,7 @@
     </row>
     <row r="276" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
-      <c r="B276" s="7"/>
+      <c r="B276" s="20"/>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -10634,7 +10791,7 @@
     </row>
     <row r="277" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
-      <c r="B277" s="7"/>
+      <c r="B277" s="20"/>
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -10667,7 +10824,7 @@
     </row>
     <row r="278" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
-      <c r="B278" s="7"/>
+      <c r="B278" s="20"/>
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -10700,7 +10857,7 @@
     </row>
     <row r="279" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
-      <c r="B279" s="7"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -10733,7 +10890,7 @@
     </row>
     <row r="280" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A280" s="7"/>
-      <c r="B280" s="7"/>
+      <c r="B280" s="20"/>
       <c r="C280" s="7"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -10766,7 +10923,7 @@
     </row>
     <row r="281" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
-      <c r="B281" s="7"/>
+      <c r="B281" s="20"/>
       <c r="C281" s="7"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -10799,7 +10956,7 @@
     </row>
     <row r="282" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
-      <c r="B282" s="7"/>
+      <c r="B282" s="20"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -10832,7 +10989,7 @@
     </row>
     <row r="283" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
+      <c r="B283" s="20"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -10865,7 +11022,7 @@
     </row>
     <row r="284" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="20"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -10898,7 +11055,7 @@
     </row>
     <row r="285" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A285" s="7"/>
-      <c r="B285" s="7"/>
+      <c r="B285" s="20"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -10931,7 +11088,7 @@
     </row>
     <row r="286" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
-      <c r="B286" s="7"/>
+      <c r="B286" s="20"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -10964,7 +11121,7 @@
     </row>
     <row r="287" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A287" s="7"/>
-      <c r="B287" s="7"/>
+      <c r="B287" s="20"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -10997,7 +11154,7 @@
     </row>
     <row r="288" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A288" s="7"/>
-      <c r="B288" s="7"/>
+      <c r="B288" s="20"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -11030,7 +11187,7 @@
     </row>
     <row r="289" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
-      <c r="B289" s="7"/>
+      <c r="B289" s="20"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
@@ -12230,11 +12387,6 @@
       <formula1>"مهندسی برق,مهندسی مکانیک,مهندسی کامپیوتر,مهندسی شیمی,مهندسی هوافضا,مهندسی عمران,مهندسی پلیمر,مهندسی صنایع,مهندسی نقشه برداری,مهندسی معدن,مهندسی متالورژی,علوم مهندسی"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I39" r:id="rId1"/>
-    <hyperlink ref="I41" r:id="rId2"/>
-    <hyperlink ref="I43" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>

--- a/data/updatadeDataBase.xlsx
+++ b/data/updatadeDataBase.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="196">
   <si>
     <t>شماره ردیف</t>
   </si>
@@ -266,10 +266,10 @@
     <t xml:space="preserve"> 18 فروردین. 8-10 (به وقت ایران)</t>
   </si>
   <si>
+    <t xml:space="preserve"> 20 فروردین. 8-10 (به وقت ایران)</t>
+  </si>
+  <si>
     <t>خیلی دیر</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20 فروردین. 8-10 (به وقت ایران)</t>
   </si>
   <si>
     <t>رمضان</t>
@@ -611,7 +611,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -646,7 +646,13 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
       <color rgb="FF000000"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -736,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -786,11 +792,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1204,7 +1216,9 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
@@ -1731,7 +1745,7 @@
       <c r="K15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="12" t="s">
         <v>84</v>
       </c>
       <c r="M15" s="12" t="s">
@@ -1933,7 +1947,7 @@
       <c r="Q19" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="R19" s="18" t="s">
+      <c r="R19" s="17" t="s">
         <v>104</v>
       </c>
       <c r="S19" s="7"/>
@@ -2023,7 +2037,7 @@
       <c r="M21" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="12" t="s">
         <v>112</v>
       </c>
       <c r="O21" s="13"/>
@@ -2744,7 +2758,7 @@
       <c r="H37" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="18" t="s">
         <v>169</v>
       </c>
       <c r="J37" s="16" t="s">
@@ -2787,7 +2801,7 @@
       <c r="F38" s="16"/>
       <c r="G38" s="8"/>
       <c r="H38" s="16"/>
-      <c r="I38" s="8"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="16"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -2836,7 +2850,7 @@
       <c r="H39" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="18" t="s">
         <v>176</v>
       </c>
       <c r="J39" s="16" t="s">
@@ -2879,7 +2893,7 @@
       <c r="F40" s="16"/>
       <c r="G40" s="8"/>
       <c r="H40" s="16"/>
-      <c r="I40" s="8"/>
+      <c r="I40" s="18"/>
       <c r="J40" s="16"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
@@ -2928,7 +2942,7 @@
       <c r="H41" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="18" t="s">
         <v>184</v>
       </c>
       <c r="J41" s="16" t="s">
@@ -2971,7 +2985,7 @@
       <c r="F42" s="16"/>
       <c r="G42" s="8"/>
       <c r="H42" s="16"/>
-      <c r="I42" s="8"/>
+      <c r="I42" s="18"/>
       <c r="J42" s="16"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
@@ -3020,7 +3034,7 @@
       <c r="H43" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="18" t="s">
         <v>192</v>
       </c>
       <c r="J43" s="16" t="s">
@@ -3063,7 +3077,7 @@
       <c r="F44" s="16"/>
       <c r="G44" s="8"/>
       <c r="H44" s="16"/>
-      <c r="I44" s="8"/>
+      <c r="I44" s="18"/>
       <c r="J44" s="16"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
@@ -3091,15 +3105,33 @@
       <c r="A45" s="8">
         <v>22</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
+      <c r="B45" s="19">
+        <v>22</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
@@ -3124,15 +3156,15 @@
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="8"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="16"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
@@ -3159,15 +3191,33 @@
       <c r="A47" s="8">
         <v>23</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
+      <c r="B47" s="19">
+        <v>23</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
@@ -3192,15 +3242,15 @@
     </row>
     <row r="48" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="8"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="11"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="16"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
@@ -3228,15 +3278,31 @@
         <v>24</v>
       </c>
       <c r="B49" s="14"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="13"/>
+      <c r="C49" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="20"/>
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
@@ -3261,14 +3327,14 @@
     <row r="50" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="8"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="16"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
@@ -3296,9 +3362,9 @@
         <v>25</v>
       </c>
       <c r="B51" s="14"/>
-      <c r="C51" s="19"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="8"/>
-      <c r="E51" s="19"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -3329,9 +3395,9 @@
     <row r="52" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="19"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="19"/>
+      <c r="E52" s="21"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -3364,9 +3430,9 @@
         <v>26</v>
       </c>
       <c r="B53" s="14"/>
-      <c r="C53" s="19"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="19"/>
+      <c r="E53" s="21"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -3397,9 +3463,9 @@
     <row r="54" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="19"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="19"/>
+      <c r="E54" s="21"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -3432,9 +3498,9 @@
         <v>27</v>
       </c>
       <c r="B55" s="14"/>
-      <c r="C55" s="19"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="19"/>
+      <c r="E55" s="21"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -3465,9 +3531,9 @@
     <row r="56" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="14"/>
-      <c r="C56" s="19"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="8"/>
-      <c r="E56" s="19"/>
+      <c r="E56" s="21"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -3500,9 +3566,9 @@
         <v>28</v>
       </c>
       <c r="B57" s="14"/>
-      <c r="C57" s="19"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="19"/>
+      <c r="E57" s="21"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -3533,9 +3599,9 @@
     <row r="58" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="19"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="19"/>
+      <c r="E58" s="21"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -3568,9 +3634,9 @@
         <v>29</v>
       </c>
       <c r="B59" s="14"/>
-      <c r="C59" s="19"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="19"/>
+      <c r="E59" s="21"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -3601,9 +3667,9 @@
     <row r="60" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="19"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="8"/>
-      <c r="E60" s="19"/>
+      <c r="E60" s="21"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -3636,9 +3702,9 @@
         <v>30</v>
       </c>
       <c r="B61" s="14"/>
-      <c r="C61" s="19"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="19"/>
+      <c r="E61" s="21"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -3669,9 +3735,9 @@
     <row r="62" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="14"/>
-      <c r="C62" s="19"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="8"/>
-      <c r="E62" s="19"/>
+      <c r="E62" s="21"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -3704,9 +3770,9 @@
         <v>31</v>
       </c>
       <c r="B63" s="14"/>
-      <c r="C63" s="19"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="8"/>
-      <c r="E63" s="19"/>
+      <c r="E63" s="21"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -3737,9 +3803,9 @@
     <row r="64" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="19"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="8"/>
-      <c r="E64" s="19"/>
+      <c r="E64" s="21"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -3772,9 +3838,9 @@
         <v>32</v>
       </c>
       <c r="B65" s="14"/>
-      <c r="C65" s="19"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="19"/>
+      <c r="E65" s="21"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -3805,9 +3871,9 @@
     <row r="66" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="14"/>
-      <c r="C66" s="19"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="8"/>
-      <c r="E66" s="19"/>
+      <c r="E66" s="21"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
@@ -3840,9 +3906,9 @@
         <v>33</v>
       </c>
       <c r="B67" s="14"/>
-      <c r="C67" s="19"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="8"/>
-      <c r="E67" s="19"/>
+      <c r="E67" s="21"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -3873,9 +3939,9 @@
     <row r="68" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="14"/>
-      <c r="C68" s="19"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="19"/>
+      <c r="E68" s="21"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -3908,9 +3974,9 @@
         <v>34</v>
       </c>
       <c r="B69" s="14"/>
-      <c r="C69" s="19"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="19"/>
+      <c r="E69" s="21"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -3941,9 +4007,9 @@
     <row r="70" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="19"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="19"/>
+      <c r="E70" s="21"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
@@ -3976,9 +4042,9 @@
         <v>35</v>
       </c>
       <c r="B71" s="14"/>
-      <c r="C71" s="19"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="8"/>
-      <c r="E71" s="19"/>
+      <c r="E71" s="21"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -4009,9 +4075,9 @@
     <row r="72" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="14"/>
-      <c r="C72" s="19"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="8"/>
-      <c r="E72" s="19"/>
+      <c r="E72" s="21"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -4044,9 +4110,9 @@
         <v>36</v>
       </c>
       <c r="B73" s="14"/>
-      <c r="C73" s="19"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="19"/>
+      <c r="E73" s="21"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -4077,9 +4143,9 @@
     <row r="74" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="14"/>
-      <c r="C74" s="19"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="8"/>
-      <c r="E74" s="19"/>
+      <c r="E74" s="21"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -4112,9 +4178,9 @@
         <v>37</v>
       </c>
       <c r="B75" s="14"/>
-      <c r="C75" s="19"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="8"/>
-      <c r="E75" s="19"/>
+      <c r="E75" s="21"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -4145,9 +4211,9 @@
     <row r="76" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="19"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="8"/>
-      <c r="E76" s="19"/>
+      <c r="E76" s="21"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
@@ -4180,9 +4246,9 @@
         <v>38</v>
       </c>
       <c r="B77" s="14"/>
-      <c r="C77" s="19"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="8"/>
-      <c r="E77" s="19"/>
+      <c r="E77" s="21"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -4213,9 +4279,9 @@
     <row r="78" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="19"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="8"/>
-      <c r="E78" s="19"/>
+      <c r="E78" s="21"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
@@ -4248,9 +4314,9 @@
         <v>39</v>
       </c>
       <c r="B79" s="14"/>
-      <c r="C79" s="19"/>
+      <c r="C79" s="21"/>
       <c r="D79" s="8"/>
-      <c r="E79" s="19"/>
+      <c r="E79" s="21"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
@@ -4281,9 +4347,9 @@
     <row r="80" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="19"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="8"/>
-      <c r="E80" s="19"/>
+      <c r="E80" s="21"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
@@ -4316,9 +4382,9 @@
         <v>40</v>
       </c>
       <c r="B81" s="14"/>
-      <c r="C81" s="19"/>
+      <c r="C81" s="21"/>
       <c r="D81" s="8"/>
-      <c r="E81" s="19"/>
+      <c r="E81" s="21"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -4349,9 +4415,9 @@
     <row r="82" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="19"/>
+      <c r="C82" s="21"/>
       <c r="D82" s="8"/>
-      <c r="E82" s="19"/>
+      <c r="E82" s="21"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
@@ -4384,7 +4450,7 @@
         <v>41</v>
       </c>
       <c r="B83" s="14"/>
-      <c r="C83" s="19"/>
+      <c r="C83" s="21"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
@@ -4417,7 +4483,7 @@
     <row r="84" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="19"/>
+      <c r="C84" s="21"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -4452,9 +4518,9 @@
         <v>42</v>
       </c>
       <c r="B85" s="14"/>
-      <c r="C85" s="19"/>
+      <c r="C85" s="21"/>
       <c r="D85" s="8"/>
-      <c r="E85" s="19"/>
+      <c r="E85" s="21"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -4485,9 +4551,9 @@
     <row r="86" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="19"/>
+      <c r="C86" s="21"/>
       <c r="D86" s="8"/>
-      <c r="E86" s="19"/>
+      <c r="E86" s="21"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
@@ -4520,9 +4586,9 @@
         <v>43</v>
       </c>
       <c r="B87" s="14"/>
-      <c r="C87" s="19"/>
+      <c r="C87" s="21"/>
       <c r="D87" s="8"/>
-      <c r="E87" s="19"/>
+      <c r="E87" s="21"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
@@ -4553,9 +4619,9 @@
     <row r="88" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="19"/>
+      <c r="C88" s="21"/>
       <c r="D88" s="8"/>
-      <c r="E88" s="19"/>
+      <c r="E88" s="21"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
@@ -4588,9 +4654,9 @@
         <v>44</v>
       </c>
       <c r="B89" s="14"/>
-      <c r="C89" s="19"/>
+      <c r="C89" s="21"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="19"/>
+      <c r="E89" s="21"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -4621,9 +4687,9 @@
     <row r="90" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="19"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="8"/>
-      <c r="E90" s="19"/>
+      <c r="E90" s="21"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -4653,7 +4719,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
-      <c r="B91" s="20"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -4686,7 +4752,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
-      <c r="B92" s="20"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -4719,7 +4785,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
-      <c r="B93" s="20"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -4752,7 +4818,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
-      <c r="B94" s="20"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -4785,7 +4851,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
-      <c r="B95" s="20"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -4818,7 +4884,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
-      <c r="B96" s="20"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -4851,7 +4917,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -4884,7 +4950,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
-      <c r="B98" s="20"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -4917,7 +4983,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
-      <c r="B99" s="20"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -4950,7 +5016,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
-      <c r="B100" s="20"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -4983,7 +5049,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
-      <c r="B101" s="20"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -5016,7 +5082,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
-      <c r="B102" s="20"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -5049,7 +5115,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
-      <c r="B103" s="20"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -5082,7 +5148,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
-      <c r="B104" s="20"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -5115,7 +5181,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
-      <c r="B105" s="20"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="7"/>
@@ -5148,7 +5214,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
-      <c r="B106" s="20"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -5181,7 +5247,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
-      <c r="B107" s="20"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
@@ -5214,7 +5280,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
-      <c r="B108" s="20"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -5247,7 +5313,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
-      <c r="B109" s="20"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -5280,7 +5346,7 @@
     </row>
     <row r="110" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
-      <c r="B110" s="20"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
@@ -5313,7 +5379,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
-      <c r="B111" s="20"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
@@ -5346,7 +5412,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
-      <c r="B112" s="20"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -5379,7 +5445,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
-      <c r="B113" s="20"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -5412,7 +5478,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
-      <c r="B114" s="20"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -5445,7 +5511,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
-      <c r="B115" s="20"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
@@ -5478,7 +5544,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
-      <c r="B116" s="20"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -5511,7 +5577,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
-      <c r="B117" s="20"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -5544,7 +5610,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
-      <c r="B118" s="20"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -5577,7 +5643,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
-      <c r="B119" s="20"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -5610,7 +5676,7 @@
     </row>
     <row r="120" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
-      <c r="B120" s="20"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -5643,7 +5709,7 @@
     </row>
     <row r="121" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
-      <c r="B121" s="20"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
@@ -5676,7 +5742,7 @@
     </row>
     <row r="122" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
-      <c r="B122" s="20"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -5709,7 +5775,7 @@
     </row>
     <row r="123" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
-      <c r="B123" s="20"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
@@ -5742,7 +5808,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
-      <c r="B124" s="20"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -5775,7 +5841,7 @@
     </row>
     <row r="125" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
-      <c r="B125" s="20"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -5808,7 +5874,7 @@
     </row>
     <row r="126" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
-      <c r="B126" s="20"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
@@ -5841,7 +5907,7 @@
     </row>
     <row r="127" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
-      <c r="B127" s="20"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -5874,7 +5940,7 @@
     </row>
     <row r="128" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
-      <c r="B128" s="20"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -5907,7 +5973,7 @@
     </row>
     <row r="129" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
-      <c r="B129" s="20"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -5940,7 +6006,7 @@
     </row>
     <row r="130" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
-      <c r="B130" s="20"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -5973,7 +6039,7 @@
     </row>
     <row r="131" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
-      <c r="B131" s="20"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
@@ -6006,7 +6072,7 @@
     </row>
     <row r="132" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
-      <c r="B132" s="20"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
@@ -6039,7 +6105,7 @@
     </row>
     <row r="133" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
-      <c r="B133" s="20"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -6072,7 +6138,7 @@
     </row>
     <row r="134" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
-      <c r="B134" s="20"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
@@ -6105,7 +6171,7 @@
     </row>
     <row r="135" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
-      <c r="B135" s="20"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
@@ -6138,7 +6204,7 @@
     </row>
     <row r="136" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
-      <c r="B136" s="20"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="7"/>
@@ -6171,7 +6237,7 @@
     </row>
     <row r="137" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
-      <c r="B137" s="20"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
@@ -6204,7 +6270,7 @@
     </row>
     <row r="138" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
-      <c r="B138" s="20"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
@@ -6237,7 +6303,7 @@
     </row>
     <row r="139" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
-      <c r="B139" s="20"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
@@ -6270,7 +6336,7 @@
     </row>
     <row r="140" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
-      <c r="B140" s="20"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
@@ -6303,7 +6369,7 @@
     </row>
     <row r="141" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
-      <c r="B141" s="20"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
@@ -6336,7 +6402,7 @@
     </row>
     <row r="142" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
-      <c r="B142" s="20"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -6369,7 +6435,7 @@
     </row>
     <row r="143" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
-      <c r="B143" s="20"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
@@ -6402,7 +6468,7 @@
     </row>
     <row r="144" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
-      <c r="B144" s="20"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -6435,7 +6501,7 @@
     </row>
     <row r="145" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
-      <c r="B145" s="20"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -6468,7 +6534,7 @@
     </row>
     <row r="146" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
-      <c r="B146" s="20"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -6501,7 +6567,7 @@
     </row>
     <row r="147" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
-      <c r="B147" s="20"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
@@ -6534,7 +6600,7 @@
     </row>
     <row r="148" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
-      <c r="B148" s="20"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -6567,7 +6633,7 @@
     </row>
     <row r="149" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
-      <c r="B149" s="20"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -6600,7 +6666,7 @@
     </row>
     <row r="150" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
-      <c r="B150" s="20"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -6633,7 +6699,7 @@
     </row>
     <row r="151" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
-      <c r="B151" s="20"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -6666,7 +6732,7 @@
     </row>
     <row r="152" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
-      <c r="B152" s="20"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -6699,7 +6765,7 @@
     </row>
     <row r="153" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
-      <c r="B153" s="20"/>
+      <c r="B153" s="22"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -6732,7 +6798,7 @@
     </row>
     <row r="154" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
-      <c r="B154" s="20"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -6765,7 +6831,7 @@
     </row>
     <row r="155" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
-      <c r="B155" s="20"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -6798,7 +6864,7 @@
     </row>
     <row r="156" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A156" s="7"/>
-      <c r="B156" s="20"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -6831,7 +6897,7 @@
     </row>
     <row r="157" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
-      <c r="B157" s="20"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -6864,7 +6930,7 @@
     </row>
     <row r="158" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
-      <c r="B158" s="20"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -6897,7 +6963,7 @@
     </row>
     <row r="159" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A159" s="7"/>
-      <c r="B159" s="20"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -6930,7 +6996,7 @@
     </row>
     <row r="160" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
-      <c r="B160" s="20"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -6963,7 +7029,7 @@
     </row>
     <row r="161" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A161" s="7"/>
-      <c r="B161" s="20"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -6996,7 +7062,7 @@
     </row>
     <row r="162" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
-      <c r="B162" s="20"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -7029,7 +7095,7 @@
     </row>
     <row r="163" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A163" s="7"/>
-      <c r="B163" s="20"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -7062,7 +7128,7 @@
     </row>
     <row r="164" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A164" s="7"/>
-      <c r="B164" s="20"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -7095,7 +7161,7 @@
     </row>
     <row r="165" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A165" s="7"/>
-      <c r="B165" s="20"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -7128,7 +7194,7 @@
     </row>
     <row r="166" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A166" s="7"/>
-      <c r="B166" s="20"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -7161,7 +7227,7 @@
     </row>
     <row r="167" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A167" s="7"/>
-      <c r="B167" s="20"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -7194,7 +7260,7 @@
     </row>
     <row r="168" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A168" s="7"/>
-      <c r="B168" s="20"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -7227,7 +7293,7 @@
     </row>
     <row r="169" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A169" s="7"/>
-      <c r="B169" s="20"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -7260,7 +7326,7 @@
     </row>
     <row r="170" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A170" s="7"/>
-      <c r="B170" s="20"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -7293,7 +7359,7 @@
     </row>
     <row r="171" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A171" s="7"/>
-      <c r="B171" s="20"/>
+      <c r="B171" s="22"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -7326,7 +7392,7 @@
     </row>
     <row r="172" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A172" s="7"/>
-      <c r="B172" s="20"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -7359,7 +7425,7 @@
     </row>
     <row r="173" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A173" s="7"/>
-      <c r="B173" s="20"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -7392,7 +7458,7 @@
     </row>
     <row r="174" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A174" s="7"/>
-      <c r="B174" s="20"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -7425,7 +7491,7 @@
     </row>
     <row r="175" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
-      <c r="B175" s="20"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -7458,7 +7524,7 @@
     </row>
     <row r="176" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A176" s="7"/>
-      <c r="B176" s="20"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -7491,7 +7557,7 @@
     </row>
     <row r="177" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
-      <c r="B177" s="20"/>
+      <c r="B177" s="22"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -7524,7 +7590,7 @@
     </row>
     <row r="178" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
-      <c r="B178" s="20"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -7557,7 +7623,7 @@
     </row>
     <row r="179" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
-      <c r="B179" s="20"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -7590,7 +7656,7 @@
     </row>
     <row r="180" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
-      <c r="B180" s="20"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -7623,7 +7689,7 @@
     </row>
     <row r="181" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
-      <c r="B181" s="20"/>
+      <c r="B181" s="22"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -7656,7 +7722,7 @@
     </row>
     <row r="182" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
-      <c r="B182" s="20"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
@@ -7689,7 +7755,7 @@
     </row>
     <row r="183" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
-      <c r="B183" s="20"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -7722,7 +7788,7 @@
     </row>
     <row r="184" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
-      <c r="B184" s="20"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -7755,7 +7821,7 @@
     </row>
     <row r="185" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
-      <c r="B185" s="20"/>
+      <c r="B185" s="22"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -7788,7 +7854,7 @@
     </row>
     <row r="186" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
-      <c r="B186" s="20"/>
+      <c r="B186" s="22"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -7821,7 +7887,7 @@
     </row>
     <row r="187" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
-      <c r="B187" s="20"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -7854,7 +7920,7 @@
     </row>
     <row r="188" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
-      <c r="B188" s="20"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -7887,7 +7953,7 @@
     </row>
     <row r="189" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
-      <c r="B189" s="20"/>
+      <c r="B189" s="22"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -7920,7 +7986,7 @@
     </row>
     <row r="190" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
-      <c r="B190" s="20"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -7953,7 +8019,7 @@
     </row>
     <row r="191" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
-      <c r="B191" s="20"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -7986,7 +8052,7 @@
     </row>
     <row r="192" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
-      <c r="B192" s="20"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -8019,7 +8085,7 @@
     </row>
     <row r="193" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
-      <c r="B193" s="20"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -8052,7 +8118,7 @@
     </row>
     <row r="194" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
-      <c r="B194" s="20"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -8085,7 +8151,7 @@
     </row>
     <row r="195" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
-      <c r="B195" s="20"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -8118,7 +8184,7 @@
     </row>
     <row r="196" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
-      <c r="B196" s="20"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -8151,7 +8217,7 @@
     </row>
     <row r="197" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
-      <c r="B197" s="20"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -8184,7 +8250,7 @@
     </row>
     <row r="198" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
-      <c r="B198" s="20"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -8217,7 +8283,7 @@
     </row>
     <row r="199" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
-      <c r="B199" s="20"/>
+      <c r="B199" s="22"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -8250,7 +8316,7 @@
     </row>
     <row r="200" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
-      <c r="B200" s="20"/>
+      <c r="B200" s="22"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -8283,7 +8349,7 @@
     </row>
     <row r="201" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
-      <c r="B201" s="20"/>
+      <c r="B201" s="22"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -8316,7 +8382,7 @@
     </row>
     <row r="202" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
-      <c r="B202" s="20"/>
+      <c r="B202" s="22"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -8349,7 +8415,7 @@
     </row>
     <row r="203" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
-      <c r="B203" s="20"/>
+      <c r="B203" s="22"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -8382,7 +8448,7 @@
     </row>
     <row r="204" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
-      <c r="B204" s="20"/>
+      <c r="B204" s="22"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -8415,7 +8481,7 @@
     </row>
     <row r="205" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
-      <c r="B205" s="20"/>
+      <c r="B205" s="22"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -8448,7 +8514,7 @@
     </row>
     <row r="206" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
-      <c r="B206" s="20"/>
+      <c r="B206" s="22"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -8481,7 +8547,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
-      <c r="B207" s="20"/>
+      <c r="B207" s="22"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -8514,7 +8580,7 @@
     </row>
     <row r="208" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
-      <c r="B208" s="20"/>
+      <c r="B208" s="22"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -8547,7 +8613,7 @@
     </row>
     <row r="209" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
-      <c r="B209" s="20"/>
+      <c r="B209" s="22"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -8580,7 +8646,7 @@
     </row>
     <row r="210" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A210" s="7"/>
-      <c r="B210" s="20"/>
+      <c r="B210" s="22"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -8613,7 +8679,7 @@
     </row>
     <row r="211" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A211" s="7"/>
-      <c r="B211" s="20"/>
+      <c r="B211" s="22"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -8646,7 +8712,7 @@
     </row>
     <row r="212" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A212" s="7"/>
-      <c r="B212" s="20"/>
+      <c r="B212" s="22"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -8679,7 +8745,7 @@
     </row>
     <row r="213" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A213" s="7"/>
-      <c r="B213" s="20"/>
+      <c r="B213" s="22"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -8712,7 +8778,7 @@
     </row>
     <row r="214" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A214" s="7"/>
-      <c r="B214" s="20"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -8745,7 +8811,7 @@
     </row>
     <row r="215" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A215" s="7"/>
-      <c r="B215" s="20"/>
+      <c r="B215" s="22"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -8778,7 +8844,7 @@
     </row>
     <row r="216" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A216" s="7"/>
-      <c r="B216" s="20"/>
+      <c r="B216" s="22"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -8811,7 +8877,7 @@
     </row>
     <row r="217" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A217" s="7"/>
-      <c r="B217" s="20"/>
+      <c r="B217" s="22"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -8844,7 +8910,7 @@
     </row>
     <row r="218" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A218" s="7"/>
-      <c r="B218" s="20"/>
+      <c r="B218" s="22"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -8877,7 +8943,7 @@
     </row>
     <row r="219" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A219" s="7"/>
-      <c r="B219" s="20"/>
+      <c r="B219" s="22"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -8910,7 +8976,7 @@
     </row>
     <row r="220" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A220" s="7"/>
-      <c r="B220" s="20"/>
+      <c r="B220" s="22"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -8943,7 +9009,7 @@
     </row>
     <row r="221" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A221" s="7"/>
-      <c r="B221" s="20"/>
+      <c r="B221" s="22"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -8976,7 +9042,7 @@
     </row>
     <row r="222" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A222" s="7"/>
-      <c r="B222" s="20"/>
+      <c r="B222" s="22"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -9009,7 +9075,7 @@
     </row>
     <row r="223" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A223" s="7"/>
-      <c r="B223" s="20"/>
+      <c r="B223" s="22"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -9042,7 +9108,7 @@
     </row>
     <row r="224" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A224" s="7"/>
-      <c r="B224" s="20"/>
+      <c r="B224" s="22"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -9075,7 +9141,7 @@
     </row>
     <row r="225" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A225" s="7"/>
-      <c r="B225" s="20"/>
+      <c r="B225" s="22"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -9108,7 +9174,7 @@
     </row>
     <row r="226" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A226" s="7"/>
-      <c r="B226" s="20"/>
+      <c r="B226" s="22"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -9141,7 +9207,7 @@
     </row>
     <row r="227" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A227" s="7"/>
-      <c r="B227" s="20"/>
+      <c r="B227" s="22"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -9174,7 +9240,7 @@
     </row>
     <row r="228" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
-      <c r="B228" s="20"/>
+      <c r="B228" s="22"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -9207,7 +9273,7 @@
     </row>
     <row r="229" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A229" s="7"/>
-      <c r="B229" s="20"/>
+      <c r="B229" s="22"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -9240,7 +9306,7 @@
     </row>
     <row r="230" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A230" s="7"/>
-      <c r="B230" s="20"/>
+      <c r="B230" s="22"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -9273,7 +9339,7 @@
     </row>
     <row r="231" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A231" s="7"/>
-      <c r="B231" s="20"/>
+      <c r="B231" s="22"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -9306,7 +9372,7 @@
     </row>
     <row r="232" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A232" s="7"/>
-      <c r="B232" s="20"/>
+      <c r="B232" s="22"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -9339,7 +9405,7 @@
     </row>
     <row r="233" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A233" s="7"/>
-      <c r="B233" s="20"/>
+      <c r="B233" s="22"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -9372,7 +9438,7 @@
     </row>
     <row r="234" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A234" s="7"/>
-      <c r="B234" s="20"/>
+      <c r="B234" s="22"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -9405,7 +9471,7 @@
     </row>
     <row r="235" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A235" s="7"/>
-      <c r="B235" s="20"/>
+      <c r="B235" s="22"/>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -9438,7 +9504,7 @@
     </row>
     <row r="236" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A236" s="7"/>
-      <c r="B236" s="20"/>
+      <c r="B236" s="22"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -9471,7 +9537,7 @@
     </row>
     <row r="237" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A237" s="7"/>
-      <c r="B237" s="20"/>
+      <c r="B237" s="22"/>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -9504,7 +9570,7 @@
     </row>
     <row r="238" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A238" s="7"/>
-      <c r="B238" s="20"/>
+      <c r="B238" s="22"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -9537,7 +9603,7 @@
     </row>
     <row r="239" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A239" s="7"/>
-      <c r="B239" s="20"/>
+      <c r="B239" s="22"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -9570,7 +9636,7 @@
     </row>
     <row r="240" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A240" s="7"/>
-      <c r="B240" s="20"/>
+      <c r="B240" s="22"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -9603,7 +9669,7 @@
     </row>
     <row r="241" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A241" s="7"/>
-      <c r="B241" s="20"/>
+      <c r="B241" s="22"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -9636,7 +9702,7 @@
     </row>
     <row r="242" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A242" s="7"/>
-      <c r="B242" s="20"/>
+      <c r="B242" s="22"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -9669,7 +9735,7 @@
     </row>
     <row r="243" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A243" s="7"/>
-      <c r="B243" s="20"/>
+      <c r="B243" s="22"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -9702,7 +9768,7 @@
     </row>
     <row r="244" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A244" s="7"/>
-      <c r="B244" s="20"/>
+      <c r="B244" s="22"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -9735,7 +9801,7 @@
     </row>
     <row r="245" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A245" s="7"/>
-      <c r="B245" s="20"/>
+      <c r="B245" s="22"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -9768,7 +9834,7 @@
     </row>
     <row r="246" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A246" s="7"/>
-      <c r="B246" s="20"/>
+      <c r="B246" s="22"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -9801,7 +9867,7 @@
     </row>
     <row r="247" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A247" s="7"/>
-      <c r="B247" s="20"/>
+      <c r="B247" s="22"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -9834,7 +9900,7 @@
     </row>
     <row r="248" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
-      <c r="B248" s="20"/>
+      <c r="B248" s="22"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -9867,7 +9933,7 @@
     </row>
     <row r="249" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A249" s="7"/>
-      <c r="B249" s="20"/>
+      <c r="B249" s="22"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -9900,7 +9966,7 @@
     </row>
     <row r="250" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A250" s="7"/>
-      <c r="B250" s="20"/>
+      <c r="B250" s="22"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -9933,7 +9999,7 @@
     </row>
     <row r="251" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A251" s="7"/>
-      <c r="B251" s="20"/>
+      <c r="B251" s="22"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -9966,7 +10032,7 @@
     </row>
     <row r="252" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A252" s="7"/>
-      <c r="B252" s="20"/>
+      <c r="B252" s="22"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -9999,7 +10065,7 @@
     </row>
     <row r="253" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A253" s="7"/>
-      <c r="B253" s="20"/>
+      <c r="B253" s="22"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -10032,7 +10098,7 @@
     </row>
     <row r="254" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A254" s="7"/>
-      <c r="B254" s="20"/>
+      <c r="B254" s="22"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -10065,7 +10131,7 @@
     </row>
     <row r="255" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
-      <c r="B255" s="20"/>
+      <c r="B255" s="22"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -10098,7 +10164,7 @@
     </row>
     <row r="256" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A256" s="7"/>
-      <c r="B256" s="20"/>
+      <c r="B256" s="22"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -10131,7 +10197,7 @@
     </row>
     <row r="257" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A257" s="7"/>
-      <c r="B257" s="20"/>
+      <c r="B257" s="22"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -10164,7 +10230,7 @@
     </row>
     <row r="258" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A258" s="7"/>
-      <c r="B258" s="20"/>
+      <c r="B258" s="22"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -10197,7 +10263,7 @@
     </row>
     <row r="259" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A259" s="7"/>
-      <c r="B259" s="20"/>
+      <c r="B259" s="22"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -10230,7 +10296,7 @@
     </row>
     <row r="260" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
-      <c r="B260" s="20"/>
+      <c r="B260" s="22"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -10263,7 +10329,7 @@
     </row>
     <row r="261" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A261" s="7"/>
-      <c r="B261" s="20"/>
+      <c r="B261" s="22"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -10296,7 +10362,7 @@
     </row>
     <row r="262" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A262" s="7"/>
-      <c r="B262" s="20"/>
+      <c r="B262" s="22"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -10329,7 +10395,7 @@
     </row>
     <row r="263" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A263" s="7"/>
-      <c r="B263" s="20"/>
+      <c r="B263" s="22"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -10362,7 +10428,7 @@
     </row>
     <row r="264" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A264" s="7"/>
-      <c r="B264" s="20"/>
+      <c r="B264" s="22"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -10395,7 +10461,7 @@
     </row>
     <row r="265" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A265" s="7"/>
-      <c r="B265" s="20"/>
+      <c r="B265" s="22"/>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -10428,7 +10494,7 @@
     </row>
     <row r="266" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A266" s="7"/>
-      <c r="B266" s="20"/>
+      <c r="B266" s="22"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -10461,7 +10527,7 @@
     </row>
     <row r="267" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A267" s="7"/>
-      <c r="B267" s="20"/>
+      <c r="B267" s="22"/>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -10494,7 +10560,7 @@
     </row>
     <row r="268" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A268" s="7"/>
-      <c r="B268" s="20"/>
+      <c r="B268" s="22"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -10527,7 +10593,7 @@
     </row>
     <row r="269" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A269" s="7"/>
-      <c r="B269" s="20"/>
+      <c r="B269" s="22"/>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -10560,7 +10626,7 @@
     </row>
     <row r="270" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A270" s="7"/>
-      <c r="B270" s="20"/>
+      <c r="B270" s="22"/>
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -10593,7 +10659,7 @@
     </row>
     <row r="271" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A271" s="7"/>
-      <c r="B271" s="20"/>
+      <c r="B271" s="22"/>
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -10626,7 +10692,7 @@
     </row>
     <row r="272" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A272" s="7"/>
-      <c r="B272" s="20"/>
+      <c r="B272" s="22"/>
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -10659,7 +10725,7 @@
     </row>
     <row r="273" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A273" s="7"/>
-      <c r="B273" s="20"/>
+      <c r="B273" s="22"/>
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -10692,7 +10758,7 @@
     </row>
     <row r="274" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A274" s="7"/>
-      <c r="B274" s="20"/>
+      <c r="B274" s="22"/>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -10725,7 +10791,7 @@
     </row>
     <row r="275" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A275" s="7"/>
-      <c r="B275" s="20"/>
+      <c r="B275" s="22"/>
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -10758,7 +10824,7 @@
     </row>
     <row r="276" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A276" s="7"/>
-      <c r="B276" s="20"/>
+      <c r="B276" s="22"/>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -10791,7 +10857,7 @@
     </row>
     <row r="277" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A277" s="7"/>
-      <c r="B277" s="20"/>
+      <c r="B277" s="22"/>
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -10824,7 +10890,7 @@
     </row>
     <row r="278" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A278" s="7"/>
-      <c r="B278" s="20"/>
+      <c r="B278" s="22"/>
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -10857,7 +10923,7 @@
     </row>
     <row r="279" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A279" s="7"/>
-      <c r="B279" s="20"/>
+      <c r="B279" s="22"/>
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -10890,7 +10956,7 @@
     </row>
     <row r="280" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A280" s="7"/>
-      <c r="B280" s="20"/>
+      <c r="B280" s="22"/>
       <c r="C280" s="7"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -10923,7 +10989,7 @@
     </row>
     <row r="281" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A281" s="7"/>
-      <c r="B281" s="20"/>
+      <c r="B281" s="22"/>
       <c r="C281" s="7"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -10956,7 +11022,7 @@
     </row>
     <row r="282" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A282" s="7"/>
-      <c r="B282" s="20"/>
+      <c r="B282" s="22"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -10989,7 +11055,7 @@
     </row>
     <row r="283" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A283" s="7"/>
-      <c r="B283" s="20"/>
+      <c r="B283" s="22"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -11022,7 +11088,7 @@
     </row>
     <row r="284" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A284" s="7"/>
-      <c r="B284" s="20"/>
+      <c r="B284" s="22"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -11055,7 +11121,7 @@
     </row>
     <row r="285" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A285" s="7"/>
-      <c r="B285" s="20"/>
+      <c r="B285" s="22"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -11088,7 +11154,7 @@
     </row>
     <row r="286" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A286" s="7"/>
-      <c r="B286" s="20"/>
+      <c r="B286" s="22"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -11121,7 +11187,7 @@
     </row>
     <row r="287" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A287" s="7"/>
-      <c r="B287" s="20"/>
+      <c r="B287" s="22"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -11154,7 +11220,7 @@
     </row>
     <row r="288" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A288" s="7"/>
-      <c r="B288" s="20"/>
+      <c r="B288" s="22"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -11187,7 +11253,7 @@
     </row>
     <row r="289" ht="15.75" customHeight="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A289" s="7"/>
-      <c r="B289" s="20"/>
+      <c r="B289" s="22"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
@@ -12387,6 +12453,15 @@
       <formula1>"مهندسی برق,مهندسی مکانیک,مهندسی کامپیوتر,مهندسی شیمی,مهندسی هوافضا,مهندسی عمران,مهندسی پلیمر,مهندسی صنایع,مهندسی نقشه برداری,مهندسی معدن,مهندسی متالورژی,علوم مهندسی"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I37" r:id="rId1"/>
+    <hyperlink ref="I39" r:id="rId2"/>
+    <hyperlink ref="I41" r:id="rId3"/>
+    <hyperlink ref="I43" r:id="rId4"/>
+    <hyperlink ref="I45" r:id="rId5"/>
+    <hyperlink ref="I47" r:id="rId6"/>
+    <hyperlink ref="I49" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
